--- a/config_debug/audio_config.xlsx
+++ b/config_debug/audio_config.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1983" uniqueCount="1743">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2019" uniqueCount="1779">
   <si>
     <t>sod_game_lose</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -6092,293 +6092,429 @@
   </si>
   <si>
     <t>bgm_by_tiaozhanrenxianshi.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_by_bossBchuchang.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_by_bossBchiyu.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_by_bossBdefen.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_by_bossCchuchang.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_by_bossCchuchang1.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_by_bossDchuchang1.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>章鱼出场前3次喷墨汁的音效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_by_bossDjisha.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_by_zhaohuan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_by_zhaohuan.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_3dby_suoding.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_by_suoding</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_3dby_jl3.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_main_hall.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_main_hall</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_xiaoyouxibeijing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_xiaoyouxibeijing.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_by_2345chang</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2345场次游戏中音效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_by_2345chang.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2小牛角</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2小气泡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3小丑鱼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4小燕鱼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5小黄鳍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6河豚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7小灯笼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8小旗鱼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10小水母</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12小章鱼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15小海龟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18狮子鱼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20蝴蝶鱼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>25巨大小丑鱼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30巨大灯笼鱼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>35巨大燕鱼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>40魔鬼鱼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>60虎鲸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>80~100黄金灯笼鱼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100~120黄金狮子鱼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>120~140黄金海龟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>130~150黄金河豚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>140~160金蟾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>160~180大金鲨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>180~200黄金锤头鲨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_3dby_shandianyu.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_3dby_boomfish.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_3dby_goldboomfish.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_by_bossgame.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_by_xiaobossgame.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_by_xiaobossgame</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_by_bossgame</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_by_dating.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_3dby_game.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初级场背景音乐，循环</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_3dby_siwang0.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_3dby_siwang2.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_3dby_siwang10.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_3dby_siwang1.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_3dby_siwang11.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_by_siwang12.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_by_siwang8.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_by_siwang26.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_by_siwang7.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_by_siwang13.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_by_siwang9.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_by_siwang20.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_by_siwang10.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_by_siwang18.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_by_siwang29.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_by_siwang6.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>bgm_by_tiaozhanrenxianshi.mp3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>bgm_by_bossBchuchang.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_by_bossBchiyu.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_by_bossBdefen.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_by_bossCchuchang.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_by_bossCchuchang1.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_by_bossDchuchang1.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>章鱼出场前3次喷墨汁的音效</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_by_bossDjisha.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_by_zhaohuan</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_by_zhaohuan.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_3dby_suoding.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_by_suoding</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_3dby_jl3.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_main_hall.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_main_hall</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_xiaoyouxibeijing</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_xiaoyouxibeijing.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_by_2345chang</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2345场次游戏中音效</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_by_2345chang.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2小牛角</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2小气泡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3小丑鱼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4小燕鱼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5小黄鳍</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6河豚</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7小灯笼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8小旗鱼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10小水母</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>12小章鱼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>15小海龟</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>18狮子鱼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20蝴蝶鱼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>25巨大小丑鱼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>30巨大灯笼鱼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>35巨大燕鱼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>40魔鬼鱼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>60虎鲸</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>80~100黄金灯笼鱼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>100~120黄金狮子鱼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>120~140黄金海龟</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>130~150黄金河豚</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>140~160金蟾</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>160~180大金鲨</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>180~200黄金锤头鲨</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_3dby_shandianyu.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_3dby_boomfish.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_3dby_goldboomfish.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_by_bossgame.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_by_xiaobossgame.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_by_xiaobossgame</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_by_bossgame</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_by_dating.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_3dby_game.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>初级场背景音乐，循环</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_3dby_siwang0.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_3dby_siwang2.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_3dby_siwang10.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_3dby_siwang1.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_3dby_siwang11.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_by_siwang12.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_by_siwang8.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_by_siwang26.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_by_siwang7.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_by_siwang13.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_by_siwang9.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_by_siwang20.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_by_siwang10.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_by_siwang18.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_by_siwang29.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_by_siwang6.mp3</t>
+    <t>bgm_by_count_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_by_count_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_by_count_3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_by_count_4</t>
+  </si>
+  <si>
+    <t>bgm_by_count_5</t>
+  </si>
+  <si>
+    <t>bgm_by_count_6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_by_countEnd_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_by_countEnd_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_by_countEnd_3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_by_countEnd_4</t>
+  </si>
+  <si>
+    <t>bgm_by_countEnd_5</t>
+  </si>
+  <si>
+    <t>bgm_by_countEnd_6</t>
+  </si>
+  <si>
+    <t>bgm_by_count_1.mp3</t>
+  </si>
+  <si>
+    <t>bgm_by_count_2.mp4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_by_count_3.mp5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_by_count_4.mp6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_by_count_5.mp7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_by_count_6.mp8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_by_countEnd_1.mp10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_by_countEnd_2.mp11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_by_countEnd_3.mp12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_by_countEnd_4.mp13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_by_countEnd_5.mp14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_by_countEnd_6.mp15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数字突然放大音效1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数字突然放大音效2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数字突然放大音效3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数字突然放大音效4</t>
+  </si>
+  <si>
+    <t>数字突然放大音效5</t>
+  </si>
+  <si>
+    <t>数字突然放大音效6</t>
+  </si>
+  <si>
+    <t>数字持续滚动音效1（循环）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数字持续滚动音效2（循环）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数字持续滚动音效3（循环）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数字持续滚动音效4（循环）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数字持续滚动音效5（循环）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数字持续滚动音效6（循环）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -6868,10 +7004,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>1686</v>
+        <v>1685</v>
       </c>
       <c r="B2" t="s">
-        <v>1685</v>
+        <v>1684</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
@@ -7275,10 +7411,10 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
+        <v>1686</v>
+      </c>
+      <c r="B39" t="s">
         <v>1687</v>
-      </c>
-      <c r="B39" t="s">
-        <v>1688</v>
       </c>
       <c r="C39" t="s">
         <v>1000</v>
@@ -7934,10 +8070,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C110"/>
+  <dimension ref="A1:D124"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="C84" sqref="C84"/>
+    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="D109" sqref="D109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -7945,6 +8081,7 @@
     <col min="1" max="1" width="34.875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="37.375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="46.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
@@ -7963,7 +8100,7 @@
         <v>1443</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>1724</v>
+        <v>1723</v>
       </c>
       <c r="C2" s="13" t="s">
         <v>1444</v>
@@ -7974,10 +8111,10 @@
         <v>1445</v>
       </c>
       <c r="B3" s="14" t="s">
+        <v>1724</v>
+      </c>
+      <c r="C3" s="13" t="s">
         <v>1725</v>
-      </c>
-      <c r="C3" s="13" t="s">
-        <v>1726</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
@@ -8081,10 +8218,10 @@
     </row>
     <row r="13" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A13" s="14" t="s">
-        <v>1683</v>
+        <v>1682</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>1682</v>
+        <v>1681</v>
       </c>
       <c r="C13" s="13" t="s">
         <v>1463</v>
@@ -8092,10 +8229,10 @@
     </row>
     <row r="14" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A14" s="14" t="s">
+        <v>1679</v>
+      </c>
+      <c r="B14" s="14" t="s">
         <v>1680</v>
-      </c>
-      <c r="B14" s="14" t="s">
-        <v>1681</v>
       </c>
       <c r="C14" s="13" t="s">
         <v>1464</v>
@@ -8128,7 +8265,7 @@
         <v>808</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>1684</v>
+        <v>1683</v>
       </c>
       <c r="C17" s="13" t="s">
         <v>1470</v>
@@ -8161,10 +8298,10 @@
         <v>1474</v>
       </c>
       <c r="B20" s="25" t="s">
-        <v>1727</v>
+        <v>1726</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>1692</v>
+        <v>1691</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
@@ -8172,10 +8309,10 @@
         <v>1475</v>
       </c>
       <c r="B21" s="25" t="s">
-        <v>1727</v>
+        <v>1726</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>1693</v>
+        <v>1692</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
@@ -8183,10 +8320,10 @@
         <v>812</v>
       </c>
       <c r="B22" s="25" t="s">
-        <v>1727</v>
+        <v>1726</v>
       </c>
       <c r="C22" s="14" t="s">
-        <v>1694</v>
+        <v>1693</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
@@ -8194,10 +8331,10 @@
         <v>813</v>
       </c>
       <c r="B23" s="25" t="s">
-        <v>1727</v>
+        <v>1726</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>1695</v>
+        <v>1694</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
@@ -8205,10 +8342,10 @@
         <v>814</v>
       </c>
       <c r="B24" s="25" t="s">
-        <v>1727</v>
+        <v>1726</v>
       </c>
       <c r="C24" s="14" t="s">
-        <v>1696</v>
+        <v>1695</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
@@ -8216,10 +8353,10 @@
         <v>815</v>
       </c>
       <c r="B25" s="25" t="s">
-        <v>1727</v>
+        <v>1726</v>
       </c>
       <c r="C25" s="14" t="s">
-        <v>1697</v>
+        <v>1696</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
@@ -8227,10 +8364,10 @@
         <v>1557</v>
       </c>
       <c r="B26" s="25" t="s">
-        <v>1727</v>
+        <v>1726</v>
       </c>
       <c r="C26" s="14" t="s">
-        <v>1698</v>
+        <v>1697</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
@@ -8238,10 +8375,10 @@
         <v>817</v>
       </c>
       <c r="B27" s="25" t="s">
-        <v>1727</v>
+        <v>1726</v>
       </c>
       <c r="C27" s="14" t="s">
-        <v>1699</v>
+        <v>1698</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
@@ -8249,10 +8386,10 @@
         <v>818</v>
       </c>
       <c r="B28" s="25" t="s">
-        <v>1730</v>
+        <v>1729</v>
       </c>
       <c r="C28" s="14" t="s">
-        <v>1700</v>
+        <v>1699</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
@@ -8260,10 +8397,10 @@
         <v>819</v>
       </c>
       <c r="B29" s="25" t="s">
-        <v>1728</v>
+        <v>1727</v>
       </c>
       <c r="C29" s="14" t="s">
-        <v>1701</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
@@ -8274,7 +8411,7 @@
         <v>1575</v>
       </c>
       <c r="C30" s="14" t="s">
-        <v>1702</v>
+        <v>1701</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
@@ -8285,7 +8422,7 @@
         <v>1576</v>
       </c>
       <c r="C31" s="14" t="s">
-        <v>1703</v>
+        <v>1702</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
@@ -8296,7 +8433,7 @@
         <v>1574</v>
       </c>
       <c r="C32" s="14" t="s">
-        <v>1704</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
@@ -8307,7 +8444,7 @@
         <v>1577</v>
       </c>
       <c r="C33" s="14" t="s">
-        <v>1705</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
@@ -8318,7 +8455,7 @@
         <v>1578</v>
       </c>
       <c r="C34" s="14" t="s">
-        <v>1706</v>
+        <v>1705</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
@@ -8329,7 +8466,7 @@
         <v>1579</v>
       </c>
       <c r="C35" s="14" t="s">
-        <v>1707</v>
+        <v>1706</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
@@ -8340,7 +8477,7 @@
         <v>1580</v>
       </c>
       <c r="C36" s="14" t="s">
-        <v>1708</v>
+        <v>1707</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
@@ -8348,10 +8485,10 @@
         <v>827</v>
       </c>
       <c r="B37" s="25" t="s">
-        <v>1729</v>
+        <v>1728</v>
       </c>
       <c r="C37" s="14" t="s">
-        <v>1709</v>
+        <v>1708</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
@@ -8368,10 +8505,10 @@
         <v>1477</v>
       </c>
       <c r="B39" s="25" t="s">
-        <v>1731</v>
+        <v>1730</v>
       </c>
       <c r="C39" s="14" t="s">
-        <v>1710</v>
+        <v>1709</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
@@ -8388,10 +8525,10 @@
         <v>1479</v>
       </c>
       <c r="B41" s="25" t="s">
-        <v>1732</v>
+        <v>1731</v>
       </c>
       <c r="C41" s="14" t="s">
-        <v>1711</v>
+        <v>1710</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
@@ -8399,10 +8536,10 @@
         <v>1556</v>
       </c>
       <c r="B42" s="13" t="s">
-        <v>1734</v>
+        <v>1733</v>
       </c>
       <c r="C42" s="14" t="s">
-        <v>1712</v>
+        <v>1711</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
@@ -8410,10 +8547,10 @@
         <v>1480</v>
       </c>
       <c r="B43" s="25" t="s">
-        <v>1742</v>
+        <v>1741</v>
       </c>
       <c r="C43" s="14" t="s">
-        <v>1713</v>
+        <v>1712</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
@@ -8421,10 +8558,10 @@
         <v>1481</v>
       </c>
       <c r="B44" s="13" t="s">
-        <v>1735</v>
+        <v>1734</v>
       </c>
       <c r="C44" s="14" t="s">
-        <v>1714</v>
+        <v>1713</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
@@ -8432,10 +8569,10 @@
         <v>1482</v>
       </c>
       <c r="B45" s="25" t="s">
-        <v>1734</v>
+        <v>1733</v>
       </c>
       <c r="C45" s="14" t="s">
-        <v>1715</v>
+        <v>1714</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
@@ -8443,10 +8580,10 @@
         <v>1483</v>
       </c>
       <c r="B46" s="25" t="s">
-        <v>1736</v>
+        <v>1735</v>
       </c>
       <c r="C46" s="14" t="s">
-        <v>1716</v>
+        <v>1715</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
@@ -8454,7 +8591,7 @@
         <v>1484</v>
       </c>
       <c r="B47" s="13" t="s">
-        <v>1717</v>
+        <v>1716</v>
       </c>
       <c r="C47" s="14" t="s">
         <v>1375</v>
@@ -8555,7 +8692,7 @@
         <v>1626</v>
       </c>
       <c r="B58" s="25" t="s">
-        <v>1733</v>
+        <v>1732</v>
       </c>
       <c r="C58" s="14" t="s">
         <v>1614</v>
@@ -8566,7 +8703,7 @@
         <v>1627</v>
       </c>
       <c r="B59" s="25" t="s">
-        <v>1739</v>
+        <v>1738</v>
       </c>
       <c r="C59" s="14" t="s">
         <v>1373</v>
@@ -8577,7 +8714,7 @@
         <v>1628</v>
       </c>
       <c r="B60" s="25" t="s">
-        <v>1738</v>
+        <v>1737</v>
       </c>
       <c r="C60" s="14" t="s">
         <v>1615</v>
@@ -8597,7 +8734,7 @@
         <v>1630</v>
       </c>
       <c r="B62" s="25" t="s">
-        <v>1732</v>
+        <v>1731</v>
       </c>
       <c r="C62" s="14" t="s">
         <v>1617</v>
@@ -8626,7 +8763,7 @@
         <v>1633</v>
       </c>
       <c r="B65" s="25" t="s">
-        <v>1741</v>
+        <v>1740</v>
       </c>
       <c r="C65" s="14" t="s">
         <v>1620</v>
@@ -8637,7 +8774,7 @@
         <v>1634</v>
       </c>
       <c r="B66" s="25" t="s">
-        <v>1737</v>
+        <v>1736</v>
       </c>
       <c r="C66" s="14" t="s">
         <v>1621</v>
@@ -8648,7 +8785,7 @@
         <v>1635</v>
       </c>
       <c r="B67" s="25" t="s">
-        <v>1740</v>
+        <v>1739</v>
       </c>
       <c r="C67" s="14" t="s">
         <v>1622</v>
@@ -8677,7 +8814,7 @@
         <v>1493</v>
       </c>
       <c r="B70" s="13" t="s">
-        <v>1718</v>
+        <v>1717</v>
       </c>
       <c r="C70" s="14" t="s">
         <v>1494</v>
@@ -8688,7 +8825,7 @@
         <v>1495</v>
       </c>
       <c r="B71" s="13" t="s">
-        <v>1719</v>
+        <v>1718</v>
       </c>
       <c r="C71" s="14" t="s">
         <v>1496</v>
@@ -8809,7 +8946,7 @@
         <v>1523</v>
       </c>
       <c r="B82" s="13" t="s">
-        <v>1671</v>
+        <v>1670</v>
       </c>
       <c r="C82" s="14" t="s">
         <v>1524</v>
@@ -8947,181 +9084,331 @@
         <v>1553</v>
       </c>
     </row>
-    <row r="95" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A95" s="17" t="s">
+    <row r="95" spans="1:3" s="26" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A95" s="13" t="s">
         <v>1651</v>
       </c>
-      <c r="B95" s="17" t="s">
-        <v>1670</v>
-      </c>
-      <c r="C95" s="17" t="s">
+      <c r="B95" s="14" t="s">
+        <v>1742</v>
+      </c>
+      <c r="C95" s="13" t="s">
         <v>1646</v>
       </c>
     </row>
-    <row r="96" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A96" s="17" t="s">
+    <row r="96" spans="1:3" s="26" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A96" s="13" t="s">
         <v>1663</v>
       </c>
-      <c r="B96" s="17" t="s">
-        <v>1670</v>
-      </c>
-      <c r="C96" s="17" t="s">
+      <c r="B96" s="14" t="s">
+        <v>1742</v>
+      </c>
+      <c r="C96" s="13" t="s">
         <v>1664</v>
       </c>
     </row>
-    <row r="97" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A97" s="17" t="s">
+    <row r="97" spans="1:4" s="26" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A97" s="13" t="s">
         <v>1652</v>
       </c>
-      <c r="B97" s="17" t="s">
+      <c r="B97" s="14" t="s">
+        <v>1671</v>
+      </c>
+      <c r="C97" s="13" t="s">
+        <v>1645</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" s="26" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A98" s="13" t="s">
+        <v>1654</v>
+      </c>
+      <c r="B98" s="14" t="s">
         <v>1672</v>
       </c>
-      <c r="C97" s="17" t="s">
-        <v>1645</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A98" s="17" t="s">
-        <v>1654</v>
-      </c>
-      <c r="B98" s="17" t="s">
+      <c r="C98" s="13" t="s">
+        <v>1656</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" s="26" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A99" s="13" t="s">
+        <v>1655</v>
+      </c>
+      <c r="B99" s="14" t="s">
         <v>1673</v>
       </c>
-      <c r="C98" s="17" t="s">
-        <v>1656</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A99" s="17" t="s">
-        <v>1655</v>
-      </c>
-      <c r="B99" s="17" t="s">
+      <c r="C99" s="13" t="s">
+        <v>1667</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" s="26" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A100" s="13" t="s">
+        <v>1653</v>
+      </c>
+      <c r="B100" s="14" t="s">
         <v>1674</v>
       </c>
-      <c r="C99" s="17" t="s">
-        <v>1667</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A100" s="17" t="s">
-        <v>1653</v>
-      </c>
-      <c r="B100" s="17" t="s">
+      <c r="C100" s="13" t="s">
+        <v>1657</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" s="26" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A101" s="13" t="s">
+        <v>1658</v>
+      </c>
+      <c r="B101" s="14" t="s">
         <v>1675</v>
       </c>
-      <c r="C100" s="17" t="s">
-        <v>1657</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A101" s="17" t="s">
-        <v>1658</v>
-      </c>
-      <c r="B101" s="17" t="s">
+      <c r="C101" s="13" t="s">
+        <v>1659</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" s="26" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A102" s="13" t="s">
+        <v>1660</v>
+      </c>
+      <c r="B102" s="14" t="s">
+        <v>1742</v>
+      </c>
+      <c r="C102" s="13" t="s">
+        <v>1662</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" s="26" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A103" s="13" t="s">
+        <v>1661</v>
+      </c>
+      <c r="B103" s="14" t="s">
         <v>1676</v>
       </c>
-      <c r="C101" s="17" t="s">
-        <v>1659</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A102" s="17" t="s">
-        <v>1660</v>
-      </c>
-      <c r="B102" s="17" t="s">
-        <v>1670</v>
-      </c>
-      <c r="C102" s="17" t="s">
-        <v>1662</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A103" s="17" t="s">
-        <v>1661</v>
-      </c>
-      <c r="B103" s="17" t="s">
+      <c r="C103" s="13" t="s">
         <v>1677</v>
       </c>
-      <c r="C103" s="17" t="s">
+    </row>
+    <row r="104" spans="1:4" s="26" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A104" s="13" t="s">
+        <v>1665</v>
+      </c>
+      <c r="B104" s="14" t="s">
         <v>1678</v>
       </c>
-    </row>
-    <row r="104" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A104" s="17" t="s">
-        <v>1665</v>
-      </c>
-      <c r="B104" s="17" t="s">
-        <v>1679</v>
-      </c>
-      <c r="C104" s="17" t="s">
+      <c r="C104" s="13" t="s">
         <v>1666</v>
       </c>
     </row>
-    <row r="105" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A105" s="17" t="s">
+    <row r="105" spans="1:4" s="26" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A105" s="13" t="s">
         <v>1668</v>
       </c>
-      <c r="B105" s="17" t="s">
-        <v>1670</v>
-      </c>
-      <c r="C105" s="17" t="s">
+      <c r="B105" s="14" t="s">
+        <v>1742</v>
+      </c>
+      <c r="C105" s="13" t="s">
         <v>1669</v>
       </c>
     </row>
-    <row r="106" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A106" s="17" t="s">
+    <row r="106" spans="1:4" s="26" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A106" s="13" t="s">
         <v>1641</v>
       </c>
-      <c r="B106" s="17" t="s">
+      <c r="B106" s="14" t="s">
         <v>1643</v>
       </c>
-      <c r="C106" s="17" t="s">
+      <c r="C106" s="13" t="s">
         <v>1649</v>
       </c>
     </row>
-    <row r="107" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A107" s="17" t="s">
+    <row r="107" spans="1:4" s="26" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A107" s="13" t="s">
         <v>1642</v>
       </c>
-      <c r="B107" s="17" t="s">
+      <c r="B107" s="14" t="s">
         <v>1644</v>
       </c>
-      <c r="C107" s="17" t="s">
+      <c r="C107" s="13" t="s">
         <v>1650</v>
       </c>
     </row>
-    <row r="108" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A108" s="17" t="s">
+    <row r="108" spans="1:4" s="26" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A108" s="13" t="s">
+        <v>1721</v>
+      </c>
+      <c r="B108" s="14" t="s">
+        <v>1720</v>
+      </c>
+      <c r="C108" s="13" t="s">
+        <v>1647</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" s="26" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A109" s="13" t="s">
         <v>1722</v>
       </c>
-      <c r="B108" s="17" t="s">
-        <v>1721</v>
-      </c>
-      <c r="C108" s="17" t="s">
-        <v>1647</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A109" s="17" t="s">
-        <v>1723</v>
-      </c>
-      <c r="B109" s="17" t="s">
-        <v>1720</v>
-      </c>
-      <c r="C109" s="17" t="s">
+      <c r="B109" s="14" t="s">
+        <v>1719</v>
+      </c>
+      <c r="C109" s="13" t="s">
         <v>1648</v>
       </c>
     </row>
-    <row r="110" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A110" s="17" t="s">
+    <row r="110" spans="1:4" s="26" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A110" s="13" t="s">
+        <v>1688</v>
+      </c>
+      <c r="B110" s="14" t="s">
+        <v>1690</v>
+      </c>
+      <c r="C110" s="13" t="s">
         <v>1689</v>
       </c>
-      <c r="B110" s="17" t="s">
-        <v>1691</v>
-      </c>
-      <c r="C110" s="17" t="s">
-        <v>1690</v>
-      </c>
+    </row>
+    <row r="111" spans="1:4" s="26" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A111" s="17" t="s">
+        <v>1743</v>
+      </c>
+      <c r="B111" s="18" t="s">
+        <v>1755</v>
+      </c>
+      <c r="C111" s="17" t="s">
+        <v>1773</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A112" s="17" t="s">
+        <v>1744</v>
+      </c>
+      <c r="B112" s="18" t="s">
+        <v>1756</v>
+      </c>
+      <c r="C112" s="17" t="s">
+        <v>1774</v>
+      </c>
+      <c r="D112" s="26"/>
+    </row>
+    <row r="113" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A113" s="17" t="s">
+        <v>1745</v>
+      </c>
+      <c r="B113" s="18" t="s">
+        <v>1757</v>
+      </c>
+      <c r="C113" s="17" t="s">
+        <v>1775</v>
+      </c>
+      <c r="D113" s="26"/>
+    </row>
+    <row r="114" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A114" s="17" t="s">
+        <v>1746</v>
+      </c>
+      <c r="B114" s="18" t="s">
+        <v>1758</v>
+      </c>
+      <c r="C114" s="17" t="s">
+        <v>1776</v>
+      </c>
+      <c r="D114" s="26"/>
+    </row>
+    <row r="115" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A115" s="17" t="s">
+        <v>1747</v>
+      </c>
+      <c r="B115" s="18" t="s">
+        <v>1759</v>
+      </c>
+      <c r="C115" s="17" t="s">
+        <v>1777</v>
+      </c>
+      <c r="D115" s="26"/>
+    </row>
+    <row r="116" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A116" s="17" t="s">
+        <v>1748</v>
+      </c>
+      <c r="B116" s="18" t="s">
+        <v>1760</v>
+      </c>
+      <c r="C116" s="17" t="s">
+        <v>1778</v>
+      </c>
+      <c r="D116" s="26"/>
+    </row>
+    <row r="117" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A117" s="17" t="s">
+        <v>1749</v>
+      </c>
+      <c r="B117" s="18" t="s">
+        <v>1761</v>
+      </c>
+      <c r="C117" s="17" t="s">
+        <v>1767</v>
+      </c>
+      <c r="D117" s="26"/>
+    </row>
+    <row r="118" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A118" s="17" t="s">
+        <v>1750</v>
+      </c>
+      <c r="B118" s="18" t="s">
+        <v>1762</v>
+      </c>
+      <c r="C118" s="17" t="s">
+        <v>1768</v>
+      </c>
+      <c r="D118" s="26"/>
+    </row>
+    <row r="119" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A119" s="17" t="s">
+        <v>1751</v>
+      </c>
+      <c r="B119" s="18" t="s">
+        <v>1763</v>
+      </c>
+      <c r="C119" s="17" t="s">
+        <v>1769</v>
+      </c>
+      <c r="D119" s="26"/>
+    </row>
+    <row r="120" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A120" s="17" t="s">
+        <v>1752</v>
+      </c>
+      <c r="B120" s="18" t="s">
+        <v>1764</v>
+      </c>
+      <c r="C120" s="17" t="s">
+        <v>1770</v>
+      </c>
+      <c r="D120" s="26"/>
+    </row>
+    <row r="121" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A121" s="17" t="s">
+        <v>1753</v>
+      </c>
+      <c r="B121" s="18" t="s">
+        <v>1765</v>
+      </c>
+      <c r="C121" s="17" t="s">
+        <v>1771</v>
+      </c>
+      <c r="D121" s="26"/>
+    </row>
+    <row r="122" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A122" s="17" t="s">
+        <v>1754</v>
+      </c>
+      <c r="B122" s="18" t="s">
+        <v>1766</v>
+      </c>
+      <c r="C122" s="17" t="s">
+        <v>1772</v>
+      </c>
+      <c r="D122" s="26"/>
+    </row>
+    <row r="123" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A123" s="13"/>
+      <c r="B123" s="14"/>
+    </row>
+    <row r="124" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B124" s="14"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/config_debug/audio_config.xlsx
+++ b/config_debug/audio_config.xlsx
@@ -6429,50 +6429,6 @@
     <t>bgm_by_count_1.mp3</t>
   </si>
   <si>
-    <t>bgm_by_count_2.mp4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_by_count_3.mp5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_by_count_4.mp6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_by_count_5.mp7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_by_count_6.mp8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_by_countEnd_1.mp10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_by_countEnd_2.mp11</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_by_countEnd_3.mp12</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_by_countEnd_4.mp13</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_by_countEnd_5.mp14</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_by_countEnd_6.mp15</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>数字突然放大音效1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -6515,6 +6471,50 @@
   </si>
   <si>
     <t>数字持续滚动音效6（循环）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_by_count_2.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_by_count_3.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_by_count_4.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_by_count_5.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_by_count_6.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_by_countEnd_1.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_by_countEnd_2.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_by_countEnd_3.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_by_countEnd_4.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_by_countEnd_5.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_by_countEnd_6.mp3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -8073,7 +8073,7 @@
   <dimension ref="A1:D124"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="D109" sqref="D109"/>
+      <selection activeCell="B123" sqref="B123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -9268,7 +9268,7 @@
         <v>1755</v>
       </c>
       <c r="C111" s="17" t="s">
-        <v>1773</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="112" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -9276,10 +9276,10 @@
         <v>1744</v>
       </c>
       <c r="B112" s="18" t="s">
-        <v>1756</v>
+        <v>1768</v>
       </c>
       <c r="C112" s="17" t="s">
-        <v>1774</v>
+        <v>1763</v>
       </c>
       <c r="D112" s="26"/>
     </row>
@@ -9288,10 +9288,10 @@
         <v>1745</v>
       </c>
       <c r="B113" s="18" t="s">
-        <v>1757</v>
+        <v>1769</v>
       </c>
       <c r="C113" s="17" t="s">
-        <v>1775</v>
+        <v>1764</v>
       </c>
       <c r="D113" s="26"/>
     </row>
@@ -9300,10 +9300,10 @@
         <v>1746</v>
       </c>
       <c r="B114" s="18" t="s">
-        <v>1758</v>
+        <v>1770</v>
       </c>
       <c r="C114" s="17" t="s">
-        <v>1776</v>
+        <v>1765</v>
       </c>
       <c r="D114" s="26"/>
     </row>
@@ -9312,10 +9312,10 @@
         <v>1747</v>
       </c>
       <c r="B115" s="18" t="s">
-        <v>1759</v>
+        <v>1771</v>
       </c>
       <c r="C115" s="17" t="s">
-        <v>1777</v>
+        <v>1766</v>
       </c>
       <c r="D115" s="26"/>
     </row>
@@ -9324,10 +9324,10 @@
         <v>1748</v>
       </c>
       <c r="B116" s="18" t="s">
-        <v>1760</v>
+        <v>1772</v>
       </c>
       <c r="C116" s="17" t="s">
-        <v>1778</v>
+        <v>1767</v>
       </c>
       <c r="D116" s="26"/>
     </row>
@@ -9336,10 +9336,10 @@
         <v>1749</v>
       </c>
       <c r="B117" s="18" t="s">
-        <v>1761</v>
+        <v>1773</v>
       </c>
       <c r="C117" s="17" t="s">
-        <v>1767</v>
+        <v>1756</v>
       </c>
       <c r="D117" s="26"/>
     </row>
@@ -9348,10 +9348,10 @@
         <v>1750</v>
       </c>
       <c r="B118" s="18" t="s">
-        <v>1762</v>
+        <v>1774</v>
       </c>
       <c r="C118" s="17" t="s">
-        <v>1768</v>
+        <v>1757</v>
       </c>
       <c r="D118" s="26"/>
     </row>
@@ -9360,10 +9360,10 @@
         <v>1751</v>
       </c>
       <c r="B119" s="18" t="s">
-        <v>1763</v>
+        <v>1775</v>
       </c>
       <c r="C119" s="17" t="s">
-        <v>1769</v>
+        <v>1758</v>
       </c>
       <c r="D119" s="26"/>
     </row>
@@ -9372,10 +9372,10 @@
         <v>1752</v>
       </c>
       <c r="B120" s="18" t="s">
-        <v>1764</v>
+        <v>1776</v>
       </c>
       <c r="C120" s="17" t="s">
-        <v>1770</v>
+        <v>1759</v>
       </c>
       <c r="D120" s="26"/>
     </row>
@@ -9384,10 +9384,10 @@
         <v>1753</v>
       </c>
       <c r="B121" s="18" t="s">
-        <v>1765</v>
+        <v>1777</v>
       </c>
       <c r="C121" s="17" t="s">
-        <v>1771</v>
+        <v>1760</v>
       </c>
       <c r="D121" s="26"/>
     </row>
@@ -9396,10 +9396,10 @@
         <v>1754</v>
       </c>
       <c r="B122" s="18" t="s">
-        <v>1766</v>
+        <v>1778</v>
       </c>
       <c r="C122" s="17" t="s">
-        <v>1772</v>
+        <v>1761</v>
       </c>
       <c r="D122" s="26"/>
     </row>

--- a/config_debug/audio_config.xlsx
+++ b/config_debug/audio_config.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="4" activeTab="12"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="5" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="game|游戏内" sheetId="2" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2019" uniqueCount="1779">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2029" uniqueCount="1781">
   <si>
     <t>sod_game_lose</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -5735,18 +5735,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>bgm_3dby_siwang5.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_3dby_siwang3.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_3dby_siwang4.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>bgm_3dby_siwang6.mp3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -6319,10 +6307,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>bgm_3dby_siwang2.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>bgm_3dby_siwang10.mp3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -6335,7 +6319,178 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>bgm_by_siwang12.mp3</t>
+    <t>bgm_by_siwang29.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_by_tiaozhanrenxianshi.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_by_count_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_by_count_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_by_count_3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_by_count_4</t>
+  </si>
+  <si>
+    <t>bgm_by_count_5</t>
+  </si>
+  <si>
+    <t>bgm_by_count_6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_by_countEnd_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_by_countEnd_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_by_countEnd_3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_by_countEnd_4</t>
+  </si>
+  <si>
+    <t>bgm_by_countEnd_5</t>
+  </si>
+  <si>
+    <t>bgm_by_countEnd_6</t>
+  </si>
+  <si>
+    <t>bgm_by_count_1.mp3</t>
+  </si>
+  <si>
+    <t>数字突然放大音效1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数字突然放大音效2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数字突然放大音效3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数字突然放大音效4</t>
+  </si>
+  <si>
+    <t>数字突然放大音效5</t>
+  </si>
+  <si>
+    <t>数字突然放大音效6</t>
+  </si>
+  <si>
+    <t>数字持续滚动音效1（循环）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数字持续滚动音效2（循环）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数字持续滚动音效3（循环）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数字持续滚动音效4（循环）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数字持续滚动音效5（循环）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数字持续滚动音效6（循环）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_by_count_2.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_by_count_3.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_by_count_4.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_by_count_5.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_by_count_6.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_by_countEnd_1.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_by_countEnd_2.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_by_countEnd_3.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_by_countEnd_4.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_by_countEnd_5.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_by_countEnd_6.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_3dby_siwang22.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_3dby_siwang21.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_3dby_siwang13.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_3dby_siwang14.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_3dby_siwang16.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_3dby_siwang12.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_3dby_siwang17.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_3dby_siwang18.mp3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -6343,178 +6498,31 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>bgm_by_siwang26.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_by_siwang7.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_by_siwang13.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_by_siwang9.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_by_siwang20.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_by_siwang10.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_by_siwang18.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_by_siwang29.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_by_siwang6.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_by_tiaozhanrenxianshi.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_by_count_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_by_count_2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_by_count_3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_by_count_4</t>
-  </si>
-  <si>
-    <t>bgm_by_count_5</t>
-  </si>
-  <si>
-    <t>bgm_by_count_6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_by_countEnd_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_by_countEnd_2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_by_countEnd_3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_by_countEnd_4</t>
-  </si>
-  <si>
-    <t>bgm_by_countEnd_5</t>
-  </si>
-  <si>
-    <t>bgm_by_countEnd_6</t>
-  </si>
-  <si>
-    <t>bgm_by_count_1.mp3</t>
-  </si>
-  <si>
-    <t>数字突然放大音效1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数字突然放大音效2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数字突然放大音效3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数字突然放大音效4</t>
-  </si>
-  <si>
-    <t>数字突然放大音效5</t>
-  </si>
-  <si>
-    <t>数字突然放大音效6</t>
-  </si>
-  <si>
-    <t>数字持续滚动音效1（循环）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数字持续滚动音效2（循环）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数字持续滚动音效3（循环）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数字持续滚动音效4（循环）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数字持续滚动音效5（循环）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数字持续滚动音效6（循环）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_by_count_2.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_by_count_3.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_by_count_4.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_by_count_5.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_by_count_6.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_by_countEnd_1.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_by_countEnd_2.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_by_countEnd_3.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_by_countEnd_4.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_by_countEnd_5.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_by_countEnd_6.mp3</t>
+    <t>bgm_3dby_siwang19.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_3dby_siwang20.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_by_siwang25.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_by_siwang30.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_by_siwang11.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_by_siwang31.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_3dby_siwang15.mp3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -7004,10 +7012,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>1685</v>
+        <v>1682</v>
       </c>
       <c r="B2" t="s">
-        <v>1684</v>
+        <v>1681</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
@@ -7411,10 +7419,10 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>1686</v>
+        <v>1683</v>
       </c>
       <c r="B39" t="s">
-        <v>1687</v>
+        <v>1684</v>
       </c>
       <c r="C39" t="s">
         <v>1000</v>
@@ -8072,15 +8080,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D124"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="B123" sqref="B123"/>
+    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="D56" sqref="D56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="34.875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="37.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="46.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.375" customWidth="1"/>
     <col min="4" max="4" width="32.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -8100,7 +8108,7 @@
         <v>1443</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>1723</v>
+        <v>1720</v>
       </c>
       <c r="C2" s="13" t="s">
         <v>1444</v>
@@ -8111,10 +8119,10 @@
         <v>1445</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>1724</v>
+        <v>1721</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>1725</v>
+        <v>1722</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
@@ -8207,10 +8215,10 @@
     </row>
     <row r="12" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A12" s="14" t="s">
-        <v>1639</v>
+        <v>1636</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>1638</v>
+        <v>1635</v>
       </c>
       <c r="C12" s="13" t="s">
         <v>1462</v>
@@ -8218,10 +8226,10 @@
     </row>
     <row r="13" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A13" s="14" t="s">
-        <v>1682</v>
+        <v>1679</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>1681</v>
+        <v>1678</v>
       </c>
       <c r="C13" s="13" t="s">
         <v>1463</v>
@@ -8229,10 +8237,10 @@
     </row>
     <row r="14" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A14" s="14" t="s">
-        <v>1679</v>
+        <v>1676</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>1680</v>
+        <v>1677</v>
       </c>
       <c r="C14" s="13" t="s">
         <v>1464</v>
@@ -8265,7 +8273,7 @@
         <v>808</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>1683</v>
+        <v>1680</v>
       </c>
       <c r="C17" s="13" t="s">
         <v>1470</v>
@@ -8298,10 +8306,10 @@
         <v>1474</v>
       </c>
       <c r="B20" s="25" t="s">
-        <v>1726</v>
+        <v>1723</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>1691</v>
+        <v>1688</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
@@ -8309,10 +8317,10 @@
         <v>1475</v>
       </c>
       <c r="B21" s="25" t="s">
-        <v>1726</v>
+        <v>1723</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>1692</v>
+        <v>1689</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
@@ -8320,10 +8328,10 @@
         <v>812</v>
       </c>
       <c r="B22" s="25" t="s">
-        <v>1726</v>
+        <v>1723</v>
       </c>
       <c r="C22" s="14" t="s">
-        <v>1693</v>
+        <v>1690</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
@@ -8331,10 +8339,10 @@
         <v>813</v>
       </c>
       <c r="B23" s="25" t="s">
-        <v>1726</v>
+        <v>1723</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>1694</v>
+        <v>1691</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
@@ -8342,10 +8350,10 @@
         <v>814</v>
       </c>
       <c r="B24" s="25" t="s">
-        <v>1726</v>
+        <v>1723</v>
       </c>
       <c r="C24" s="14" t="s">
-        <v>1695</v>
+        <v>1692</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
@@ -8353,10 +8361,10 @@
         <v>815</v>
       </c>
       <c r="B25" s="25" t="s">
-        <v>1726</v>
+        <v>1723</v>
       </c>
       <c r="C25" s="14" t="s">
-        <v>1696</v>
+        <v>1693</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
@@ -8364,10 +8372,10 @@
         <v>1557</v>
       </c>
       <c r="B26" s="25" t="s">
-        <v>1726</v>
+        <v>1723</v>
       </c>
       <c r="C26" s="14" t="s">
-        <v>1697</v>
+        <v>1694</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
@@ -8375,10 +8383,10 @@
         <v>817</v>
       </c>
       <c r="B27" s="25" t="s">
-        <v>1726</v>
+        <v>1723</v>
       </c>
       <c r="C27" s="14" t="s">
-        <v>1698</v>
+        <v>1695</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
@@ -8386,10 +8394,10 @@
         <v>818</v>
       </c>
       <c r="B28" s="25" t="s">
-        <v>1729</v>
+        <v>1723</v>
       </c>
       <c r="C28" s="14" t="s">
-        <v>1699</v>
+        <v>1696</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
@@ -8397,10 +8405,10 @@
         <v>819</v>
       </c>
       <c r="B29" s="25" t="s">
-        <v>1727</v>
+        <v>1725</v>
       </c>
       <c r="C29" s="14" t="s">
-        <v>1700</v>
+        <v>1697</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
@@ -8408,10 +8416,10 @@
         <v>820</v>
       </c>
       <c r="B30" s="25" t="s">
-        <v>1575</v>
+        <v>1574</v>
       </c>
       <c r="C30" s="14" t="s">
-        <v>1701</v>
+        <v>1698</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
@@ -8419,10 +8427,10 @@
         <v>821</v>
       </c>
       <c r="B31" s="25" t="s">
-        <v>1576</v>
+        <v>1575</v>
       </c>
       <c r="C31" s="14" t="s">
-        <v>1702</v>
+        <v>1699</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
@@ -8430,10 +8438,10 @@
         <v>822</v>
       </c>
       <c r="B32" s="25" t="s">
-        <v>1574</v>
+        <v>1576</v>
       </c>
       <c r="C32" s="14" t="s">
-        <v>1703</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
@@ -8444,7 +8452,7 @@
         <v>1577</v>
       </c>
       <c r="C33" s="14" t="s">
-        <v>1704</v>
+        <v>1701</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
@@ -8452,10 +8460,10 @@
         <v>824</v>
       </c>
       <c r="B34" s="25" t="s">
-        <v>1578</v>
+        <v>1724</v>
       </c>
       <c r="C34" s="14" t="s">
-        <v>1705</v>
+        <v>1702</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
@@ -8463,10 +8471,10 @@
         <v>825</v>
       </c>
       <c r="B35" s="25" t="s">
-        <v>1579</v>
+        <v>1767</v>
       </c>
       <c r="C35" s="14" t="s">
-        <v>1706</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
@@ -8474,10 +8482,10 @@
         <v>826</v>
       </c>
       <c r="B36" s="25" t="s">
-        <v>1580</v>
+        <v>1768</v>
       </c>
       <c r="C36" s="14" t="s">
-        <v>1707</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
@@ -8485,17 +8493,19 @@
         <v>827</v>
       </c>
       <c r="B37" s="25" t="s">
-        <v>1728</v>
+        <v>1770</v>
       </c>
       <c r="C37" s="14" t="s">
-        <v>1708</v>
+        <v>1705</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A38" s="13" t="s">
         <v>1476</v>
       </c>
-      <c r="B38" s="25"/>
+      <c r="B38" s="25" t="s">
+        <v>1765</v>
+      </c>
       <c r="C38" s="14" t="s">
         <v>1370</v>
       </c>
@@ -8505,17 +8515,19 @@
         <v>1477</v>
       </c>
       <c r="B39" s="25" t="s">
-        <v>1730</v>
+        <v>1726</v>
       </c>
       <c r="C39" s="14" t="s">
-        <v>1709</v>
+        <v>1706</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A40" s="13" t="s">
         <v>1478</v>
       </c>
-      <c r="B40" s="25"/>
+      <c r="B40" s="25" t="s">
+        <v>1766</v>
+      </c>
       <c r="C40" s="14" t="s">
         <v>1379</v>
       </c>
@@ -8525,21 +8537,21 @@
         <v>1479</v>
       </c>
       <c r="B41" s="25" t="s">
-        <v>1731</v>
+        <v>1771</v>
       </c>
       <c r="C41" s="14" t="s">
-        <v>1710</v>
+        <v>1707</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A42" s="13" t="s">
         <v>1556</v>
       </c>
-      <c r="B42" s="13" t="s">
-        <v>1733</v>
+      <c r="B42" s="25" t="s">
+        <v>1772</v>
       </c>
       <c r="C42" s="14" t="s">
-        <v>1711</v>
+        <v>1708</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
@@ -8547,21 +8559,21 @@
         <v>1480</v>
       </c>
       <c r="B43" s="25" t="s">
-        <v>1741</v>
+        <v>1773</v>
       </c>
       <c r="C43" s="14" t="s">
-        <v>1712</v>
+        <v>1709</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A44" s="13" t="s">
         <v>1481</v>
       </c>
-      <c r="B44" s="13" t="s">
-        <v>1734</v>
+      <c r="B44" s="25" t="s">
+        <v>1775</v>
       </c>
       <c r="C44" s="14" t="s">
-        <v>1713</v>
+        <v>1710</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
@@ -8569,10 +8581,10 @@
         <v>1482</v>
       </c>
       <c r="B45" s="25" t="s">
-        <v>1733</v>
+        <v>1046</v>
       </c>
       <c r="C45" s="14" t="s">
-        <v>1714</v>
+        <v>1711</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
@@ -8580,10 +8592,10 @@
         <v>1483</v>
       </c>
       <c r="B46" s="25" t="s">
-        <v>1735</v>
+        <v>870</v>
       </c>
       <c r="C46" s="14" t="s">
-        <v>1715</v>
+        <v>1712</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
@@ -8591,7 +8603,7 @@
         <v>1484</v>
       </c>
       <c r="B47" s="13" t="s">
-        <v>1716</v>
+        <v>1713</v>
       </c>
       <c r="C47" s="14" t="s">
         <v>1375</v>
@@ -8601,7 +8613,9 @@
       <c r="A48" s="13" t="s">
         <v>1485</v>
       </c>
-      <c r="B48" s="13"/>
+      <c r="B48" s="25" t="s">
+        <v>1769</v>
+      </c>
       <c r="C48" s="14" t="s">
         <v>1374</v>
       </c>
@@ -8610,7 +8624,9 @@
       <c r="A49" s="13" t="s">
         <v>1486</v>
       </c>
-      <c r="B49" s="13"/>
+      <c r="B49" s="25" t="s">
+        <v>1769</v>
+      </c>
       <c r="C49" s="14" t="s">
         <v>1376</v>
       </c>
@@ -8619,7 +8635,9 @@
       <c r="A50" s="13" t="s">
         <v>1487</v>
       </c>
-      <c r="B50" s="13"/>
+      <c r="B50" s="25" t="s">
+        <v>1769</v>
+      </c>
       <c r="C50" s="14" t="s">
         <v>1377</v>
       </c>
@@ -8628,16 +8646,20 @@
       <c r="A51" s="13" t="s">
         <v>1488</v>
       </c>
-      <c r="B51" s="13"/>
+      <c r="B51" s="25" t="s">
+        <v>1776</v>
+      </c>
       <c r="C51" s="14" t="s">
-        <v>1610</v>
+        <v>1607</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A52" s="13" t="s">
         <v>1489</v>
       </c>
-      <c r="B52" s="13"/>
+      <c r="B52" s="25" t="s">
+        <v>1779</v>
+      </c>
       <c r="C52" s="14" t="s">
         <v>1371</v>
       </c>
@@ -8646,32 +8668,38 @@
       <c r="A53" s="13" t="s">
         <v>1490</v>
       </c>
-      <c r="B53" s="13"/>
+      <c r="B53" s="25" t="s">
+        <v>1780</v>
+      </c>
       <c r="C53" s="21" t="s">
-        <v>1611</v>
+        <v>1608</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A54" s="13" t="s">
         <v>1491</v>
       </c>
-      <c r="B54" s="25"/>
+      <c r="B54" s="25" t="s">
+        <v>1778</v>
+      </c>
       <c r="C54" s="14" t="s">
-        <v>1612</v>
+        <v>1609</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A55" s="13" t="s">
         <v>1492</v>
       </c>
-      <c r="B55" s="13"/>
+      <c r="B55" s="25" t="s">
+        <v>1031</v>
+      </c>
       <c r="C55" s="14" t="s">
-        <v>1613</v>
+        <v>1610</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A56" s="13" t="s">
-        <v>1581</v>
+        <v>1578</v>
       </c>
       <c r="B56" s="13"/>
       <c r="C56" s="14" t="s">
@@ -8680,7 +8708,7 @@
     </row>
     <row r="57" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A57" s="13" t="s">
-        <v>1625</v>
+        <v>1622</v>
       </c>
       <c r="B57" s="13"/>
       <c r="C57" s="14" t="s">
@@ -8689,21 +8717,21 @@
     </row>
     <row r="58" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A58" s="13" t="s">
-        <v>1626</v>
+        <v>1623</v>
       </c>
       <c r="B58" s="25" t="s">
-        <v>1732</v>
+        <v>1774</v>
       </c>
       <c r="C58" s="14" t="s">
-        <v>1614</v>
+        <v>1611</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A59" s="13" t="s">
-        <v>1627</v>
+        <v>1624</v>
       </c>
       <c r="B59" s="25" t="s">
-        <v>1738</v>
+        <v>886</v>
       </c>
       <c r="C59" s="14" t="s">
         <v>1373</v>
@@ -8711,102 +8739,99 @@
     </row>
     <row r="60" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A60" s="13" t="s">
-        <v>1628</v>
+        <v>1625</v>
       </c>
       <c r="B60" s="25" t="s">
-        <v>1737</v>
+        <v>1035</v>
       </c>
       <c r="C60" s="14" t="s">
-        <v>1615</v>
+        <v>1612</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A61" s="13" t="s">
-        <v>1629</v>
-      </c>
-      <c r="B61" s="13"/>
+        <v>1626</v>
+      </c>
       <c r="C61" s="14" t="s">
-        <v>1616</v>
+        <v>1613</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A62" s="13" t="s">
-        <v>1630</v>
+        <v>1627</v>
       </c>
       <c r="B62" s="25" t="s">
-        <v>1731</v>
+        <v>884</v>
       </c>
       <c r="C62" s="14" t="s">
-        <v>1617</v>
+        <v>1614</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A63" s="13" t="s">
-        <v>1631</v>
-      </c>
-      <c r="B63" s="13"/>
+        <v>1628</v>
+      </c>
       <c r="C63" s="14" t="s">
-        <v>1618</v>
+        <v>1615</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A64" s="13" t="s">
-        <v>1632</v>
-      </c>
-      <c r="B64" s="13"/>
+        <v>1629</v>
+      </c>
       <c r="C64" s="14" t="s">
-        <v>1619</v>
+        <v>1616</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A65" s="13" t="s">
-        <v>1633</v>
+        <v>1630</v>
       </c>
       <c r="B65" s="25" t="s">
-        <v>1740</v>
+        <v>1727</v>
       </c>
       <c r="C65" s="14" t="s">
-        <v>1620</v>
+        <v>1617</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A66" s="13" t="s">
-        <v>1634</v>
+        <v>1631</v>
       </c>
       <c r="B66" s="25" t="s">
-        <v>1736</v>
+        <v>887</v>
       </c>
       <c r="C66" s="14" t="s">
-        <v>1621</v>
+        <v>1618</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A67" s="13" t="s">
-        <v>1635</v>
+        <v>1632</v>
       </c>
       <c r="B67" s="25" t="s">
-        <v>1739</v>
+        <v>1777</v>
       </c>
       <c r="C67" s="14" t="s">
-        <v>1622</v>
+        <v>1619</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A68" s="13" t="s">
-        <v>1636</v>
+        <v>1633</v>
       </c>
       <c r="B68" s="13"/>
       <c r="C68" s="14" t="s">
-        <v>1623</v>
+        <v>1620</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A69" s="13" t="s">
-        <v>1637</v>
+        <v>1634</v>
       </c>
       <c r="B69" s="13"/>
       <c r="C69" s="14" t="s">
-        <v>1624</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
@@ -8814,7 +8839,7 @@
         <v>1493</v>
       </c>
       <c r="B70" s="13" t="s">
-        <v>1717</v>
+        <v>1714</v>
       </c>
       <c r="C70" s="14" t="s">
         <v>1494</v>
@@ -8825,7 +8850,7 @@
         <v>1495</v>
       </c>
       <c r="B71" s="13" t="s">
-        <v>1718</v>
+        <v>1715</v>
       </c>
       <c r="C71" s="14" t="s">
         <v>1496</v>
@@ -8946,7 +8971,7 @@
         <v>1523</v>
       </c>
       <c r="B82" s="13" t="s">
-        <v>1670</v>
+        <v>1667</v>
       </c>
       <c r="C82" s="14" t="s">
         <v>1524</v>
@@ -9075,7 +9100,7 @@
     </row>
     <row r="94" spans="1:3" s="26" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A94" s="13" t="s">
-        <v>1640</v>
+        <v>1637</v>
       </c>
       <c r="B94" s="14" t="s">
         <v>1552</v>
@@ -9086,320 +9111,320 @@
     </row>
     <row r="95" spans="1:3" s="26" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A95" s="13" t="s">
-        <v>1651</v>
+        <v>1648</v>
       </c>
       <c r="B95" s="14" t="s">
-        <v>1742</v>
+        <v>1728</v>
       </c>
       <c r="C95" s="13" t="s">
-        <v>1646</v>
+        <v>1643</v>
       </c>
     </row>
     <row r="96" spans="1:3" s="26" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A96" s="13" t="s">
-        <v>1663</v>
+        <v>1660</v>
       </c>
       <c r="B96" s="14" t="s">
-        <v>1742</v>
+        <v>1728</v>
       </c>
       <c r="C96" s="13" t="s">
-        <v>1664</v>
+        <v>1661</v>
       </c>
     </row>
     <row r="97" spans="1:4" s="26" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A97" s="13" t="s">
-        <v>1652</v>
+        <v>1649</v>
       </c>
       <c r="B97" s="14" t="s">
-        <v>1671</v>
+        <v>1668</v>
       </c>
       <c r="C97" s="13" t="s">
-        <v>1645</v>
+        <v>1642</v>
       </c>
     </row>
     <row r="98" spans="1:4" s="26" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A98" s="13" t="s">
-        <v>1654</v>
+        <v>1651</v>
       </c>
       <c r="B98" s="14" t="s">
-        <v>1672</v>
+        <v>1669</v>
       </c>
       <c r="C98" s="13" t="s">
-        <v>1656</v>
+        <v>1653</v>
       </c>
     </row>
     <row r="99" spans="1:4" s="26" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A99" s="13" t="s">
-        <v>1655</v>
+        <v>1652</v>
       </c>
       <c r="B99" s="14" t="s">
-        <v>1673</v>
+        <v>1670</v>
       </c>
       <c r="C99" s="13" t="s">
-        <v>1667</v>
+        <v>1664</v>
       </c>
     </row>
     <row r="100" spans="1:4" s="26" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A100" s="13" t="s">
-        <v>1653</v>
+        <v>1650</v>
       </c>
       <c r="B100" s="14" t="s">
-        <v>1674</v>
+        <v>1671</v>
       </c>
       <c r="C100" s="13" t="s">
-        <v>1657</v>
+        <v>1654</v>
       </c>
     </row>
     <row r="101" spans="1:4" s="26" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A101" s="13" t="s">
-        <v>1658</v>
+        <v>1655</v>
       </c>
       <c r="B101" s="14" t="s">
-        <v>1675</v>
+        <v>1672</v>
       </c>
       <c r="C101" s="13" t="s">
-        <v>1659</v>
+        <v>1656</v>
       </c>
     </row>
     <row r="102" spans="1:4" s="26" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A102" s="13" t="s">
-        <v>1660</v>
+        <v>1657</v>
       </c>
       <c r="B102" s="14" t="s">
-        <v>1742</v>
+        <v>1728</v>
       </c>
       <c r="C102" s="13" t="s">
-        <v>1662</v>
+        <v>1659</v>
       </c>
     </row>
     <row r="103" spans="1:4" s="26" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A103" s="13" t="s">
-        <v>1661</v>
+        <v>1658</v>
       </c>
       <c r="B103" s="14" t="s">
-        <v>1676</v>
+        <v>1673</v>
       </c>
       <c r="C103" s="13" t="s">
-        <v>1677</v>
+        <v>1674</v>
       </c>
     </row>
     <row r="104" spans="1:4" s="26" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A104" s="13" t="s">
-        <v>1665</v>
+        <v>1662</v>
       </c>
       <c r="B104" s="14" t="s">
-        <v>1678</v>
+        <v>1675</v>
       </c>
       <c r="C104" s="13" t="s">
-        <v>1666</v>
+        <v>1663</v>
       </c>
     </row>
     <row r="105" spans="1:4" s="26" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A105" s="13" t="s">
-        <v>1668</v>
+        <v>1665</v>
       </c>
       <c r="B105" s="14" t="s">
-        <v>1742</v>
+        <v>1728</v>
       </c>
       <c r="C105" s="13" t="s">
-        <v>1669</v>
+        <v>1666</v>
       </c>
     </row>
     <row r="106" spans="1:4" s="26" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A106" s="13" t="s">
-        <v>1641</v>
+        <v>1638</v>
       </c>
       <c r="B106" s="14" t="s">
-        <v>1643</v>
+        <v>1640</v>
       </c>
       <c r="C106" s="13" t="s">
-        <v>1649</v>
+        <v>1646</v>
       </c>
     </row>
     <row r="107" spans="1:4" s="26" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A107" s="13" t="s">
-        <v>1642</v>
+        <v>1639</v>
       </c>
       <c r="B107" s="14" t="s">
-        <v>1644</v>
+        <v>1641</v>
       </c>
       <c r="C107" s="13" t="s">
-        <v>1650</v>
+        <v>1647</v>
       </c>
     </row>
     <row r="108" spans="1:4" s="26" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A108" s="13" t="s">
-        <v>1721</v>
+        <v>1718</v>
       </c>
       <c r="B108" s="14" t="s">
-        <v>1720</v>
+        <v>1717</v>
       </c>
       <c r="C108" s="13" t="s">
-        <v>1647</v>
+        <v>1644</v>
       </c>
     </row>
     <row r="109" spans="1:4" s="26" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A109" s="13" t="s">
-        <v>1722</v>
+        <v>1719</v>
       </c>
       <c r="B109" s="14" t="s">
-        <v>1719</v>
+        <v>1716</v>
       </c>
       <c r="C109" s="13" t="s">
-        <v>1648</v>
+        <v>1645</v>
       </c>
     </row>
     <row r="110" spans="1:4" s="26" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A110" s="13" t="s">
-        <v>1688</v>
+        <v>1685</v>
       </c>
       <c r="B110" s="14" t="s">
-        <v>1690</v>
+        <v>1687</v>
       </c>
       <c r="C110" s="13" t="s">
-        <v>1689</v>
+        <v>1686</v>
       </c>
     </row>
     <row r="111" spans="1:4" s="26" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A111" s="17" t="s">
-        <v>1743</v>
+        <v>1729</v>
       </c>
       <c r="B111" s="18" t="s">
-        <v>1755</v>
+        <v>1741</v>
       </c>
       <c r="C111" s="17" t="s">
-        <v>1762</v>
+        <v>1748</v>
       </c>
     </row>
     <row r="112" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A112" s="17" t="s">
-        <v>1744</v>
+        <v>1730</v>
       </c>
       <c r="B112" s="18" t="s">
-        <v>1768</v>
+        <v>1754</v>
       </c>
       <c r="C112" s="17" t="s">
-        <v>1763</v>
+        <v>1749</v>
       </c>
       <c r="D112" s="26"/>
     </row>
     <row r="113" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A113" s="17" t="s">
-        <v>1745</v>
+        <v>1731</v>
       </c>
       <c r="B113" s="18" t="s">
-        <v>1769</v>
+        <v>1755</v>
       </c>
       <c r="C113" s="17" t="s">
-        <v>1764</v>
+        <v>1750</v>
       </c>
       <c r="D113" s="26"/>
     </row>
     <row r="114" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A114" s="17" t="s">
-        <v>1746</v>
+        <v>1732</v>
       </c>
       <c r="B114" s="18" t="s">
-        <v>1770</v>
+        <v>1756</v>
       </c>
       <c r="C114" s="17" t="s">
-        <v>1765</v>
+        <v>1751</v>
       </c>
       <c r="D114" s="26"/>
     </row>
     <row r="115" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A115" s="17" t="s">
-        <v>1747</v>
+        <v>1733</v>
       </c>
       <c r="B115" s="18" t="s">
-        <v>1771</v>
+        <v>1757</v>
       </c>
       <c r="C115" s="17" t="s">
-        <v>1766</v>
+        <v>1752</v>
       </c>
       <c r="D115" s="26"/>
     </row>
     <row r="116" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A116" s="17" t="s">
-        <v>1748</v>
+        <v>1734</v>
       </c>
       <c r="B116" s="18" t="s">
-        <v>1772</v>
+        <v>1758</v>
       </c>
       <c r="C116" s="17" t="s">
-        <v>1767</v>
+        <v>1753</v>
       </c>
       <c r="D116" s="26"/>
     </row>
     <row r="117" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A117" s="17" t="s">
-        <v>1749</v>
+        <v>1735</v>
       </c>
       <c r="B117" s="18" t="s">
-        <v>1773</v>
+        <v>1759</v>
       </c>
       <c r="C117" s="17" t="s">
-        <v>1756</v>
+        <v>1742</v>
       </c>
       <c r="D117" s="26"/>
     </row>
     <row r="118" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A118" s="17" t="s">
-        <v>1750</v>
+        <v>1736</v>
       </c>
       <c r="B118" s="18" t="s">
-        <v>1774</v>
+        <v>1760</v>
       </c>
       <c r="C118" s="17" t="s">
-        <v>1757</v>
+        <v>1743</v>
       </c>
       <c r="D118" s="26"/>
     </row>
     <row r="119" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A119" s="17" t="s">
-        <v>1751</v>
+        <v>1737</v>
       </c>
       <c r="B119" s="18" t="s">
-        <v>1775</v>
+        <v>1761</v>
       </c>
       <c r="C119" s="17" t="s">
-        <v>1758</v>
+        <v>1744</v>
       </c>
       <c r="D119" s="26"/>
     </row>
     <row r="120" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A120" s="17" t="s">
-        <v>1752</v>
+        <v>1738</v>
       </c>
       <c r="B120" s="18" t="s">
-        <v>1776</v>
+        <v>1762</v>
       </c>
       <c r="C120" s="17" t="s">
-        <v>1759</v>
+        <v>1745</v>
       </c>
       <c r="D120" s="26"/>
     </row>
     <row r="121" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A121" s="17" t="s">
-        <v>1753</v>
+        <v>1739</v>
       </c>
       <c r="B121" s="18" t="s">
-        <v>1777</v>
+        <v>1763</v>
       </c>
       <c r="C121" s="17" t="s">
-        <v>1760</v>
+        <v>1746</v>
       </c>
       <c r="D121" s="26"/>
     </row>
     <row r="122" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A122" s="17" t="s">
-        <v>1754</v>
+        <v>1740</v>
       </c>
       <c r="B122" s="18" t="s">
-        <v>1778</v>
+        <v>1764</v>
       </c>
       <c r="C122" s="17" t="s">
-        <v>1761</v>
+        <v>1747</v>
       </c>
       <c r="D122" s="26"/>
     </row>
@@ -9727,91 +9752,91 @@
         <v>1267</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>1582</v>
+        <v>1579</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>1583</v>
+        <v>1580</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>1597</v>
+        <v>1594</v>
       </c>
       <c r="B2" t="s">
-        <v>1596</v>
+        <v>1593</v>
       </c>
       <c r="C2" t="s">
-        <v>1586</v>
+        <v>1583</v>
       </c>
       <c r="D2" t="s">
-        <v>1587</v>
+        <v>1584</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>1598</v>
+        <v>1595</v>
       </c>
       <c r="B3" t="s">
-        <v>1604</v>
+        <v>1601</v>
       </c>
       <c r="C3" t="s">
-        <v>1588</v>
+        <v>1585</v>
       </c>
       <c r="D3" t="s">
-        <v>1589</v>
+        <v>1586</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>1599</v>
+        <v>1596</v>
       </c>
       <c r="B4" t="s">
-        <v>1605</v>
+        <v>1602</v>
       </c>
       <c r="C4" t="s">
-        <v>1590</v>
+        <v>1587</v>
       </c>
       <c r="D4" t="s">
-        <v>1591</v>
+        <v>1588</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>1600</v>
+        <v>1597</v>
       </c>
       <c r="B5" t="s">
-        <v>1606</v>
+        <v>1603</v>
       </c>
       <c r="C5" t="s">
-        <v>1592</v>
+        <v>1589</v>
       </c>
       <c r="D5" t="s">
-        <v>1593</v>
+        <v>1590</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>1601</v>
+        <v>1598</v>
       </c>
       <c r="B6" t="s">
-        <v>1607</v>
+        <v>1604</v>
       </c>
       <c r="C6" t="s">
-        <v>1585</v>
+        <v>1582</v>
       </c>
       <c r="D6" t="s">
-        <v>1584</v>
+        <v>1581</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>1602</v>
+        <v>1599</v>
       </c>
       <c r="B7" t="s">
-        <v>1608</v>
+        <v>1605</v>
       </c>
       <c r="C7" t="s">
-        <v>1594</v>
+        <v>1591</v>
       </c>
       <c r="D7" t="s">
         <v>718</v>
@@ -9819,13 +9844,13 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>1603</v>
+        <v>1600</v>
       </c>
       <c r="B8" t="s">
-        <v>1609</v>
+        <v>1606</v>
       </c>
       <c r="C8" t="s">
-        <v>1595</v>
+        <v>1592</v>
       </c>
       <c r="D8" t="s">
         <v>772</v>

--- a/config_debug/audio_config.xlsx
+++ b/config_debug/audio_config.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="11" activeTab="12"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="8" activeTab="15"/>
   </bookViews>
   <sheets>
     <sheet name="game|游戏内" sheetId="2" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2144" uniqueCount="1885">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2153" uniqueCount="1893">
   <si>
     <t>sod_game_lose</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -4812,6 +4812,2076 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>bgm_csxxl_jiesuan2.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_csxxl_jiesuan3.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_csxxl_luoxia</t>
+  </si>
+  <si>
+    <t>新的图标落下</t>
+  </si>
+  <si>
+    <t>bgm_csxxl_1xiao</t>
+  </si>
+  <si>
+    <t>3消</t>
+  </si>
+  <si>
+    <t>4消</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5消</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6消</t>
+  </si>
+  <si>
+    <t>7消</t>
+  </si>
+  <si>
+    <t>8消</t>
+  </si>
+  <si>
+    <t>bgm_csxxl_2xiao</t>
+  </si>
+  <si>
+    <t>bgm_csxxl_3xiao</t>
+  </si>
+  <si>
+    <t>bgm_csxxl_4xiao</t>
+  </si>
+  <si>
+    <t>bgm_csxxl_5xiao</t>
+  </si>
+  <si>
+    <t>bgm_csxxl_6xiao</t>
+  </si>
+  <si>
+    <t>bgm_csxxl_jiajianzhu</t>
+  </si>
+  <si>
+    <t>加减注</t>
+  </si>
+  <si>
+    <t>bgm_csxxl_jiesuan4.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_xxl_luoxia.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_xxl_1xiao.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_xxl_2xiao.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_xxl_3xiao.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_xxl_4xiao.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_xxl_5xiao.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_xxl_6xiao.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_shxxl_jiajianzhu.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_csxxl_zichuxian</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>砸蛋后飞的字出现在右边</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>元素改变</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_csxxl_yuansugaibian</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_csxxl_zichuxian.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_qhb_beijing.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_csxxl_yuansugaibian.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_shxxl_kaishi.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_csxxl_kaishi.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开始摇奖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_csxxl_kaishi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_csxxl_hua</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_csxxl_hua.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>砸出3个花后出现花特写</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>炸弹鱼</t>
+  </si>
+  <si>
+    <t>美人鱼</t>
+  </si>
+  <si>
+    <t>黄金巨龙</t>
+  </si>
+  <si>
+    <t>深海鲸</t>
+  </si>
+  <si>
+    <t>穿云蟹</t>
+  </si>
+  <si>
+    <t>闪电海鳗</t>
+  </si>
+  <si>
+    <t>电磁蟹</t>
+  </si>
+  <si>
+    <t>奇遇蟹</t>
+  </si>
+  <si>
+    <t>财神</t>
+  </si>
+  <si>
+    <t>黄金炸弹鱼</t>
+  </si>
+  <si>
+    <t>bgm_ttl_beijing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>背景音乐（循环）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_ttl_jiajian</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_ttl_jiajian.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加减注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_ttl_fashe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发射</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_ttl_xiaozhuangji</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>撞击小球</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_ttl_dazhuangji1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_ttl_dazhuangji1.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>撞击大球1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_ttl_dazhuangji2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_ttl_dazhuangji2.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>撞击大球2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_ttl_dazhuangji3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_ttl_dazhuangji3.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>撞击大球3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_ttl_dazhuangji4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_ttl_dazhuangji4.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>撞击大球4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_ttl_dazhuangji5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_ttl_dazhuangji5.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>撞击大球5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_ttl_dazhuangji6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_ttl_dazhuangji6.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>撞击大球6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_ttl_dabaopo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大球爆破（0.5倍、2倍、闪电球）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_ttl_shandianqiujuneng</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>闪电球的聚能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_ttl_shandianqiushifang</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>闪电球释放</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_ttl_dianhuo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_ttl_dianhuo.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点火</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_ttl_labafeiqi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_ttl_labafeiqi.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拉拔飞起</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_ttl_labazaxia</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_ttl_labazaxia.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拉拔砸下</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_ttl_labalaxia</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_ttl_labalaxia.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拉拔拉下</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_ttl_labagundong</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_ttl_labagundong.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拉拔滚动中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_ttl_labatingzhi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拉拔停止滚动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_ttl_lababaozha</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拉拔爆炸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_ttl_saqian</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_ttl_saqian.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>撒钱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_ttl_jiesuan1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小结算</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_ttl_jiesuan2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大结算</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name|名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>audio_name|文件名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>desc|使用说明（me为只有自己可听见）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_by_dating</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>捕鱼大厅背景音乐，循环</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_by_game</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_by_yuchao</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鱼潮出现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_by_zidan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_by_jiabei</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加炮的倍数me</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_by_jianbei</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>减少炮的倍数me</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_by_huodejineng</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_hall_huodewupin.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得冰封、锁定、炸弹、召唤技能时的音效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_by_jiguang1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_by_jiguang1.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>激光蓄力me</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_by_jiguang2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_by_jiguang2.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>激光释放</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>释放冰封</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>释放锁定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>释放召唤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_by_jiangli1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_xiaopiaojinbi.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奖励1：1-10倍，3-5个鲸币</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_by_jiangli2</t>
+  </si>
+  <si>
+    <t>奖励3：12-60倍，10个鲸币 彩带</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奖励4：60-200倍，20个鲸币  圆盘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奖励5：200-299倍，圆盘2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_by_jiangli5</t>
+  </si>
+  <si>
+    <t>奖励6：300以上倍，倍数滚动自己掉金币</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_by_siwang1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_by_siwang2</t>
+  </si>
+  <si>
+    <t>bgm_by_siwang19</t>
+  </si>
+  <si>
+    <t>bgm_by_siwang20</t>
+  </si>
+  <si>
+    <t>bgm_by_siwang21</t>
+  </si>
+  <si>
+    <t>bgm_by_siwang22</t>
+  </si>
+  <si>
+    <t>bgm_by_siwang24</t>
+  </si>
+  <si>
+    <t>bgm_by_siwang25</t>
+  </si>
+  <si>
+    <t>bgm_by_siwang26</t>
+  </si>
+  <si>
+    <t>bgm_by_siwang27</t>
+  </si>
+  <si>
+    <t>bgm_by_siwang28</t>
+  </si>
+  <si>
+    <t>bgm_by_siwang29</t>
+  </si>
+  <si>
+    <t>bgm_by_siwang30</t>
+  </si>
+  <si>
+    <t>bgm_by_siwang31</t>
+  </si>
+  <si>
+    <t>bgm_by_siwang32</t>
+  </si>
+  <si>
+    <t>bgm_by_siwang33</t>
+  </si>
+  <si>
+    <t>bgm_by_siwang34</t>
+  </si>
+  <si>
+    <t>bgm_by_siwang35</t>
+  </si>
+  <si>
+    <t>bgm_by_siwang36</t>
+  </si>
+  <si>
+    <t>bgm_by_zhadanyu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_by_zhadanyu1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_by_shandianyu</t>
+  </si>
+  <si>
+    <t>闪电鱼爆炸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_by_huodong</t>
+  </si>
+  <si>
+    <t>bgm_by_huodong.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>超级火力、免费子弹、双倍时刻出现时的音效me</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_by_yincanghuodong</t>
+  </si>
+  <si>
+    <t>击杀鱼后触发隐藏效果（闪电、炸弹、获得技能）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_by_tiaozhanrenwuchuxian</t>
+  </si>
+  <si>
+    <t>挑战任务出现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_by_tiaozhanrenxianshi</t>
+  </si>
+  <si>
+    <t>bgm_by_tiaozhanrenxianshi.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>挑战任务飞向上方撞击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_by_tiaozhanrenwancheng</t>
+  </si>
+  <si>
+    <t>bgm_xxl_jiangli2.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>挑战任务完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_by_zuantoudan1</t>
+  </si>
+  <si>
+    <t>获得钻头弹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_by_zuantoudan2</t>
+  </si>
+  <si>
+    <t>bgm_by_zuantoudan3</t>
+  </si>
+  <si>
+    <t>bgm_by_jiguang2.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发射钻头弹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_by_zuantoudan4</t>
+  </si>
+  <si>
+    <t>bgm_by_zidan2.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>钻头弹发射后每碰到一条鱼播放一次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_by_zuantoudan5</t>
+  </si>
+  <si>
+    <t>钻头弹撞击后反弹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_by_zuantoudan6</t>
+  </si>
+  <si>
+    <t>钻头弹准即将爆炸（循环）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_by_zuantoudan7</t>
+  </si>
+  <si>
+    <t>钻头弹爆炸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>超级原子弹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_bymatch_zhadan2</t>
+  </si>
+  <si>
+    <t>bgm_bymatch_zhadan2.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>原子弹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_bymatch_shandian1</t>
+  </si>
+  <si>
+    <t>bgm_by_shandianyu.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>超级闪电风暴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_bymatch_shandian2</t>
+  </si>
+  <si>
+    <t>bgm_by_shandianyu.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>闪电风暴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_by_diancipao1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电磁炮蓄力me</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_by_diancipao2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电磁炮释放</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_by_hdylaixi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>活动鱼来袭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_by_jinbi1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_xiaopiaojinbi.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3-5个鲸币</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_by_jinbi2</t>
+  </si>
+  <si>
+    <t>bgm_zhongpiaojinbi.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">10个鲸币 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">20个鲸币 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_3dby_zidan1.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_by_siwang23</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_by_siwang7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_3dby_yuchao.mp3</t>
+  </si>
+  <si>
+    <t>bgm_3dby_jl2.mp3</t>
+  </si>
+  <si>
+    <t>bgm_3dby_jl4.mp3</t>
+  </si>
+  <si>
+    <t>bgm_3dby_shandianyu.mp3</t>
+  </si>
+  <si>
+    <t>bgm_3dby_dcpxl.mp3</t>
+  </si>
+  <si>
+    <t>bgm_3dby_dcpsf.mp3</t>
+  </si>
+  <si>
+    <t>bgm_3dby_hdylx.mp3</t>
+  </si>
+  <si>
+    <t>bgm_ttl_fashe.mp3</t>
+  </si>
+  <si>
+    <t>bgm_ttl_xiaozhuangji.mp3</t>
+  </si>
+  <si>
+    <t>bgm_ttl_shandianqiujuneng.mp3</t>
+  </si>
+  <si>
+    <t>bgm_ttl_shandianqiushifang.mp3</t>
+  </si>
+  <si>
+    <t>bgm_ttl_labatingzhi.mp3</t>
+  </si>
+  <si>
+    <t>bgm_ttl_jiesuan1.mp3</t>
+  </si>
+  <si>
+    <t>bgm_ttl_jiesuan2.mp3</t>
+  </si>
+  <si>
+    <t>bgm_ttl_beijing.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_3dby_siwang6.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_3dby_siwang7.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_3dby_siwang8.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_3dby_siwang9.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_by_siwang37</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>desc|使用说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>|原始名字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_3dby_jl3.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>双倍奖励出现时</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>背景音乐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ddz_bgm_game_hall.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开始种植</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bydr_bgm_begin.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>倒计时5秒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dld_game_timeout.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>种植结束</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sod_majiang_gamestart.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>押注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收钱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_pgdz_beijing.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_pgdz_beijing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_pgdz_kaishi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_pgdz_daojishi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_pgdz_jieshu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_pgdz_shuangbei</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_pgdz_zhongzhi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_pgdz_shouhuo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_pgdz_kaishi.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_pgdz_daojishi.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_pgdz_jieshu.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_pgdz_shuangbei.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_pgdz_zhongzhi.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_pgdz_shouhuo.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宝藏章鱼</t>
+  </si>
+  <si>
+    <t>骰子龟</t>
+  </si>
+  <si>
+    <t>金龙转盘</t>
+  </si>
+  <si>
+    <t>炽火龙王</t>
+  </si>
+  <si>
+    <t>霸王蟹</t>
+  </si>
+  <si>
+    <t>鲨鱼将军</t>
+  </si>
+  <si>
+    <t>荧光女皇</t>
+  </si>
+  <si>
+    <t>远古龙龟</t>
+  </si>
+  <si>
+    <t>麒麟兽</t>
+  </si>
+  <si>
+    <t>海盗船</t>
+  </si>
+  <si>
+    <t>招财宝蟾</t>
+  </si>
+  <si>
+    <t>深海狂鲨</t>
+  </si>
+  <si>
+    <t>鳄鱼</t>
+  </si>
+  <si>
+    <t>大王乌贼-触角</t>
+  </si>
+  <si>
+    <t>鳄鱼宝箱</t>
+  </si>
+  <si>
+    <t>bgm_by_siwang38</t>
+  </si>
+  <si>
+    <t>bgm_by_siwang39</t>
+  </si>
+  <si>
+    <t>bgm_by_siwang40</t>
+  </si>
+  <si>
+    <t>bgm_by_siwang41</t>
+  </si>
+  <si>
+    <t>bgm_by_siwang42</t>
+  </si>
+  <si>
+    <t>bgm_by_siwang43</t>
+  </si>
+  <si>
+    <t>bgm_by_siwang44</t>
+  </si>
+  <si>
+    <t>bgm_by_siwang45</t>
+  </si>
+  <si>
+    <t>bgm_by_siwang46</t>
+  </si>
+  <si>
+    <t>bgm_by_siwang47</t>
+  </si>
+  <si>
+    <t>bgm_by_siwang48</t>
+  </si>
+  <si>
+    <t>bgm_by_siwang49</t>
+  </si>
+  <si>
+    <t>bgm_by_siwang50</t>
+  </si>
+  <si>
+    <t>bgm_3dby_bingfeng.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_by_bingfeng</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_by_jinbi3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_by_xiaobosschuchang</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_by_bosschuchang</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_by_xiaobosschuchang.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_by_bosschuchang.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>狂鲨出场前从水底游过的音效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宝蟾出场前的2次震屏的音效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小BOSS背景音乐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BOSS背景音乐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小BOSS提示界面出现的时候</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BOSS提示界面出现的时候</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_by_bossAchuchang</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_by_bossBchuchang</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_by_bossCchuchang</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_by_bossBchiyu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_by_bossBdefen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>狂鲨吃鱼效果时的音效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鳄鱼出场前2次闪光的音效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_by_bossCchuchang1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鳄鱼出场前第3次闪光的音效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_by_bossDchuchang</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_by_bossDchuchang1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>章鱼出场前2次震屏的音效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_by_bossAyidong</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宝蟾跳动的音效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_by_bossDjisha</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>章鱼触角被击中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>狂鲨吃鱼的分时的音效，循环</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_by_bossDpaida</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>章鱼触角拍打地板，每次拍打播放一次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_by_tiaozhanrenxianshi.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_by_bossBchuchang.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_by_bossBchiyu.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_by_bossBdefen.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_by_bossCchuchang.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_by_bossCchuchang1.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_by_bossDchuchang1.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>章鱼出场前3次喷墨汁的音效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_by_bossDjisha.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_by_zhaohuan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_by_zhaohuan.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_3dby_suoding.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_by_suoding</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_3dby_jl3.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_main_hall.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_main_hall</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_xiaoyouxibeijing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_xiaoyouxibeijing.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_by_2345chang</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2345场次游戏中音效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_by_2345chang.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2小牛角</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2小气泡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3小丑鱼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4小燕鱼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5小黄鳍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6河豚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7小灯笼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8小旗鱼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10小水母</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12小章鱼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15小海龟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18狮子鱼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20蝴蝶鱼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>25巨大小丑鱼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30巨大灯笼鱼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>35巨大燕鱼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>40魔鬼鱼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>60虎鲸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>80~100黄金灯笼鱼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100~120黄金狮子鱼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>120~140黄金海龟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>130~150黄金河豚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>140~160金蟾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>160~180大金鲨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>180~200黄金锤头鲨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_3dby_shandianyu.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_by_bossgame.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_by_xiaobossgame.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_by_xiaobossgame</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_by_bossgame</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_by_dating.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_3dby_game.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初级场背景音乐，循环</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_3dby_siwang0.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_3dby_siwang10.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_3dby_siwang1.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_by_siwang29.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_by_tiaozhanrenxianshi.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_by_count_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_by_count_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_by_count_3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_by_count_4</t>
+  </si>
+  <si>
+    <t>bgm_by_count_5</t>
+  </si>
+  <si>
+    <t>bgm_by_count_6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_by_countEnd_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_by_countEnd_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_by_countEnd_3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_by_countEnd_4</t>
+  </si>
+  <si>
+    <t>bgm_by_countEnd_5</t>
+  </si>
+  <si>
+    <t>bgm_by_countEnd_6</t>
+  </si>
+  <si>
+    <t>数字突然放大音效1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数字突然放大音效2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数字突然放大音效3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数字突然放大音效4</t>
+  </si>
+  <si>
+    <t>数字突然放大音效5</t>
+  </si>
+  <si>
+    <t>数字突然放大音效6</t>
+  </si>
+  <si>
+    <t>数字持续滚动音效1（循环）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数字持续滚动音效2（循环）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数字持续滚动音效3（循环）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数字持续滚动音效4（循环）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数字持续滚动音效5（循环）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数字持续滚动音效6（循环）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_by_count_2.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_by_count_3.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_by_count_4.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_by_count_5.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_by_count_6.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_by_countEnd_1.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_by_countEnd_2.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_by_countEnd_3.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_by_countEnd_4.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_by_countEnd_5.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_by_countEnd_6.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_3dby_siwang22.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_3dby_siwang13.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_3dby_siwang14.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_3dby_siwang16.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_3dby_siwang12.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_3dby_siwang17.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_3dby_siwang18.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_by_siwang8.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_3dby_siwang19.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_3dby_siwang20.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_by_siwang25.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_by_siwang30.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_by_siwang11.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_by_siwang31.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_3dby_siwang15.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_sdbgj_beijing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开始语音-希望他们可以和俺多过几招</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_sdbgj_luoxia</t>
+  </si>
+  <si>
+    <t>bgm_sdbgj_1xiao</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_sdbgj_1xiao.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_sdbgj_2xiao</t>
+  </si>
+  <si>
+    <t>bgm_sdbgj_3xiao</t>
+  </si>
+  <si>
+    <t>bgm_sdbgj_4xiao</t>
+  </si>
+  <si>
+    <t>bgm_sdbgj_5xiao</t>
+  </si>
+  <si>
+    <t>bgm_sdbgj_6xiao</t>
+  </si>
+  <si>
+    <t>bgm_sdbgj_jiajianzhu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_sdbgj_jiajianzhu.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_sdbgj_free_beijing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_sdbgj_free_beijing.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>免费游戏背景音效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_sdbgj_yanwu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>白骨精烟雾音效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_sdbgj_swk_xc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_sdbgj_swk_xc.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>孙悟空消除的音效-俺老孙来也</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_sdbgj_swk_huo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>孙悟空火焰音效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_sdbgj_bg_skill</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_sdbgj_bg_skill.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BIG GAME金箍棒音效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_sdbgj_bgj_xc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_sdbgj_bgj_xc.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>白骨精消除音效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_sdbgj_hyjj</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>孙悟空技能-火眼金睛-妖怪哪里跑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消除唐僧音效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_sdbgj_ts_zj</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消除唐僧免费次数撞击音效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>孙悟空撞击白骨精音效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_sdbgj_swk_ui</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>孙悟空技能界面撞击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_sdbgj_swk_yj</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>孙悟空技能摇奖音效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_sdbgj_jgb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_sdbgj_jgb.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>孙悟空技能-金箍棒-吃俺老孙一棒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_sdbgj_jg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_sdbgj_jg.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>孙悟空技能-金箍-领教下俺老孙的本事吧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_sdbgj_xhz</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_sdbgj_xhz.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>孙悟空技能-小猴子-哼，这就是他们的本事？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_sdbgj_jiangli1</t>
+  </si>
+  <si>
+    <t>bgm_sdbgj_jiangli2</t>
+  </si>
+  <si>
+    <t>bgm_sdbgj_jiangli3</t>
+  </si>
+  <si>
+    <t>bgm_sdbgj_jiangli4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_sdbgj_jiangli4.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结算4（暂时屏蔽背景音乐）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_by_siwang13.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_by_siwang26.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_3dby_siwang11.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_by_count_1.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_3dby_jl4.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_shxxl_jiangli1.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_xxl_luoxia.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_sdbgj_kaishi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_sdbgj_kaishi.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>免费游戏中消除唐僧音效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_sdbgj_free_ts_xc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_sdbgj_ts_xc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_sdbgj_ts_xc.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_sdbgj_free_ts_xc.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_sdbgj_jiangli2.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_sdbgj_jiangli3.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_csxxl_jiesuan1.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_sdbgj_jiangli1.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_3dby_goldboomfish.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_by_yincanghuodong.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_by_tiaozhanrenwuchuxian.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_3dby_zuantouboom.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_4bei.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sod_game_card_bombsod.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sod_game_card_bombsod.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_ttl_lababaozha.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_ttl_dabaopo.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_sdbgj_bgj_sl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_3dby_siwang21.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>炸弹鱼人声</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄金炸弹鱼人声</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_3dby_boomfish.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_sdbgj_bgj_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_sdbgj_bgj_2</t>
+  </si>
+  <si>
+    <t>bgm_sdbgj_bgj_3</t>
+  </si>
+  <si>
+    <t>白骨精-村妇音效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>白骨精-老妇音效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>白骨精-老头音效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_sdbgj_bgj_1.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_sdbgj_bgj_2.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_sdbgj_bgj_3.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>元素落下</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1消</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2消</t>
+  </si>
+  <si>
+    <t>4消</t>
+  </si>
+  <si>
+    <t>5消</t>
+  </si>
+  <si>
+    <t>加减注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结算1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结算2</t>
+  </si>
+  <si>
+    <t>结算3（暂时屏蔽背景音乐）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_by_zhadanyu_rensheng</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_by_zhadanyu1_rensheng</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>炸弹鱼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄金炸弹鱼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_sdbgj_beijing.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_sdbgj_bgj_yj</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_sdbgj_bgj_yj.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_csxxl_caishenyaojiang.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>bgm_csxxl_tiannvsanhuabeijing.mp3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -4820,1790 +6890,51 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>bgm_csxxl_caishenyaojiang.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_csxxl_jiesuan2.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_csxxl_jiesuan3.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_csxxl_luoxia</t>
-  </si>
-  <si>
-    <t>新的图标落下</t>
-  </si>
-  <si>
-    <t>bgm_csxxl_1xiao</t>
-  </si>
-  <si>
-    <t>3消</t>
-  </si>
-  <si>
-    <t>4消</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5消</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6消</t>
-  </si>
-  <si>
-    <t>7消</t>
-  </si>
-  <si>
-    <t>8消</t>
-  </si>
-  <si>
-    <t>bgm_csxxl_2xiao</t>
-  </si>
-  <si>
-    <t>bgm_csxxl_3xiao</t>
-  </si>
-  <si>
-    <t>bgm_csxxl_4xiao</t>
-  </si>
-  <si>
-    <t>bgm_csxxl_5xiao</t>
-  </si>
-  <si>
-    <t>bgm_csxxl_6xiao</t>
-  </si>
-  <si>
-    <t>bgm_csxxl_jiajianzhu</t>
-  </si>
-  <si>
-    <t>加减注</t>
-  </si>
-  <si>
-    <t>bgm_csxxl_jiesuan4.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_xxl_luoxia.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_xxl_1xiao.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_xxl_2xiao.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_xxl_3xiao.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_xxl_4xiao.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_xxl_5xiao.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_xxl_6xiao.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_shxxl_jiajianzhu.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_csxxl_zichuxian</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>砸蛋后飞的字出现在右边</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>元素改变</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_csxxl_yuansugaibian</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_csxxl_zichuxian.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_qhb_beijing.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_csxxl_yuansugaibian.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_shxxl_kaishi.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_csxxl_kaishi.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>开始摇奖</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_csxxl_kaishi</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_csxxl_hua</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_csxxl_hua.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>砸出3个花后出现花特写</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>炸弹鱼</t>
-  </si>
-  <si>
-    <t>美人鱼</t>
-  </si>
-  <si>
-    <t>黄金巨龙</t>
-  </si>
-  <si>
-    <t>深海鲸</t>
-  </si>
-  <si>
-    <t>穿云蟹</t>
-  </si>
-  <si>
-    <t>闪电海鳗</t>
-  </si>
-  <si>
-    <t>电磁蟹</t>
-  </si>
-  <si>
-    <t>奇遇蟹</t>
-  </si>
-  <si>
-    <t>财神</t>
-  </si>
-  <si>
-    <t>黄金炸弹鱼</t>
-  </si>
-  <si>
-    <t>bgm_ttl_beijing</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>背景音乐（循环）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_ttl_jiajian</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_ttl_jiajian.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>加减注</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_ttl_fashe</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>发射</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_ttl_xiaozhuangji</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>撞击小球</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_ttl_dazhuangji1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_ttl_dazhuangji1.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>撞击大球1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_ttl_dazhuangji2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_ttl_dazhuangji2.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>撞击大球2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_ttl_dazhuangji3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_ttl_dazhuangji3.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>撞击大球3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_ttl_dazhuangji4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_ttl_dazhuangji4.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>撞击大球4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_ttl_dazhuangji5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_ttl_dazhuangji5.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>撞击大球5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_ttl_dazhuangji6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_ttl_dazhuangji6.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>撞击大球6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_ttl_dabaopo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大球爆破（0.5倍、2倍、闪电球）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_ttl_shandianqiujuneng</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>闪电球的聚能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_ttl_shandianqiushifang</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>闪电球释放</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_ttl_dianhuo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_ttl_dianhuo.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>点火</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_ttl_labafeiqi</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_ttl_labafeiqi.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>拉拔飞起</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_ttl_labazaxia</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_ttl_labazaxia.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>拉拔砸下</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_ttl_labalaxia</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_ttl_labalaxia.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>拉拔拉下</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_ttl_labagundong</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_ttl_labagundong.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>拉拔滚动中</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_ttl_labatingzhi</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>拉拔停止滚动</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_ttl_lababaozha</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>拉拔爆炸</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_ttl_saqian</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_ttl_saqian.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>撒钱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_ttl_jiesuan1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小结算</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_ttl_jiesuan2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大结算</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>name|名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>audio_name|文件名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>desc|使用说明（me为只有自己可听见）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_by_dating</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>捕鱼大厅背景音乐，循环</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_by_game</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_by_yuchao</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>鱼潮出现</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_by_zidan</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_by_jiabei</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>增加炮的倍数me</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_by_jianbei</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>减少炮的倍数me</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_by_huodejineng</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_hall_huodewupin.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>获得冰封、锁定、炸弹、召唤技能时的音效</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_by_jiguang1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_by_jiguang1.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>激光蓄力me</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_by_jiguang2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_by_jiguang2.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>激光释放</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>释放冰封</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>释放锁定</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>释放召唤</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_by_jiangli1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_xiaopiaojinbi.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>奖励1：1-10倍，3-5个鲸币</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_by_jiangli2</t>
-  </si>
-  <si>
-    <t>奖励3：12-60倍，10个鲸币 彩带</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>奖励4：60-200倍，20个鲸币  圆盘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>奖励5：200-299倍，圆盘2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_by_jiangli5</t>
-  </si>
-  <si>
-    <t>奖励6：300以上倍，倍数滚动自己掉金币</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_by_siwang1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_by_siwang2</t>
-  </si>
-  <si>
-    <t>bgm_by_siwang19</t>
-  </si>
-  <si>
-    <t>bgm_by_siwang20</t>
-  </si>
-  <si>
-    <t>bgm_by_siwang21</t>
-  </si>
-  <si>
-    <t>bgm_by_siwang22</t>
-  </si>
-  <si>
-    <t>bgm_by_siwang24</t>
-  </si>
-  <si>
-    <t>bgm_by_siwang25</t>
-  </si>
-  <si>
-    <t>bgm_by_siwang26</t>
-  </si>
-  <si>
-    <t>bgm_by_siwang27</t>
-  </si>
-  <si>
-    <t>bgm_by_siwang28</t>
-  </si>
-  <si>
-    <t>bgm_by_siwang29</t>
-  </si>
-  <si>
-    <t>bgm_by_siwang30</t>
-  </si>
-  <si>
-    <t>bgm_by_siwang31</t>
-  </si>
-  <si>
-    <t>bgm_by_siwang32</t>
-  </si>
-  <si>
-    <t>bgm_by_siwang33</t>
-  </si>
-  <si>
-    <t>bgm_by_siwang34</t>
-  </si>
-  <si>
-    <t>bgm_by_siwang35</t>
-  </si>
-  <si>
-    <t>bgm_by_siwang36</t>
-  </si>
-  <si>
-    <t>bgm_by_zhadanyu</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_by_zhadanyu1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_by_shandianyu</t>
-  </si>
-  <si>
-    <t>闪电鱼爆炸</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_by_huodong</t>
-  </si>
-  <si>
-    <t>bgm_by_huodong.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>超级火力、免费子弹、双倍时刻出现时的音效me</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_by_yincanghuodong</t>
-  </si>
-  <si>
-    <t>击杀鱼后触发隐藏效果（闪电、炸弹、获得技能）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_by_tiaozhanrenwuchuxian</t>
-  </si>
-  <si>
-    <t>挑战任务出现</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_by_tiaozhanrenxianshi</t>
-  </si>
-  <si>
-    <t>bgm_by_tiaozhanrenxianshi.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>挑战任务飞向上方撞击</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_by_tiaozhanrenwancheng</t>
-  </si>
-  <si>
-    <t>bgm_xxl_jiangli2.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>挑战任务完成</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_by_zuantoudan1</t>
-  </si>
-  <si>
-    <t>获得钻头弹</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_by_zuantoudan2</t>
-  </si>
-  <si>
-    <t>bgm_by_zuantoudan3</t>
-  </si>
-  <si>
-    <t>bgm_by_jiguang2.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>发射钻头弹</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_by_zuantoudan4</t>
-  </si>
-  <si>
-    <t>bgm_by_zidan2.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>钻头弹发射后每碰到一条鱼播放一次</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_by_zuantoudan5</t>
-  </si>
-  <si>
-    <t>钻头弹撞击后反弹</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_by_zuantoudan6</t>
-  </si>
-  <si>
-    <t>钻头弹准即将爆炸（循环）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_by_zuantoudan7</t>
-  </si>
-  <si>
-    <t>钻头弹爆炸</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>超级原子弹</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_bymatch_zhadan2</t>
-  </si>
-  <si>
-    <t>bgm_bymatch_zhadan2.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>原子弹</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_bymatch_shandian1</t>
-  </si>
-  <si>
-    <t>bgm_by_shandianyu.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>超级闪电风暴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_bymatch_shandian2</t>
-  </si>
-  <si>
-    <t>bgm_by_shandianyu.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>闪电风暴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_by_diancipao1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>电磁炮蓄力me</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_by_diancipao2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>电磁炮释放</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_by_hdylaixi</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>活动鱼来袭</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_by_jinbi1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_xiaopiaojinbi.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3-5个鲸币</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_by_jinbi2</t>
-  </si>
-  <si>
-    <t>bgm_zhongpiaojinbi.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">10个鲸币 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">20个鲸币 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_3dby_zidan1.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_by_siwang23</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_by_siwang7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_3dby_yuchao.mp3</t>
-  </si>
-  <si>
-    <t>bgm_3dby_jl2.mp3</t>
-  </si>
-  <si>
-    <t>bgm_3dby_jl4.mp3</t>
-  </si>
-  <si>
-    <t>bgm_3dby_shandianyu.mp3</t>
-  </si>
-  <si>
-    <t>bgm_3dby_dcpxl.mp3</t>
-  </si>
-  <si>
-    <t>bgm_3dby_dcpsf.mp3</t>
-  </si>
-  <si>
-    <t>bgm_3dby_hdylx.mp3</t>
-  </si>
-  <si>
-    <t>bgm_ttl_fashe.mp3</t>
-  </si>
-  <si>
-    <t>bgm_ttl_xiaozhuangji.mp3</t>
-  </si>
-  <si>
-    <t>bgm_ttl_shandianqiujuneng.mp3</t>
-  </si>
-  <si>
-    <t>bgm_ttl_shandianqiushifang.mp3</t>
-  </si>
-  <si>
-    <t>bgm_ttl_labatingzhi.mp3</t>
-  </si>
-  <si>
-    <t>bgm_ttl_jiesuan1.mp3</t>
-  </si>
-  <si>
-    <t>bgm_ttl_jiesuan2.mp3</t>
-  </si>
-  <si>
-    <t>bgm_ttl_beijing.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_3dby_siwang6.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_3dby_siwang7.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_3dby_siwang8.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_3dby_siwang9.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_by_siwang37</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>desc|使用说明</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>|原始名字</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_3dby_jl3.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>双倍奖励出现时</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>背景音乐</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ddz_bgm_game_hall.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>开始种植</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bydr_bgm_begin.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>倒计时5秒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dld_game_timeout.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>种植结束</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sod_majiang_gamestart.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>押注</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>收钱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_pgdz_beijing.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_pgdz_beijing</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_pgdz_kaishi</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_pgdz_daojishi</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_pgdz_jieshu</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_pgdz_shuangbei</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_pgdz_zhongzhi</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_pgdz_shouhuo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_pgdz_kaishi.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_pgdz_daojishi.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_pgdz_jieshu.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_pgdz_shuangbei.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_pgdz_zhongzhi.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_pgdz_shouhuo.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>宝藏章鱼</t>
-  </si>
-  <si>
-    <t>骰子龟</t>
-  </si>
-  <si>
-    <t>金龙转盘</t>
-  </si>
-  <si>
-    <t>炽火龙王</t>
-  </si>
-  <si>
-    <t>霸王蟹</t>
-  </si>
-  <si>
-    <t>鲨鱼将军</t>
-  </si>
-  <si>
-    <t>荧光女皇</t>
-  </si>
-  <si>
-    <t>远古龙龟</t>
-  </si>
-  <si>
-    <t>麒麟兽</t>
-  </si>
-  <si>
-    <t>海盗船</t>
-  </si>
-  <si>
-    <t>招财宝蟾</t>
-  </si>
-  <si>
-    <t>深海狂鲨</t>
-  </si>
-  <si>
-    <t>鳄鱼</t>
-  </si>
-  <si>
-    <t>大王乌贼-触角</t>
-  </si>
-  <si>
-    <t>鳄鱼宝箱</t>
-  </si>
-  <si>
-    <t>bgm_by_siwang38</t>
-  </si>
-  <si>
-    <t>bgm_by_siwang39</t>
-  </si>
-  <si>
-    <t>bgm_by_siwang40</t>
-  </si>
-  <si>
-    <t>bgm_by_siwang41</t>
-  </si>
-  <si>
-    <t>bgm_by_siwang42</t>
-  </si>
-  <si>
-    <t>bgm_by_siwang43</t>
-  </si>
-  <si>
-    <t>bgm_by_siwang44</t>
-  </si>
-  <si>
-    <t>bgm_by_siwang45</t>
-  </si>
-  <si>
-    <t>bgm_by_siwang46</t>
-  </si>
-  <si>
-    <t>bgm_by_siwang47</t>
-  </si>
-  <si>
-    <t>bgm_by_siwang48</t>
-  </si>
-  <si>
-    <t>bgm_by_siwang49</t>
-  </si>
-  <si>
-    <t>bgm_by_siwang50</t>
-  </si>
-  <si>
-    <t>bgm_3dby_bingfeng.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_by_bingfeng</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_by_jinbi3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_by_xiaobosschuchang</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_by_bosschuchang</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_by_xiaobosschuchang.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_by_bosschuchang.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>狂鲨出场前从水底游过的音效</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>宝蟾出场前的2次震屏的音效</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小BOSS背景音乐</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BOSS背景音乐</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小BOSS提示界面出现的时候</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BOSS提示界面出现的时候</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_by_bossAchuchang</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_by_bossBchuchang</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_by_bossCchuchang</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_by_bossBchiyu</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_by_bossBdefen</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>狂鲨吃鱼效果时的音效</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>鳄鱼出场前2次闪光的音效</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_by_bossCchuchang1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>鳄鱼出场前第3次闪光的音效</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_by_bossDchuchang</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_by_bossDchuchang1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>章鱼出场前2次震屏的音效</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_by_bossAyidong</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>宝蟾跳动的音效</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_by_bossDjisha</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>章鱼触角被击中</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>狂鲨吃鱼的分时的音效，循环</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_by_bossDpaida</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>章鱼触角拍打地板，每次拍打播放一次</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_by_tiaozhanrenxianshi.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_by_bossBchuchang.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_by_bossBchiyu.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_by_bossBdefen.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_by_bossCchuchang.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_by_bossCchuchang1.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_by_bossDchuchang1.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>章鱼出场前3次喷墨汁的音效</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_by_bossDjisha.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_by_zhaohuan</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_by_zhaohuan.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_3dby_suoding.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_by_suoding</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_3dby_jl3.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_main_hall.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_main_hall</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_xiaoyouxibeijing</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_xiaoyouxibeijing.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_by_2345chang</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2345场次游戏中音效</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_by_2345chang.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2小牛角</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2小气泡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3小丑鱼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4小燕鱼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5小黄鳍</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6河豚</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7小灯笼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8小旗鱼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10小水母</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>12小章鱼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>15小海龟</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>18狮子鱼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20蝴蝶鱼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>25巨大小丑鱼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>30巨大灯笼鱼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>35巨大燕鱼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>40魔鬼鱼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>60虎鲸</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>80~100黄金灯笼鱼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>100~120黄金狮子鱼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>120~140黄金海龟</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>130~150黄金河豚</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>140~160金蟾</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>160~180大金鲨</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>180~200黄金锤头鲨</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_3dby_shandianyu.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_by_bossgame.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_by_xiaobossgame.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_by_xiaobossgame</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_by_bossgame</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_by_dating.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_3dby_game.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>初级场背景音乐，循环</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_3dby_siwang0.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_3dby_siwang10.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_3dby_siwang1.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_by_siwang29.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_by_tiaozhanrenxianshi.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_by_count_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_by_count_2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_by_count_3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_by_count_4</t>
-  </si>
-  <si>
-    <t>bgm_by_count_5</t>
-  </si>
-  <si>
-    <t>bgm_by_count_6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_by_countEnd_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_by_countEnd_2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_by_countEnd_3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_by_countEnd_4</t>
-  </si>
-  <si>
-    <t>bgm_by_countEnd_5</t>
-  </si>
-  <si>
-    <t>bgm_by_countEnd_6</t>
-  </si>
-  <si>
-    <t>数字突然放大音效1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数字突然放大音效2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数字突然放大音效3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数字突然放大音效4</t>
-  </si>
-  <si>
-    <t>数字突然放大音效5</t>
-  </si>
-  <si>
-    <t>数字突然放大音效6</t>
-  </si>
-  <si>
-    <t>数字持续滚动音效1（循环）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数字持续滚动音效2（循环）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数字持续滚动音效3（循环）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数字持续滚动音效4（循环）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数字持续滚动音效5（循环）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数字持续滚动音效6（循环）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_by_count_2.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_by_count_3.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_by_count_4.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_by_count_5.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_by_count_6.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_by_countEnd_1.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_by_countEnd_2.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_by_countEnd_3.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_by_countEnd_4.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_by_countEnd_5.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_by_countEnd_6.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_3dby_siwang22.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_3dby_siwang13.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_3dby_siwang14.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_3dby_siwang16.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_3dby_siwang12.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_3dby_siwang17.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_3dby_siwang18.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_by_siwang8.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_3dby_siwang19.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_3dby_siwang20.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_by_siwang25.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_by_siwang30.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_by_siwang11.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_by_siwang31.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_3dby_siwang15.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_sdbgj_beijing</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_sdbgj_beijing.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>开始语音-希望他们可以和俺多过几招</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_sdbgj_luoxia</t>
-  </si>
-  <si>
-    <t>bgm_sdbgj_1xiao</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_sdbgj_1xiao.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_sdbgj_2xiao</t>
-  </si>
-  <si>
-    <t>bgm_sdbgj_3xiao</t>
-  </si>
-  <si>
-    <t>bgm_sdbgj_4xiao</t>
-  </si>
-  <si>
-    <t>bgm_sdbgj_5xiao</t>
-  </si>
-  <si>
-    <t>bgm_sdbgj_6xiao</t>
-  </si>
-  <si>
-    <t>bgm_sdbgj_jiajianzhu</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_sdbgj_jiajianzhu.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_sdbgj_free_beijing</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_sdbgj_free_beijing.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>免费游戏背景音效</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_sdbgj_yanwu</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_sdbgj_yanwu.wav</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>白骨精烟雾音效</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_sdbgj_swk_xc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_sdbgj_swk_xc.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>孙悟空消除的音效-俺老孙来也</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_sdbgj_swk_huo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_sdbgj_swk_huo.wav</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>孙悟空火焰音效</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_sdbgj_bg_skill</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_sdbgj_bg_skill.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BIG GAME金箍棒音效</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_sdbgj_bgj_xc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_sdbgj_bgj_xc.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>白骨精消除音效</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_sdbgj_hyjj</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_sdbgj_hyjj.wav</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>孙悟空技能-火眼金睛-妖怪哪里跑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>消除唐僧音效</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_sdbgj_ts_zj</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>消除唐僧免费次数撞击音效</t>
+    <t>bgm_sdbgj_free_chufa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>免费游戏触发音效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BIG GAME奖池撞击音效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>白骨精摇奖音效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>洒落白骨精音效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_sdbgj_zj</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_sdbgj_yanwu.mp3</t>
+  </si>
+  <si>
+    <t>bgm_sdbgj_swk_huo.mp3</t>
+  </si>
+  <si>
+    <t>bgm_sdbgj_hyjj.mp3</t>
+  </si>
+  <si>
+    <t>bgm_sdbgj_swk_yj.mp3</t>
+  </si>
+  <si>
+    <t>bgm_sdbgj_bgj_sl.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BIG GAME白骨精出现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BIG GAME孙悟空摇奖</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -6611,322 +6942,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>BIG GAME奖池撞击音效</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>孙悟空撞击白骨精音效</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>白骨精摇奖音效</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>洒落白骨精音效</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_sdbgj_swk_ui</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>孙悟空技能界面撞击</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_sdbgj_swk_yj</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_sdbgj_swk_yj.wav</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>孙悟空技能摇奖音效</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_sdbgj_jgb</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_sdbgj_jgb.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>孙悟空技能-金箍棒-吃俺老孙一棒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_sdbgj_jg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_sdbgj_jg.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>孙悟空技能-金箍-领教下俺老孙的本事吧</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_sdbgj_xhz</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_sdbgj_xhz.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>孙悟空技能-小猴子-哼，这就是他们的本事？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_sdbgj_jiangli1</t>
-  </si>
-  <si>
-    <t>bgm_sdbgj_jiangli2</t>
-  </si>
-  <si>
-    <t>bgm_sdbgj_jiangli3</t>
-  </si>
-  <si>
-    <t>bgm_sdbgj_jiangli4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_sdbgj_jiangli4.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>结算4（暂时屏蔽背景音乐）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_by_siwang13.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_by_siwang26.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_3dby_siwang11.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_by_count_1.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_3dby_jl4.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_shxxl_jiangli1.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_xxl_luoxia.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_sdbgj_kaishi</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_sdbgj_kaishi.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>免费游戏中消除唐僧音效</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_sdbgj_free_ts_xc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_sdbgj_ts_xc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_sdbgj_ts_xc.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_sdbgj_free_ts_xc.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_sdbgj_jiangli2.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_sdbgj_jiangli3.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_csxxl_jiesuan1.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_sdbgj_jiangli1.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_3dby_goldboomfish.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_by_yincanghuodong.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_by_tiaozhanrenwuchuxian.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_3dby_zuantouboom.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_4bei.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sod_game_card_bombsod.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sod_game_card_bombsod.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_sdbgj_zj</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_ttl_lababaozha.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_ttl_dabaopo.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_sdbgj_bgj_yj</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_xxl_lucky1.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_xxl_lucky4xiao</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_sdbgj_bgj_sl</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_3dby_siwang21.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>炸弹鱼人声</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>黄金炸弹鱼人声</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_3dby_boomfish.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_sdbgj_bgj_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_sdbgj_bgj_2</t>
-  </si>
-  <si>
-    <t>bgm_sdbgj_bgj_3</t>
-  </si>
-  <si>
-    <t>白骨精-村妇音效</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>白骨精-老妇音效</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>白骨精-老头音效</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_sdbgj_bgj_1.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_sdbgj_bgj_2.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_sdbgj_bgj_3.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>元素落下</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1消</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2消</t>
-  </si>
-  <si>
-    <t>4消</t>
-  </si>
-  <si>
-    <t>5消</t>
-  </si>
-  <si>
-    <t>加减注</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>结算1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>结算2</t>
-  </si>
-  <si>
-    <t>结算3（暂时屏蔽背景音乐）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_by_zhadanyu_rensheng</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_by_zhadanyu1_rensheng</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>炸弹鱼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>黄金炸弹鱼</t>
+    <t>bgm_sdbgj_bg_bgj</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_sdbgj_bg_bgj.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_sdbgj_bg_swk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_sdbgj_bg_swk.mp3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -7056,7 +7084,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -7125,6 +7153,16 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="百分比" xfId="1" builtinId="5"/>
@@ -7432,10 +7470,10 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>1671</v>
+        <v>1668</v>
       </c>
       <c r="B2" t="s">
-        <v>1670</v>
+        <v>1667</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
@@ -7839,10 +7877,10 @@
     </row>
     <row r="39" spans="1:3">
       <c r="A39" t="s">
-        <v>1672</v>
+        <v>1669</v>
       </c>
       <c r="B39" t="s">
-        <v>1673</v>
+        <v>1670</v>
       </c>
       <c r="C39" t="s">
         <v>1000</v>
@@ -7853,7 +7891,7 @@
         <v>1003</v>
       </c>
       <c r="B40" t="s">
-        <v>1849</v>
+        <v>1837</v>
       </c>
       <c r="C40" t="s">
         <v>1002</v>
@@ -7919,7 +7957,7 @@
         <v>1213</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>1359</v>
+        <v>1356</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>1214</v>
@@ -8180,7 +8218,7 @@
   <dimension ref="A1:C27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -8285,7 +8323,7 @@
         <v>1302</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>1324</v>
+        <v>1873</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>1303</v>
@@ -8296,7 +8334,7 @@
         <v>1308</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>1325</v>
+        <v>1874</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>1310</v>
@@ -8307,7 +8345,7 @@
         <v>1311</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>1326</v>
+        <v>1872</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>1312</v>
@@ -8318,7 +8356,7 @@
         <v>1304</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>1843</v>
+        <v>1831</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>1313</v>
@@ -8329,7 +8367,7 @@
         <v>1305</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>1327</v>
+        <v>1324</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>1314</v>
@@ -8340,7 +8378,7 @@
         <v>1306</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>1328</v>
+        <v>1325</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>1315</v>
@@ -8351,7 +8389,7 @@
         <v>1307</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>1345</v>
+        <v>1342</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>1316</v>
@@ -8359,134 +8397,134 @@
     </row>
     <row r="16" spans="1:3" s="5" customFormat="1">
       <c r="A16" s="19" t="s">
-        <v>1354</v>
+        <v>1351</v>
       </c>
       <c r="B16" s="19" t="s">
-        <v>1358</v>
+        <v>1355</v>
       </c>
       <c r="C16" s="19" t="s">
-        <v>1355</v>
+        <v>1352</v>
       </c>
     </row>
     <row r="17" spans="1:3" s="5" customFormat="1">
       <c r="A17" s="19" t="s">
+        <v>1354</v>
+      </c>
+      <c r="B17" s="19" t="s">
         <v>1357</v>
       </c>
-      <c r="B17" s="19" t="s">
-        <v>1360</v>
-      </c>
       <c r="C17" s="19" t="s">
-        <v>1356</v>
+        <v>1353</v>
       </c>
     </row>
     <row r="18" spans="1:3" s="5" customFormat="1">
       <c r="A18" s="19" t="s">
-        <v>1364</v>
+        <v>1361</v>
       </c>
       <c r="B18" s="19" t="s">
-        <v>1362</v>
+        <v>1359</v>
       </c>
       <c r="C18" s="19" t="s">
-        <v>1363</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="19" spans="1:3" s="5" customFormat="1">
       <c r="A19" s="19" t="s">
-        <v>1365</v>
+        <v>1362</v>
       </c>
       <c r="B19" s="19" t="s">
-        <v>1366</v>
+        <v>1363</v>
       </c>
       <c r="C19" s="19" t="s">
-        <v>1367</v>
+        <v>1364</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="4" t="s">
-        <v>1329</v>
+        <v>1326</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>1346</v>
+        <v>1343</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>1330</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="4" t="s">
-        <v>1331</v>
+        <v>1328</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>1347</v>
+        <v>1344</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>1332</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="4" t="s">
-        <v>1338</v>
+        <v>1335</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>1348</v>
+        <v>1345</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>1333</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="4" t="s">
-        <v>1339</v>
+        <v>1336</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>1349</v>
+        <v>1346</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>1334</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="4" t="s">
-        <v>1340</v>
+        <v>1337</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>1350</v>
+        <v>1347</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>1335</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="4" t="s">
-        <v>1341</v>
+        <v>1338</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>1351</v>
+        <v>1348</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>1336</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="4" t="s">
-        <v>1342</v>
+        <v>1339</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>1352</v>
+        <v>1349</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>1337</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="4" t="s">
-        <v>1343</v>
+        <v>1340</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>1353</v>
+        <v>1350</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>1344</v>
+        <v>1341</v>
       </c>
     </row>
   </sheetData>
@@ -8500,7 +8538,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D124"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+    <sheetView topLeftCell="A61" workbookViewId="0">
       <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
@@ -8514,54 +8552,54 @@
   <sheetData>
     <row r="1" spans="1:3" ht="16.5">
       <c r="A1" s="13" t="s">
-        <v>1437</v>
+        <v>1434</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>1438</v>
+        <v>1435</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>1439</v>
+        <v>1436</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="16.5">
       <c r="A2" s="13" t="s">
-        <v>1440</v>
+        <v>1437</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>1707</v>
+        <v>1704</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>1441</v>
+        <v>1438</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="16.5">
       <c r="A3" s="13" t="s">
-        <v>1442</v>
+        <v>1439</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>1708</v>
+        <v>1705</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>1709</v>
+        <v>1706</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="16.5">
       <c r="A4" s="13" t="s">
-        <v>1443</v>
+        <v>1440</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>1548</v>
+        <v>1545</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>1444</v>
+        <v>1441</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="16.5">
       <c r="A5" s="13" t="s">
-        <v>1445</v>
+        <v>1442</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>1545</v>
+        <v>1542</v>
       </c>
       <c r="C5" s="13" t="s">
         <v>849</v>
@@ -8580,112 +8618,112 @@
     </row>
     <row r="7" spans="1:3" ht="16.5">
       <c r="A7" s="13" t="s">
-        <v>1446</v>
+        <v>1443</v>
       </c>
       <c r="B7" s="14" t="s">
         <v>864</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>1447</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="16.5">
       <c r="A8" s="13" t="s">
-        <v>1448</v>
+        <v>1445</v>
       </c>
       <c r="B8" s="14" t="s">
         <v>864</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>1449</v>
+        <v>1446</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="16.5">
       <c r="A9" s="13" t="s">
-        <v>1450</v>
+        <v>1447</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>1451</v>
+        <v>1448</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>1452</v>
+        <v>1449</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="16.5">
       <c r="A10" s="13" t="s">
-        <v>1453</v>
+        <v>1450</v>
       </c>
       <c r="B10" s="14" t="s">
         <v>879</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>1455</v>
+        <v>1452</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="16.5">
       <c r="A11" s="13" t="s">
-        <v>1456</v>
+        <v>1453</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>1457</v>
+        <v>1454</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>1458</v>
+        <v>1455</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="16.5">
       <c r="A12" s="14" t="s">
-        <v>1625</v>
+        <v>1622</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>1624</v>
+        <v>1621</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>1459</v>
+        <v>1456</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="16.5">
       <c r="A13" s="14" t="s">
-        <v>1668</v>
+        <v>1665</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>1667</v>
+        <v>1664</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>1460</v>
+        <v>1457</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="16.5">
       <c r="A14" s="14" t="s">
-        <v>1665</v>
+        <v>1662</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>1666</v>
+        <v>1663</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>1461</v>
+        <v>1458</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="16.5">
       <c r="A15" s="13" t="s">
-        <v>1462</v>
+        <v>1459</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>1463</v>
+        <v>1460</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>1464</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="16.5">
       <c r="A16" s="13" t="s">
-        <v>1465</v>
+        <v>1462</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>1549</v>
+        <v>1546</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>1466</v>
+        <v>1463</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="16.5">
@@ -8693,10 +8731,10 @@
         <v>808</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>1669</v>
+        <v>1666</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>1467</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="16.5">
@@ -8704,43 +8742,43 @@
         <v>809</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>1550</v>
+        <v>1547</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>1468</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="16.5">
       <c r="A19" s="13" t="s">
-        <v>1469</v>
+        <v>1466</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>1831</v>
+        <v>1819</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>1470</v>
+        <v>1467</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="16.5">
       <c r="A20" s="13" t="s">
-        <v>1471</v>
+        <v>1468</v>
       </c>
       <c r="B20" s="25" t="s">
-        <v>1710</v>
+        <v>1707</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>1677</v>
+        <v>1674</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="16.5">
       <c r="A21" s="13" t="s">
-        <v>1472</v>
+        <v>1469</v>
       </c>
       <c r="B21" s="25" t="s">
-        <v>1710</v>
+        <v>1707</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>1678</v>
+        <v>1675</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="16.5">
@@ -8748,10 +8786,10 @@
         <v>812</v>
       </c>
       <c r="B22" s="25" t="s">
-        <v>1710</v>
+        <v>1707</v>
       </c>
       <c r="C22" s="14" t="s">
-        <v>1679</v>
+        <v>1676</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="16.5">
@@ -8759,10 +8797,10 @@
         <v>813</v>
       </c>
       <c r="B23" s="25" t="s">
-        <v>1710</v>
+        <v>1707</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>1680</v>
+        <v>1677</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="16.5">
@@ -8770,10 +8808,10 @@
         <v>814</v>
       </c>
       <c r="B24" s="25" t="s">
-        <v>1710</v>
+        <v>1707</v>
       </c>
       <c r="C24" s="14" t="s">
-        <v>1681</v>
+        <v>1678</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="16.5">
@@ -8781,21 +8819,21 @@
         <v>815</v>
       </c>
       <c r="B25" s="25" t="s">
-        <v>1710</v>
+        <v>1707</v>
       </c>
       <c r="C25" s="14" t="s">
-        <v>1682</v>
+        <v>1679</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="16.5">
       <c r="A26" s="13" t="s">
-        <v>1547</v>
+        <v>1544</v>
       </c>
       <c r="B26" s="25" t="s">
-        <v>1710</v>
+        <v>1707</v>
       </c>
       <c r="C26" s="14" t="s">
-        <v>1683</v>
+        <v>1680</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="16.5">
@@ -8803,10 +8841,10 @@
         <v>817</v>
       </c>
       <c r="B27" s="25" t="s">
-        <v>1710</v>
+        <v>1707</v>
       </c>
       <c r="C27" s="14" t="s">
-        <v>1684</v>
+        <v>1681</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="16.5">
@@ -8814,10 +8852,10 @@
         <v>818</v>
       </c>
       <c r="B28" s="25" t="s">
-        <v>1710</v>
+        <v>1707</v>
       </c>
       <c r="C28" s="14" t="s">
-        <v>1685</v>
+        <v>1682</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="16.5">
@@ -8825,10 +8863,10 @@
         <v>819</v>
       </c>
       <c r="B29" s="25" t="s">
-        <v>1712</v>
+        <v>1709</v>
       </c>
       <c r="C29" s="14" t="s">
-        <v>1686</v>
+        <v>1683</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="16.5">
@@ -8836,10 +8874,10 @@
         <v>820</v>
       </c>
       <c r="B30" s="25" t="s">
-        <v>1563</v>
+        <v>1560</v>
       </c>
       <c r="C30" s="14" t="s">
-        <v>1687</v>
+        <v>1684</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="16.5">
@@ -8847,10 +8885,10 @@
         <v>821</v>
       </c>
       <c r="B31" s="25" t="s">
-        <v>1564</v>
+        <v>1561</v>
       </c>
       <c r="C31" s="14" t="s">
-        <v>1688</v>
+        <v>1685</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="16.5">
@@ -8858,10 +8896,10 @@
         <v>822</v>
       </c>
       <c r="B32" s="25" t="s">
-        <v>1565</v>
+        <v>1562</v>
       </c>
       <c r="C32" s="14" t="s">
-        <v>1689</v>
+        <v>1686</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="16.5">
@@ -8869,10 +8907,10 @@
         <v>823</v>
       </c>
       <c r="B33" s="25" t="s">
-        <v>1566</v>
+        <v>1563</v>
       </c>
       <c r="C33" s="14" t="s">
-        <v>1690</v>
+        <v>1687</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="16.5">
@@ -8880,10 +8918,10 @@
         <v>824</v>
       </c>
       <c r="B34" s="25" t="s">
-        <v>1711</v>
+        <v>1708</v>
       </c>
       <c r="C34" s="14" t="s">
-        <v>1691</v>
+        <v>1688</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="16.5">
@@ -8891,10 +8929,10 @@
         <v>825</v>
       </c>
       <c r="B35" s="25" t="s">
-        <v>1751</v>
+        <v>1748</v>
       </c>
       <c r="C35" s="14" t="s">
-        <v>1692</v>
+        <v>1689</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="16.5">
@@ -8902,10 +8940,10 @@
         <v>826</v>
       </c>
       <c r="B36" s="25" t="s">
-        <v>1752</v>
+        <v>1749</v>
       </c>
       <c r="C36" s="14" t="s">
-        <v>1693</v>
+        <v>1690</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="16.5">
@@ -8913,448 +8951,448 @@
         <v>827</v>
       </c>
       <c r="B37" s="25" t="s">
-        <v>1754</v>
+        <v>1751</v>
       </c>
       <c r="C37" s="14" t="s">
-        <v>1694</v>
+        <v>1691</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="16.5">
       <c r="A38" s="13" t="s">
-        <v>1473</v>
+        <v>1470</v>
       </c>
       <c r="B38" s="25"/>
       <c r="C38" s="14" t="s">
-        <v>1368</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="16.5">
       <c r="A39" s="13" t="s">
-        <v>1474</v>
+        <v>1471</v>
       </c>
       <c r="B39" s="25" t="s">
-        <v>1829</v>
+        <v>1817</v>
       </c>
       <c r="C39" s="14" t="s">
-        <v>1695</v>
+        <v>1692</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="16.5">
       <c r="A40" s="13" t="s">
-        <v>1475</v>
+        <v>1472</v>
       </c>
       <c r="B40" s="25"/>
       <c r="C40" s="14" t="s">
-        <v>1377</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="16.5">
       <c r="A41" s="13" t="s">
-        <v>1476</v>
+        <v>1473</v>
       </c>
       <c r="B41" s="25" t="s">
-        <v>1755</v>
+        <v>1752</v>
       </c>
       <c r="C41" s="14" t="s">
-        <v>1696</v>
+        <v>1693</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="16.5">
       <c r="A42" s="13" t="s">
-        <v>1546</v>
+        <v>1543</v>
       </c>
       <c r="B42" s="25" t="s">
-        <v>1756</v>
+        <v>1753</v>
       </c>
       <c r="C42" s="14" t="s">
-        <v>1697</v>
+        <v>1694</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="16.5">
       <c r="A43" s="13" t="s">
-        <v>1477</v>
+        <v>1474</v>
       </c>
       <c r="B43" s="25" t="s">
-        <v>1757</v>
+        <v>1754</v>
       </c>
       <c r="C43" s="14" t="s">
-        <v>1698</v>
+        <v>1695</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="16.5">
       <c r="A44" s="13" t="s">
-        <v>1478</v>
+        <v>1475</v>
       </c>
       <c r="B44" s="25" t="s">
-        <v>1759</v>
+        <v>1756</v>
       </c>
       <c r="C44" s="14" t="s">
-        <v>1699</v>
+        <v>1696</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="16.5">
       <c r="A45" s="13" t="s">
-        <v>1479</v>
+        <v>1476</v>
       </c>
       <c r="B45" s="25" t="s">
-        <v>1828</v>
+        <v>1816</v>
       </c>
       <c r="C45" s="14" t="s">
-        <v>1700</v>
+        <v>1697</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="16.5">
       <c r="A46" s="13" t="s">
-        <v>1480</v>
+        <v>1477</v>
       </c>
       <c r="B46" s="25" t="s">
-        <v>1827</v>
+        <v>1815</v>
       </c>
       <c r="C46" s="14" t="s">
-        <v>1701</v>
+        <v>1698</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="16.5">
       <c r="A47" s="13" t="s">
-        <v>1481</v>
+        <v>1478</v>
       </c>
       <c r="B47" s="13" t="s">
-        <v>1702</v>
+        <v>1699</v>
       </c>
       <c r="C47" s="14" t="s">
-        <v>1373</v>
+        <v>1370</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="16.5">
       <c r="A48" s="13" t="s">
-        <v>1482</v>
+        <v>1479</v>
       </c>
       <c r="B48" s="25" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="C48" s="14" t="s">
-        <v>1372</v>
+        <v>1369</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="16.5">
       <c r="A49" s="13" t="s">
-        <v>1483</v>
+        <v>1480</v>
       </c>
       <c r="B49" s="25" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="C49" s="14" t="s">
-        <v>1374</v>
+        <v>1371</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="16.5">
       <c r="A50" s="13" t="s">
-        <v>1484</v>
+        <v>1481</v>
       </c>
       <c r="B50" s="25" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="C50" s="14" t="s">
-        <v>1375</v>
+        <v>1372</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="16.5">
       <c r="A51" s="13" t="s">
-        <v>1485</v>
+        <v>1482</v>
       </c>
       <c r="B51" s="25" t="s">
-        <v>1760</v>
+        <v>1757</v>
       </c>
       <c r="C51" s="14" t="s">
-        <v>1596</v>
+        <v>1593</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="16.5">
       <c r="A52" s="13" t="s">
-        <v>1486</v>
+        <v>1483</v>
       </c>
       <c r="B52" s="25" t="s">
-        <v>1763</v>
+        <v>1760</v>
       </c>
       <c r="C52" s="14" t="s">
-        <v>1369</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="53" spans="1:3" s="22" customFormat="1" ht="16.5">
       <c r="A53" s="13" t="s">
-        <v>1487</v>
+        <v>1484</v>
       </c>
       <c r="B53" s="25" t="s">
-        <v>1764</v>
+        <v>1761</v>
       </c>
       <c r="C53" s="21" t="s">
-        <v>1597</v>
+        <v>1594</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="16.5">
       <c r="A54" s="13" t="s">
-        <v>1488</v>
+        <v>1485</v>
       </c>
       <c r="B54" s="25" t="s">
-        <v>1762</v>
+        <v>1759</v>
       </c>
       <c r="C54" s="14" t="s">
-        <v>1598</v>
+        <v>1595</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="16.5">
       <c r="A55" s="13" t="s">
-        <v>1489</v>
+        <v>1486</v>
       </c>
       <c r="B55" s="25" t="s">
         <v>1031</v>
       </c>
       <c r="C55" s="14" t="s">
-        <v>1599</v>
+        <v>1596</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="16.5">
       <c r="A56" s="13" t="s">
-        <v>1567</v>
+        <v>1564</v>
       </c>
       <c r="B56" s="13"/>
       <c r="C56" s="14" t="s">
-        <v>1376</v>
+        <v>1373</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="16.5">
       <c r="A57" s="13" t="s">
-        <v>1611</v>
+        <v>1608</v>
       </c>
       <c r="B57" s="13"/>
       <c r="C57" s="14" t="s">
-        <v>1370</v>
+        <v>1367</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="16.5">
       <c r="A58" s="13" t="s">
-        <v>1612</v>
+        <v>1609</v>
       </c>
       <c r="B58" s="25" t="s">
-        <v>1758</v>
+        <v>1755</v>
       </c>
       <c r="C58" s="14" t="s">
-        <v>1600</v>
+        <v>1597</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="16.5">
       <c r="A59" s="13" t="s">
-        <v>1613</v>
+        <v>1610</v>
       </c>
       <c r="B59" s="25" t="s">
         <v>886</v>
       </c>
       <c r="C59" s="14" t="s">
-        <v>1371</v>
+        <v>1368</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="16.5">
       <c r="A60" s="13" t="s">
-        <v>1614</v>
+        <v>1611</v>
       </c>
       <c r="B60" s="25" t="s">
         <v>1035</v>
       </c>
       <c r="C60" s="14" t="s">
-        <v>1601</v>
+        <v>1598</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="16.5">
       <c r="A61" s="13" t="s">
-        <v>1615</v>
+        <v>1612</v>
       </c>
       <c r="C61" s="14" t="s">
-        <v>1602</v>
+        <v>1599</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="16.5">
       <c r="A62" s="13" t="s">
-        <v>1616</v>
+        <v>1613</v>
       </c>
       <c r="B62" s="25" t="s">
         <v>884</v>
       </c>
       <c r="C62" s="14" t="s">
-        <v>1603</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="16.5">
       <c r="A63" s="13" t="s">
-        <v>1617</v>
+        <v>1614</v>
       </c>
       <c r="C63" s="14" t="s">
-        <v>1604</v>
+        <v>1601</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="16.5">
       <c r="A64" s="13" t="s">
-        <v>1618</v>
+        <v>1615</v>
       </c>
       <c r="C64" s="14" t="s">
-        <v>1605</v>
+        <v>1602</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="16.5">
       <c r="A65" s="13" t="s">
-        <v>1619</v>
+        <v>1616</v>
       </c>
       <c r="B65" s="25" t="s">
-        <v>1713</v>
+        <v>1710</v>
       </c>
       <c r="C65" s="14" t="s">
-        <v>1606</v>
+        <v>1603</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="16.5">
       <c r="A66" s="13" t="s">
-        <v>1620</v>
+        <v>1617</v>
       </c>
       <c r="B66" s="25" t="s">
         <v>887</v>
       </c>
       <c r="C66" s="14" t="s">
-        <v>1607</v>
+        <v>1604</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="16.5">
       <c r="A67" s="13" t="s">
-        <v>1621</v>
+        <v>1618</v>
       </c>
       <c r="B67" s="25" t="s">
-        <v>1761</v>
+        <v>1758</v>
       </c>
       <c r="C67" s="14" t="s">
-        <v>1608</v>
+        <v>1605</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="16.5">
       <c r="A68" s="13" t="s">
-        <v>1622</v>
+        <v>1619</v>
       </c>
       <c r="B68" s="13"/>
       <c r="C68" s="14" t="s">
-        <v>1609</v>
+        <v>1606</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="16.5">
       <c r="A69" s="13" t="s">
-        <v>1623</v>
+        <v>1620</v>
       </c>
       <c r="B69" s="13"/>
       <c r="C69" s="14" t="s">
-        <v>1610</v>
+        <v>1607</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="16.5">
       <c r="A70" s="13" t="s">
-        <v>1490</v>
+        <v>1487</v>
       </c>
       <c r="B70" s="25" t="s">
-        <v>1750</v>
+        <v>1747</v>
       </c>
       <c r="C70" s="14" t="s">
-        <v>1883</v>
+        <v>1867</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="16.5">
       <c r="A71" s="13" t="s">
-        <v>1491</v>
+        <v>1488</v>
       </c>
       <c r="B71" s="25" t="s">
-        <v>1859</v>
+        <v>1843</v>
       </c>
       <c r="C71" s="14" t="s">
-        <v>1884</v>
+        <v>1868</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="16.5">
       <c r="A72" s="13" t="s">
-        <v>1492</v>
+        <v>1489</v>
       </c>
       <c r="B72" s="13" t="s">
-        <v>1551</v>
+        <v>1548</v>
       </c>
       <c r="C72" s="14" t="s">
-        <v>1493</v>
+        <v>1490</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="16.5">
       <c r="A73" s="13" t="s">
-        <v>1494</v>
+        <v>1491</v>
       </c>
       <c r="B73" s="13" t="s">
-        <v>1495</v>
+        <v>1492</v>
       </c>
       <c r="C73" s="13" t="s">
-        <v>1496</v>
+        <v>1493</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="16.5">
       <c r="A74" s="13" t="s">
-        <v>1497</v>
+        <v>1494</v>
       </c>
       <c r="B74" s="13" t="s">
-        <v>1846</v>
+        <v>1834</v>
       </c>
       <c r="C74" s="14" t="s">
-        <v>1498</v>
+        <v>1495</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="16.5">
       <c r="A75" s="13" t="s">
-        <v>1499</v>
+        <v>1496</v>
       </c>
       <c r="B75" s="13" t="s">
-        <v>1847</v>
+        <v>1835</v>
       </c>
       <c r="C75" s="14" t="s">
-        <v>1500</v>
+        <v>1497</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="16.5">
       <c r="A76" s="13" t="s">
-        <v>1501</v>
+        <v>1498</v>
       </c>
       <c r="B76" s="13" t="s">
-        <v>1502</v>
+        <v>1499</v>
       </c>
       <c r="C76" s="14" t="s">
-        <v>1503</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="16.5">
       <c r="A77" s="13" t="s">
-        <v>1504</v>
+        <v>1501</v>
       </c>
       <c r="B77" s="13" t="s">
-        <v>1505</v>
+        <v>1502</v>
       </c>
       <c r="C77" s="14" t="s">
-        <v>1506</v>
+        <v>1503</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="16.5">
       <c r="A78" s="23" t="s">
-        <v>1507</v>
+        <v>1504</v>
       </c>
       <c r="B78" s="23" t="s">
         <v>994</v>
       </c>
       <c r="C78" s="24" t="s">
-        <v>1508</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="16.5">
       <c r="A79" s="23" t="s">
-        <v>1509</v>
+        <v>1506</v>
       </c>
       <c r="B79" s="24" t="s">
-        <v>1454</v>
+        <v>1451</v>
       </c>
       <c r="C79" s="24" t="s">
         <v>1113</v>
@@ -9362,57 +9400,57 @@
     </row>
     <row r="80" spans="1:3" ht="16.5">
       <c r="A80" s="23" t="s">
-        <v>1510</v>
+        <v>1507</v>
       </c>
       <c r="B80" s="24" t="s">
-        <v>1511</v>
+        <v>1508</v>
       </c>
       <c r="C80" s="24" t="s">
-        <v>1512</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="16.5">
       <c r="A81" s="23" t="s">
-        <v>1513</v>
+        <v>1510</v>
       </c>
       <c r="B81" s="24" t="s">
-        <v>1514</v>
+        <v>1511</v>
       </c>
       <c r="C81" s="24" t="s">
-        <v>1515</v>
+        <v>1512</v>
       </c>
     </row>
     <row r="82" spans="1:3" s="26" customFormat="1" ht="16.5">
       <c r="A82" s="13" t="s">
-        <v>1516</v>
+        <v>1513</v>
       </c>
       <c r="B82" s="13" t="s">
-        <v>1656</v>
+        <v>1653</v>
       </c>
       <c r="C82" s="14" t="s">
-        <v>1517</v>
+        <v>1514</v>
       </c>
     </row>
     <row r="83" spans="1:3" s="26" customFormat="1" ht="16.5">
       <c r="A83" s="13" t="s">
-        <v>1518</v>
+        <v>1515</v>
       </c>
       <c r="B83" s="13" t="s">
         <v>1127</v>
       </c>
       <c r="C83" s="14" t="s">
-        <v>1519</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="84" spans="1:3" s="26" customFormat="1" ht="16.5">
       <c r="A84" s="13" t="s">
-        <v>1520</v>
+        <v>1517</v>
       </c>
       <c r="B84" s="13" t="s">
-        <v>1848</v>
+        <v>1836</v>
       </c>
       <c r="C84" s="14" t="s">
-        <v>1521</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="85" spans="1:3" s="26" customFormat="1" ht="16.5">
@@ -9423,447 +9461,447 @@
         <v>1052</v>
       </c>
       <c r="C85" s="14" t="s">
-        <v>1522</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="86" spans="1:3" s="26" customFormat="1" ht="16.5">
       <c r="A86" s="14" t="s">
-        <v>1523</v>
+        <v>1520</v>
       </c>
       <c r="B86" s="14" t="s">
-        <v>1524</v>
+        <v>1521</v>
       </c>
       <c r="C86" s="14" t="s">
-        <v>1525</v>
+        <v>1522</v>
       </c>
     </row>
     <row r="87" spans="1:3" s="26" customFormat="1" ht="16.5">
       <c r="A87" s="14" t="s">
-        <v>1526</v>
+        <v>1523</v>
       </c>
       <c r="B87" s="13" t="s">
-        <v>1527</v>
+        <v>1524</v>
       </c>
       <c r="C87" s="14" t="s">
-        <v>1528</v>
+        <v>1525</v>
       </c>
     </row>
     <row r="88" spans="1:3" s="26" customFormat="1" ht="16.5">
       <c r="A88" s="14" t="s">
-        <v>1529</v>
+        <v>1526</v>
       </c>
       <c r="B88" s="13" t="s">
-        <v>1530</v>
+        <v>1527</v>
       </c>
       <c r="C88" s="14" t="s">
-        <v>1531</v>
+        <v>1528</v>
       </c>
     </row>
     <row r="89" spans="1:3" s="26" customFormat="1" ht="16.5">
       <c r="A89" s="13" t="s">
-        <v>1532</v>
+        <v>1529</v>
       </c>
       <c r="B89" s="14" t="s">
-        <v>1552</v>
+        <v>1549</v>
       </c>
       <c r="C89" s="13" t="s">
-        <v>1533</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="90" spans="1:3" s="26" customFormat="1" ht="16.5">
       <c r="A90" s="13" t="s">
-        <v>1534</v>
+        <v>1531</v>
       </c>
       <c r="B90" s="14" t="s">
-        <v>1553</v>
+        <v>1550</v>
       </c>
       <c r="C90" s="13" t="s">
-        <v>1535</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="91" spans="1:3" s="26" customFormat="1" ht="16.5">
       <c r="A91" s="13" t="s">
-        <v>1536</v>
+        <v>1533</v>
       </c>
       <c r="B91" s="26" t="s">
-        <v>1554</v>
+        <v>1551</v>
       </c>
       <c r="C91" s="14" t="s">
-        <v>1537</v>
+        <v>1534</v>
       </c>
     </row>
     <row r="92" spans="1:3" s="26" customFormat="1" ht="16.5">
       <c r="A92" s="13" t="s">
-        <v>1538</v>
+        <v>1535</v>
       </c>
       <c r="B92" s="14" t="s">
-        <v>1539</v>
+        <v>1536</v>
       </c>
       <c r="C92" s="13" t="s">
-        <v>1540</v>
+        <v>1537</v>
       </c>
     </row>
     <row r="93" spans="1:3" s="26" customFormat="1" ht="16.5">
       <c r="A93" s="13" t="s">
-        <v>1541</v>
+        <v>1538</v>
       </c>
       <c r="B93" s="14" t="s">
-        <v>1542</v>
+        <v>1539</v>
       </c>
       <c r="C93" s="13" t="s">
-        <v>1543</v>
+        <v>1540</v>
       </c>
     </row>
     <row r="94" spans="1:3" s="26" customFormat="1" ht="16.5">
       <c r="A94" s="13" t="s">
-        <v>1626</v>
+        <v>1623</v>
       </c>
       <c r="B94" s="14" t="s">
         <v>772</v>
       </c>
       <c r="C94" s="13" t="s">
-        <v>1544</v>
+        <v>1541</v>
       </c>
     </row>
     <row r="95" spans="1:3" s="26" customFormat="1" ht="16.5">
       <c r="A95" s="13" t="s">
-        <v>1637</v>
+        <v>1634</v>
       </c>
       <c r="B95" s="14" t="s">
-        <v>1714</v>
+        <v>1711</v>
       </c>
       <c r="C95" s="13" t="s">
-        <v>1632</v>
+        <v>1629</v>
       </c>
     </row>
     <row r="96" spans="1:3" s="26" customFormat="1" ht="16.5">
       <c r="A96" s="13" t="s">
-        <v>1649</v>
+        <v>1646</v>
       </c>
       <c r="B96" s="14" t="s">
-        <v>1714</v>
+        <v>1711</v>
       </c>
       <c r="C96" s="13" t="s">
-        <v>1650</v>
+        <v>1647</v>
       </c>
     </row>
     <row r="97" spans="1:4" s="26" customFormat="1" ht="16.5">
       <c r="A97" s="13" t="s">
-        <v>1638</v>
+        <v>1635</v>
       </c>
       <c r="B97" s="14" t="s">
-        <v>1657</v>
+        <v>1654</v>
       </c>
       <c r="C97" s="13" t="s">
-        <v>1631</v>
+        <v>1628</v>
       </c>
     </row>
     <row r="98" spans="1:4" s="26" customFormat="1" ht="16.5">
       <c r="A98" s="13" t="s">
-        <v>1640</v>
+        <v>1637</v>
       </c>
       <c r="B98" s="14" t="s">
-        <v>1658</v>
+        <v>1655</v>
       </c>
       <c r="C98" s="13" t="s">
-        <v>1642</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="99" spans="1:4" s="26" customFormat="1" ht="16.5">
       <c r="A99" s="13" t="s">
-        <v>1641</v>
+        <v>1638</v>
       </c>
       <c r="B99" s="14" t="s">
-        <v>1659</v>
+        <v>1656</v>
       </c>
       <c r="C99" s="13" t="s">
-        <v>1653</v>
+        <v>1650</v>
       </c>
     </row>
     <row r="100" spans="1:4" s="26" customFormat="1" ht="16.5">
       <c r="A100" s="13" t="s">
-        <v>1639</v>
+        <v>1636</v>
       </c>
       <c r="B100" s="14" t="s">
-        <v>1660</v>
+        <v>1657</v>
       </c>
       <c r="C100" s="13" t="s">
-        <v>1643</v>
+        <v>1640</v>
       </c>
     </row>
     <row r="101" spans="1:4" s="26" customFormat="1" ht="16.5">
       <c r="A101" s="13" t="s">
-        <v>1644</v>
+        <v>1641</v>
       </c>
       <c r="B101" s="14" t="s">
-        <v>1661</v>
+        <v>1658</v>
       </c>
       <c r="C101" s="13" t="s">
-        <v>1645</v>
+        <v>1642</v>
       </c>
     </row>
     <row r="102" spans="1:4" s="26" customFormat="1" ht="16.5">
       <c r="A102" s="13" t="s">
-        <v>1646</v>
+        <v>1643</v>
       </c>
       <c r="B102" s="14" t="s">
-        <v>1714</v>
+        <v>1711</v>
       </c>
       <c r="C102" s="13" t="s">
-        <v>1648</v>
+        <v>1645</v>
       </c>
     </row>
     <row r="103" spans="1:4" s="26" customFormat="1" ht="16.5">
       <c r="A103" s="13" t="s">
-        <v>1647</v>
+        <v>1644</v>
       </c>
       <c r="B103" s="14" t="s">
-        <v>1662</v>
+        <v>1659</v>
       </c>
       <c r="C103" s="13" t="s">
-        <v>1663</v>
+        <v>1660</v>
       </c>
     </row>
     <row r="104" spans="1:4" s="26" customFormat="1" ht="16.5">
       <c r="A104" s="13" t="s">
-        <v>1651</v>
+        <v>1648</v>
       </c>
       <c r="B104" s="14" t="s">
-        <v>1664</v>
+        <v>1661</v>
       </c>
       <c r="C104" s="13" t="s">
-        <v>1652</v>
+        <v>1649</v>
       </c>
     </row>
     <row r="105" spans="1:4" s="26" customFormat="1" ht="16.5">
       <c r="A105" s="13" t="s">
-        <v>1654</v>
+        <v>1651</v>
       </c>
       <c r="B105" s="14" t="s">
         <v>994</v>
       </c>
       <c r="C105" s="13" t="s">
-        <v>1655</v>
+        <v>1652</v>
       </c>
     </row>
     <row r="106" spans="1:4" s="26" customFormat="1" ht="16.5">
       <c r="A106" s="13" t="s">
-        <v>1627</v>
+        <v>1624</v>
       </c>
       <c r="B106" s="14" t="s">
-        <v>1629</v>
+        <v>1626</v>
       </c>
       <c r="C106" s="13" t="s">
-        <v>1635</v>
+        <v>1632</v>
       </c>
     </row>
     <row r="107" spans="1:4" s="26" customFormat="1" ht="16.5">
       <c r="A107" s="13" t="s">
-        <v>1628</v>
+        <v>1625</v>
       </c>
       <c r="B107" s="14" t="s">
-        <v>1630</v>
+        <v>1627</v>
       </c>
       <c r="C107" s="13" t="s">
-        <v>1636</v>
+        <v>1633</v>
       </c>
     </row>
     <row r="108" spans="1:4" s="26" customFormat="1" ht="16.5">
       <c r="A108" s="13" t="s">
-        <v>1705</v>
+        <v>1702</v>
       </c>
       <c r="B108" s="14" t="s">
-        <v>1704</v>
+        <v>1701</v>
       </c>
       <c r="C108" s="13" t="s">
-        <v>1633</v>
+        <v>1630</v>
       </c>
     </row>
     <row r="109" spans="1:4" s="26" customFormat="1" ht="16.5">
       <c r="A109" s="13" t="s">
-        <v>1706</v>
+        <v>1703</v>
       </c>
       <c r="B109" s="14" t="s">
-        <v>1703</v>
+        <v>1700</v>
       </c>
       <c r="C109" s="13" t="s">
-        <v>1634</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="110" spans="1:4" s="26" customFormat="1" ht="16.5">
       <c r="A110" s="13" t="s">
-        <v>1674</v>
+        <v>1671</v>
       </c>
       <c r="B110" s="14" t="s">
-        <v>1676</v>
+        <v>1673</v>
       </c>
       <c r="C110" s="13" t="s">
-        <v>1675</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="111" spans="1:4" s="26" customFormat="1" ht="16.5">
       <c r="A111" s="17" t="s">
-        <v>1715</v>
+        <v>1712</v>
       </c>
       <c r="B111" s="18" t="s">
-        <v>1830</v>
+        <v>1818</v>
       </c>
       <c r="C111" s="17" t="s">
-        <v>1733</v>
+        <v>1730</v>
       </c>
     </row>
     <row r="112" spans="1:4" ht="16.5">
       <c r="A112" s="17" t="s">
-        <v>1716</v>
+        <v>1713</v>
       </c>
       <c r="B112" s="18" t="s">
-        <v>1739</v>
+        <v>1736</v>
       </c>
       <c r="C112" s="17" t="s">
-        <v>1734</v>
+        <v>1731</v>
       </c>
       <c r="D112" s="26"/>
     </row>
     <row r="113" spans="1:4" ht="16.5">
       <c r="A113" s="17" t="s">
-        <v>1717</v>
+        <v>1714</v>
       </c>
       <c r="B113" s="18" t="s">
-        <v>1740</v>
+        <v>1737</v>
       </c>
       <c r="C113" s="17" t="s">
-        <v>1735</v>
+        <v>1732</v>
       </c>
       <c r="D113" s="26"/>
     </row>
     <row r="114" spans="1:4" ht="16.5">
       <c r="A114" s="17" t="s">
-        <v>1718</v>
+        <v>1715</v>
       </c>
       <c r="B114" s="18" t="s">
-        <v>1741</v>
+        <v>1738</v>
       </c>
       <c r="C114" s="17" t="s">
-        <v>1736</v>
+        <v>1733</v>
       </c>
       <c r="D114" s="26"/>
     </row>
     <row r="115" spans="1:4" ht="16.5">
       <c r="A115" s="17" t="s">
-        <v>1719</v>
+        <v>1716</v>
       </c>
       <c r="B115" s="18" t="s">
-        <v>1742</v>
+        <v>1739</v>
       </c>
       <c r="C115" s="17" t="s">
-        <v>1737</v>
+        <v>1734</v>
       </c>
       <c r="D115" s="26"/>
     </row>
     <row r="116" spans="1:4" ht="16.5">
       <c r="A116" s="17" t="s">
-        <v>1720</v>
+        <v>1717</v>
       </c>
       <c r="B116" s="18" t="s">
-        <v>1743</v>
+        <v>1740</v>
       </c>
       <c r="C116" s="17" t="s">
-        <v>1738</v>
+        <v>1735</v>
       </c>
       <c r="D116" s="26"/>
     </row>
     <row r="117" spans="1:4" ht="16.5">
       <c r="A117" s="17" t="s">
-        <v>1721</v>
+        <v>1718</v>
       </c>
       <c r="B117" s="18" t="s">
-        <v>1744</v>
+        <v>1741</v>
       </c>
       <c r="C117" s="17" t="s">
-        <v>1727</v>
+        <v>1724</v>
       </c>
       <c r="D117" s="26"/>
     </row>
     <row r="118" spans="1:4" ht="16.5">
       <c r="A118" s="17" t="s">
-        <v>1722</v>
+        <v>1719</v>
       </c>
       <c r="B118" s="18" t="s">
-        <v>1745</v>
+        <v>1742</v>
       </c>
       <c r="C118" s="17" t="s">
-        <v>1728</v>
+        <v>1725</v>
       </c>
       <c r="D118" s="26"/>
     </row>
     <row r="119" spans="1:4" ht="16.5">
       <c r="A119" s="17" t="s">
-        <v>1723</v>
+        <v>1720</v>
       </c>
       <c r="B119" s="18" t="s">
-        <v>1746</v>
+        <v>1743</v>
       </c>
       <c r="C119" s="17" t="s">
-        <v>1729</v>
+        <v>1726</v>
       </c>
       <c r="D119" s="26"/>
     </row>
     <row r="120" spans="1:4" ht="16.5">
       <c r="A120" s="17" t="s">
-        <v>1724</v>
+        <v>1721</v>
       </c>
       <c r="B120" s="18" t="s">
-        <v>1747</v>
+        <v>1744</v>
       </c>
       <c r="C120" s="17" t="s">
-        <v>1730</v>
+        <v>1727</v>
       </c>
       <c r="D120" s="26"/>
     </row>
     <row r="121" spans="1:4" ht="16.5">
       <c r="A121" s="17" t="s">
-        <v>1725</v>
+        <v>1722</v>
       </c>
       <c r="B121" s="18" t="s">
-        <v>1748</v>
+        <v>1745</v>
       </c>
       <c r="C121" s="17" t="s">
-        <v>1731</v>
+        <v>1728</v>
       </c>
       <c r="D121" s="26"/>
     </row>
     <row r="122" spans="1:4" ht="16.5">
       <c r="A122" s="17" t="s">
-        <v>1726</v>
+        <v>1723</v>
       </c>
       <c r="B122" s="18" t="s">
-        <v>1749</v>
+        <v>1746</v>
       </c>
       <c r="C122" s="17" t="s">
-        <v>1732</v>
+        <v>1729</v>
       </c>
       <c r="D122" s="26"/>
     </row>
     <row r="123" spans="1:4" ht="16.5">
       <c r="A123" s="13" t="s">
-        <v>1881</v>
+        <v>1865</v>
       </c>
       <c r="B123" s="13" t="s">
-        <v>1862</v>
+        <v>1846</v>
       </c>
       <c r="C123" s="14" t="s">
-        <v>1860</v>
+        <v>1844</v>
       </c>
     </row>
     <row r="124" spans="1:4" ht="16.5">
       <c r="A124" s="13" t="s">
-        <v>1882</v>
+        <v>1866</v>
       </c>
       <c r="B124" s="13" t="s">
+        <v>1833</v>
+      </c>
+      <c r="C124" s="14" t="s">
         <v>1845</v>
-      </c>
-      <c r="C124" s="14" t="s">
-        <v>1861</v>
       </c>
     </row>
   </sheetData>
@@ -9901,255 +9939,255 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>1378</v>
+        <v>1375</v>
       </c>
       <c r="B2" t="s">
-        <v>1562</v>
+        <v>1559</v>
       </c>
       <c r="C2" t="s">
-        <v>1379</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>1380</v>
+        <v>1377</v>
       </c>
       <c r="B3" t="s">
-        <v>1381</v>
+        <v>1378</v>
       </c>
       <c r="C3" t="s">
-        <v>1382</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>1383</v>
+        <v>1380</v>
       </c>
       <c r="B4" t="s">
-        <v>1555</v>
+        <v>1552</v>
       </c>
       <c r="C4" t="s">
-        <v>1384</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>1385</v>
+        <v>1382</v>
       </c>
       <c r="B5" t="s">
-        <v>1556</v>
+        <v>1553</v>
       </c>
       <c r="C5" t="s">
-        <v>1386</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>1387</v>
+        <v>1384</v>
       </c>
       <c r="B6" t="s">
-        <v>1388</v>
+        <v>1385</v>
       </c>
       <c r="C6" t="s">
-        <v>1389</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>1390</v>
+        <v>1387</v>
       </c>
       <c r="B7" t="s">
-        <v>1391</v>
+        <v>1388</v>
       </c>
       <c r="C7" t="s">
-        <v>1392</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>1393</v>
+        <v>1390</v>
       </c>
       <c r="B8" t="s">
-        <v>1394</v>
+        <v>1391</v>
       </c>
       <c r="C8" t="s">
-        <v>1395</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>1396</v>
+        <v>1393</v>
       </c>
       <c r="B9" t="s">
-        <v>1397</v>
+        <v>1394</v>
       </c>
       <c r="C9" t="s">
-        <v>1398</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>1399</v>
+        <v>1396</v>
       </c>
       <c r="B10" t="s">
-        <v>1400</v>
+        <v>1397</v>
       </c>
       <c r="C10" t="s">
-        <v>1401</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>1402</v>
+        <v>1399</v>
       </c>
       <c r="B11" t="s">
-        <v>1403</v>
+        <v>1400</v>
       </c>
       <c r="C11" t="s">
-        <v>1404</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>1405</v>
+        <v>1402</v>
       </c>
       <c r="B12" t="s">
-        <v>1854</v>
+        <v>1841</v>
       </c>
       <c r="C12" t="s">
-        <v>1406</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>1407</v>
+        <v>1404</v>
       </c>
       <c r="B13" t="s">
-        <v>1557</v>
+        <v>1554</v>
       </c>
       <c r="C13" t="s">
-        <v>1408</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>1409</v>
+        <v>1406</v>
       </c>
       <c r="B14" t="s">
-        <v>1558</v>
+        <v>1555</v>
       </c>
       <c r="C14" t="s">
-        <v>1410</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>1411</v>
+        <v>1408</v>
       </c>
       <c r="B15" t="s">
-        <v>1412</v>
+        <v>1409</v>
       </c>
       <c r="C15" t="s">
-        <v>1413</v>
+        <v>1410</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>1414</v>
+        <v>1411</v>
       </c>
       <c r="B16" t="s">
-        <v>1415</v>
+        <v>1412</v>
       </c>
       <c r="C16" t="s">
-        <v>1416</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>1417</v>
+        <v>1414</v>
       </c>
       <c r="B17" t="s">
-        <v>1418</v>
+        <v>1415</v>
       </c>
       <c r="C17" t="s">
-        <v>1419</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>1420</v>
+        <v>1417</v>
       </c>
       <c r="B18" t="s">
-        <v>1421</v>
+        <v>1418</v>
       </c>
       <c r="C18" t="s">
-        <v>1422</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>1423</v>
+        <v>1420</v>
       </c>
       <c r="B19" t="s">
-        <v>1424</v>
+        <v>1421</v>
       </c>
       <c r="C19" t="s">
-        <v>1425</v>
+        <v>1422</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>1426</v>
+        <v>1423</v>
       </c>
       <c r="B20" t="s">
-        <v>1559</v>
+        <v>1556</v>
       </c>
       <c r="C20" t="s">
-        <v>1427</v>
+        <v>1424</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>1428</v>
+        <v>1425</v>
       </c>
       <c r="B21" t="s">
-        <v>1853</v>
+        <v>1840</v>
       </c>
       <c r="C21" t="s">
-        <v>1429</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>1430</v>
+        <v>1427</v>
       </c>
       <c r="B22" t="s">
-        <v>1431</v>
+        <v>1428</v>
       </c>
       <c r="C22" t="s">
-        <v>1432</v>
+        <v>1429</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>1433</v>
+        <v>1430</v>
       </c>
       <c r="B23" t="s">
-        <v>1560</v>
+        <v>1557</v>
       </c>
       <c r="C23" t="s">
-        <v>1434</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>1435</v>
+        <v>1432</v>
       </c>
       <c r="B24" t="s">
-        <v>1561</v>
+        <v>1558</v>
       </c>
       <c r="C24" t="s">
-        <v>1436</v>
+        <v>1433</v>
       </c>
     </row>
   </sheetData>
@@ -10183,91 +10221,91 @@
         <v>1266</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>1568</v>
+        <v>1565</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>1569</v>
+        <v>1566</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>1583</v>
+        <v>1580</v>
       </c>
       <c r="B2" t="s">
-        <v>1582</v>
+        <v>1579</v>
       </c>
       <c r="C2" t="s">
-        <v>1572</v>
+        <v>1569</v>
       </c>
       <c r="D2" t="s">
-        <v>1573</v>
+        <v>1570</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>1584</v>
+        <v>1581</v>
       </c>
       <c r="B3" t="s">
-        <v>1590</v>
+        <v>1587</v>
       </c>
       <c r="C3" t="s">
-        <v>1574</v>
+        <v>1571</v>
       </c>
       <c r="D3" t="s">
-        <v>1575</v>
+        <v>1572</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>1585</v>
+        <v>1582</v>
       </c>
       <c r="B4" t="s">
-        <v>1591</v>
+        <v>1588</v>
       </c>
       <c r="C4" t="s">
-        <v>1576</v>
+        <v>1573</v>
       </c>
       <c r="D4" t="s">
-        <v>1577</v>
+        <v>1574</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>1586</v>
+        <v>1583</v>
       </c>
       <c r="B5" t="s">
-        <v>1592</v>
+        <v>1589</v>
       </c>
       <c r="C5" t="s">
-        <v>1578</v>
+        <v>1575</v>
       </c>
       <c r="D5" t="s">
-        <v>1579</v>
+        <v>1576</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>1587</v>
+        <v>1584</v>
       </c>
       <c r="B6" t="s">
-        <v>1593</v>
+        <v>1590</v>
       </c>
       <c r="C6" t="s">
-        <v>1571</v>
+        <v>1568</v>
       </c>
       <c r="D6" t="s">
-        <v>1570</v>
+        <v>1567</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>1588</v>
+        <v>1585</v>
       </c>
       <c r="B7" t="s">
-        <v>1594</v>
+        <v>1591</v>
       </c>
       <c r="C7" t="s">
-        <v>1580</v>
+        <v>1577</v>
       </c>
       <c r="D7" t="s">
         <v>718</v>
@@ -10275,13 +10313,13 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>1589</v>
+        <v>1586</v>
       </c>
       <c r="B8" t="s">
-        <v>1595</v>
+        <v>1592</v>
       </c>
       <c r="C8" t="s">
-        <v>1581</v>
+        <v>1578</v>
       </c>
       <c r="D8" t="s">
         <v>772</v>
@@ -10296,10 +10334,10 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C37"/>
+  <dimension ref="A1:C40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -10322,10 +10360,10 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="4" t="s">
-        <v>1765</v>
+        <v>1762</v>
       </c>
       <c r="B2" t="s">
-        <v>1766</v>
+        <v>1869</v>
       </c>
       <c r="C2" t="s">
         <v>746</v>
@@ -10333,387 +10371,420 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="4" t="s">
-        <v>1834</v>
+        <v>1822</v>
       </c>
       <c r="B3" t="s">
-        <v>1835</v>
+        <v>1823</v>
       </c>
       <c r="C3" t="s">
-        <v>1767</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>1768</v>
+        <v>1764</v>
       </c>
       <c r="B4" t="s">
-        <v>1833</v>
+        <v>1821</v>
       </c>
       <c r="C4" t="s">
-        <v>1872</v>
+        <v>1856</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>1769</v>
+        <v>1765</v>
       </c>
       <c r="B5" t="s">
-        <v>1770</v>
+        <v>1766</v>
       </c>
       <c r="C5" t="s">
-        <v>1873</v>
+        <v>1857</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>1771</v>
+        <v>1767</v>
       </c>
       <c r="B6" t="s">
-        <v>1770</v>
+        <v>1766</v>
       </c>
       <c r="C6" t="s">
-        <v>1874</v>
+        <v>1858</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>1772</v>
+        <v>1768</v>
       </c>
       <c r="B7" t="s">
-        <v>1770</v>
+        <v>1766</v>
       </c>
       <c r="C7" t="s">
-        <v>1332</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>1773</v>
+        <v>1769</v>
       </c>
       <c r="B8" t="s">
-        <v>1770</v>
+        <v>1766</v>
       </c>
       <c r="C8" t="s">
-        <v>1875</v>
+        <v>1859</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>1774</v>
+        <v>1770</v>
       </c>
       <c r="B9" t="s">
-        <v>1770</v>
+        <v>1766</v>
       </c>
       <c r="C9" t="s">
-        <v>1876</v>
+        <v>1860</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>1775</v>
+        <v>1771</v>
       </c>
       <c r="B10" t="s">
-        <v>1770</v>
+        <v>1766</v>
       </c>
       <c r="C10" t="s">
-        <v>1335</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="4" t="s">
-        <v>1776</v>
+        <v>1772</v>
       </c>
       <c r="B11" t="s">
-        <v>1777</v>
+        <v>1773</v>
       </c>
       <c r="C11" t="s">
-        <v>1877</v>
+        <v>1861</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="4" t="s">
-        <v>1778</v>
+        <v>1774</v>
       </c>
       <c r="B12" t="s">
-        <v>1779</v>
+        <v>1775</v>
       </c>
       <c r="C12" t="s">
-        <v>1780</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="4" t="s">
-        <v>1781</v>
+        <v>1777</v>
       </c>
       <c r="B13" t="s">
-        <v>1782</v>
+        <v>1881</v>
       </c>
       <c r="C13" t="s">
-        <v>1783</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="4" t="s">
-        <v>1784</v>
+        <v>1779</v>
       </c>
       <c r="B14" t="s">
-        <v>1785</v>
+        <v>1780</v>
       </c>
       <c r="C14" t="s">
-        <v>1786</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="4" t="s">
-        <v>1787</v>
+        <v>1782</v>
       </c>
       <c r="B15" t="s">
-        <v>1788</v>
+        <v>1882</v>
       </c>
       <c r="C15" t="s">
-        <v>1789</v>
+        <v>1783</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="4" t="s">
-        <v>1790</v>
+        <v>1784</v>
       </c>
       <c r="B16" t="s">
-        <v>1791</v>
+        <v>1785</v>
       </c>
       <c r="C16" t="s">
-        <v>1792</v>
+        <v>1786</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="4" t="s">
-        <v>1793</v>
+        <v>1787</v>
       </c>
       <c r="B17" t="s">
-        <v>1794</v>
+        <v>1788</v>
       </c>
       <c r="C17" t="s">
-        <v>1795</v>
+        <v>1789</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="4" t="s">
-        <v>1796</v>
+        <v>1790</v>
       </c>
       <c r="B18" t="s">
-        <v>1797</v>
+        <v>1883</v>
       </c>
       <c r="C18" t="s">
-        <v>1798</v>
+        <v>1791</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="4" t="s">
-        <v>1838</v>
+        <v>1826</v>
       </c>
       <c r="B19" t="s">
-        <v>1839</v>
+        <v>1827</v>
       </c>
       <c r="C19" s="28" t="s">
-        <v>1799</v>
+        <v>1792</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="4" t="s">
-        <v>1837</v>
+        <v>1825</v>
       </c>
       <c r="B20" t="s">
-        <v>1840</v>
+        <v>1828</v>
       </c>
       <c r="C20" s="29" t="s">
-        <v>1836</v>
+        <v>1824</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="4" t="s">
-        <v>1800</v>
+        <v>1793</v>
       </c>
       <c r="B21" t="s">
         <v>1146</v>
       </c>
       <c r="C21" s="29" t="s">
-        <v>1801</v>
+        <v>1794</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="4" t="s">
-        <v>1802</v>
+        <v>1888</v>
       </c>
       <c r="B22" t="s">
         <v>1146</v>
       </c>
       <c r="C22" s="29" t="s">
-        <v>1803</v>
+        <v>1877</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="4" t="s">
-        <v>1852</v>
+        <v>1880</v>
       </c>
       <c r="B23" t="s">
-        <v>1851</v>
+        <v>1839</v>
       </c>
       <c r="C23" s="29" t="s">
-        <v>1804</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="4" t="s">
-        <v>1855</v>
+        <v>1870</v>
       </c>
       <c r="B24" t="s">
-        <v>1856</v>
+        <v>1871</v>
       </c>
       <c r="C24" s="29" t="s">
-        <v>1805</v>
+        <v>1878</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="4" t="s">
-        <v>1858</v>
+        <v>1842</v>
       </c>
       <c r="B25" t="s">
-        <v>1857</v>
+        <v>1885</v>
       </c>
       <c r="C25" s="29" t="s">
-        <v>1806</v>
+        <v>1879</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="4" t="s">
-        <v>1807</v>
+        <v>1796</v>
       </c>
       <c r="B26" t="s">
         <v>1146</v>
       </c>
       <c r="C26" s="29" t="s">
-        <v>1808</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="4" t="s">
-        <v>1809</v>
-      </c>
-      <c r="B27" t="s">
-        <v>1810</v>
-      </c>
-      <c r="C27" s="29" t="s">
-        <v>1811</v>
+      <c r="A27" s="32" t="s">
+        <v>1798</v>
+      </c>
+      <c r="B27" s="33" t="s">
+        <v>1884</v>
+      </c>
+      <c r="C27" s="33" t="s">
+        <v>1799</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>1812</v>
+        <v>1800</v>
       </c>
       <c r="B28" t="s">
-        <v>1813</v>
+        <v>1801</v>
       </c>
       <c r="C28" s="29" t="s">
-        <v>1814</v>
+        <v>1802</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>1815</v>
+        <v>1803</v>
       </c>
       <c r="B29" t="s">
-        <v>1816</v>
+        <v>1804</v>
       </c>
       <c r="C29" s="29" t="s">
-        <v>1817</v>
+        <v>1805</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>1818</v>
+        <v>1806</v>
       </c>
       <c r="B30" t="s">
-        <v>1819</v>
+        <v>1807</v>
       </c>
       <c r="C30" s="29" t="s">
-        <v>1820</v>
+        <v>1808</v>
       </c>
     </row>
     <row r="31" spans="1:3">
-      <c r="A31" s="19" t="s">
-        <v>1863</v>
-      </c>
-      <c r="B31" s="27" t="s">
-        <v>1869</v>
-      </c>
-      <c r="C31" s="27" t="s">
-        <v>1866</v>
+      <c r="A31" s="30" t="s">
+        <v>1847</v>
+      </c>
+      <c r="B31" s="29" t="s">
+        <v>1853</v>
+      </c>
+      <c r="C31" s="29" t="s">
+        <v>1850</v>
       </c>
     </row>
     <row r="32" spans="1:3">
-      <c r="A32" s="12" t="s">
-        <v>1864</v>
-      </c>
-      <c r="B32" s="27" t="s">
-        <v>1870</v>
-      </c>
-      <c r="C32" s="27" t="s">
-        <v>1867</v>
+      <c r="A32" s="31" t="s">
+        <v>1848</v>
+      </c>
+      <c r="B32" s="29" t="s">
+        <v>1854</v>
+      </c>
+      <c r="C32" s="29" t="s">
+        <v>1851</v>
       </c>
     </row>
     <row r="33" spans="1:3">
-      <c r="A33" s="12" t="s">
-        <v>1865</v>
-      </c>
-      <c r="B33" s="27" t="s">
-        <v>1871</v>
-      </c>
-      <c r="C33" s="27" t="s">
-        <v>1868</v>
+      <c r="A33" s="31" t="s">
+        <v>1849</v>
+      </c>
+      <c r="B33" s="29" t="s">
+        <v>1855</v>
+      </c>
+      <c r="C33" s="29" t="s">
+        <v>1852</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="4" t="s">
-        <v>1821</v>
+        <v>1809</v>
       </c>
       <c r="B34" t="s">
-        <v>1844</v>
+        <v>1832</v>
       </c>
       <c r="C34" t="s">
-        <v>1878</v>
+        <v>1862</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="4" t="s">
-        <v>1822</v>
+        <v>1810</v>
       </c>
       <c r="B35" t="s">
-        <v>1841</v>
+        <v>1829</v>
       </c>
       <c r="C35" t="s">
-        <v>1879</v>
+        <v>1863</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="4" t="s">
-        <v>1823</v>
+        <v>1811</v>
       </c>
       <c r="B36" t="s">
-        <v>1842</v>
+        <v>1830</v>
       </c>
       <c r="C36" t="s">
-        <v>1880</v>
+        <v>1864</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="4" t="s">
-        <v>1824</v>
+        <v>1812</v>
       </c>
       <c r="B37" t="s">
-        <v>1825</v>
+        <v>1813</v>
       </c>
       <c r="C37" t="s">
-        <v>1826</v>
+        <v>1814</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="19" t="s">
+        <v>1875</v>
+      </c>
+      <c r="B38" s="27" t="s">
+        <v>1874</v>
+      </c>
+      <c r="C38" s="27" t="s">
+        <v>1876</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="4" t="s">
+        <v>1889</v>
+      </c>
+      <c r="B39" t="s">
+        <v>1890</v>
+      </c>
+      <c r="C39" t="s">
+        <v>1886</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="4" t="s">
+        <v>1891</v>
+      </c>
+      <c r="B40" t="s">
+        <v>1892</v>
+      </c>
+      <c r="C40" t="s">
+        <v>1887</v>
       </c>
     </row>
   </sheetData>
@@ -12154,7 +12225,7 @@
         <v>629</v>
       </c>
       <c r="B84" t="s">
-        <v>1850</v>
+        <v>1838</v>
       </c>
       <c r="C84" s="1" t="s">
         <v>442</v>
@@ -15843,7 +15914,7 @@
         <v>1102</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>1361</v>
+        <v>1358</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>1128</v>
@@ -16243,7 +16314,7 @@
         <v>1143</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>1832</v>
+        <v>1820</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>968</v>

--- a/config_debug/audio_config.xlsx
+++ b/config_debug/audio_config.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2153" uniqueCount="1893">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2159" uniqueCount="1898">
   <si>
     <t>sod_game_lose</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -6559,47 +6559,394 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>孙悟空技能-火眼金睛-妖怪哪里跑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消除唐僧音效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_sdbgj_ts_zj</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消除唐僧免费次数撞击音效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>孙悟空撞击白骨精音效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_sdbgj_swk_ui</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>孙悟空技能界面撞击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_sdbgj_swk_yj</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>孙悟空技能摇奖音效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_sdbgj_jgb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>孙悟空技能-金箍棒-吃俺老孙一棒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_sdbgj_jg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_sdbgj_jg.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>孙悟空技能-金箍-领教下俺老孙的本事吧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_sdbgj_xhz</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_sdbgj_xhz.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>孙悟空技能-小猴子-哼，这就是他们的本事？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_sdbgj_jiangli1</t>
+  </si>
+  <si>
+    <t>bgm_sdbgj_jiangli2</t>
+  </si>
+  <si>
+    <t>bgm_sdbgj_jiangli3</t>
+  </si>
+  <si>
+    <t>bgm_sdbgj_jiangli4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_sdbgj_jiangli4.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结算4（暂时屏蔽背景音乐）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_by_siwang13.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_by_siwang26.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_3dby_siwang11.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_by_count_1.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_3dby_jl4.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_shxxl_jiangli1.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_xxl_luoxia.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_sdbgj_kaishi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_sdbgj_kaishi.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>免费游戏中消除唐僧音效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_sdbgj_free_ts_xc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_sdbgj_ts_xc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_sdbgj_free_ts_xc.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_sdbgj_jiangli2.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_sdbgj_jiangli3.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_csxxl_jiesuan1.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_sdbgj_jiangli1.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_3dby_goldboomfish.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_by_yincanghuodong.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_by_tiaozhanrenwuchuxian.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_3dby_zuantouboom.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_4bei.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sod_game_card_bombsod.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sod_game_card_bombsod.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_ttl_lababaozha.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_ttl_dabaopo.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_sdbgj_bgj_sl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_3dby_siwang21.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>炸弹鱼人声</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄金炸弹鱼人声</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_3dby_boomfish.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_sdbgj_bgj_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_sdbgj_bgj_2</t>
+  </si>
+  <si>
+    <t>bgm_sdbgj_bgj_3</t>
+  </si>
+  <si>
+    <t>白骨精-村妇音效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>白骨精-老妇音效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>白骨精-老头音效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_sdbgj_bgj_1.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_sdbgj_bgj_2.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_sdbgj_bgj_3.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>元素落下</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1消</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2消</t>
+  </si>
+  <si>
+    <t>4消</t>
+  </si>
+  <si>
+    <t>5消</t>
+  </si>
+  <si>
+    <t>加减注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结算1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结算2</t>
+  </si>
+  <si>
+    <t>结算3（暂时屏蔽背景音乐）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_by_zhadanyu_rensheng</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_by_zhadanyu1_rensheng</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>炸弹鱼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄金炸弹鱼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_sdbgj_beijing.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_sdbgj_bgj_yj</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_sdbgj_bgj_yj.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_csxxl_caishenyaojiang.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_csxxl_tiannvsanhuabeijing.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_csxxl_caishendanchufa.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_sdbgj_free_chufa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>免费游戏触发音效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BIG GAME奖池撞击音效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>白骨精摇奖音效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>洒落白骨精音效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_sdbgj_yanwu.mp3</t>
+  </si>
+  <si>
+    <t>bgm_sdbgj_swk_huo.mp3</t>
+  </si>
+  <si>
+    <t>bgm_sdbgj_hyjj.mp3</t>
+  </si>
+  <si>
+    <t>bgm_sdbgj_swk_yj.mp3</t>
+  </si>
+  <si>
+    <t>bgm_sdbgj_bgj_sl.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BIG GAME白骨精出现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BIG GAME孙悟空摇奖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_sdbgj_bg_zj</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_sdbgj_bg_bgj</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_sdbgj_bg_bgj.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_sdbgj_bg_swk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_sdbgj_ts_xc.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>bgm_sdbgj_hyjj</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>孙悟空技能-火眼金睛-妖怪哪里跑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>消除唐僧音效</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_sdbgj_ts_zj</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>消除唐僧免费次数撞击音效</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>孙悟空撞击白骨精音效</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_sdbgj_swk_ui</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>孙悟空技能界面撞击</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_sdbgj_swk_yj</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>孙悟空技能摇奖音效</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_sdbgj_jgb</t>
+    <t>bgm_sdbgj_zj</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -6607,354 +6954,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>孙悟空技能-金箍棒-吃俺老孙一棒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_sdbgj_jg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_sdbgj_jg.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>孙悟空技能-金箍-领教下俺老孙的本事吧</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_sdbgj_xhz</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_sdbgj_xhz.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>孙悟空技能-小猴子-哼，这就是他们的本事？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_sdbgj_jiangli1</t>
-  </si>
-  <si>
-    <t>bgm_sdbgj_jiangli2</t>
-  </si>
-  <si>
-    <t>bgm_sdbgj_jiangli3</t>
-  </si>
-  <si>
-    <t>bgm_sdbgj_jiangli4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_sdbgj_jiangli4.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>结算4（暂时屏蔽背景音乐）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_by_siwang13.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_by_siwang26.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_3dby_siwang11.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_by_count_1.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_3dby_jl4.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_shxxl_jiangli1.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_xxl_luoxia.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_sdbgj_kaishi</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_sdbgj_kaishi.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>免费游戏中消除唐僧音效</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_sdbgj_free_ts_xc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_sdbgj_ts_xc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_sdbgj_ts_xc.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_sdbgj_free_ts_xc.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_sdbgj_jiangli2.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_sdbgj_jiangli3.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_csxxl_jiesuan1.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_sdbgj_jiangli1.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_3dby_goldboomfish.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_by_yincanghuodong.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_by_tiaozhanrenwuchuxian.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_3dby_zuantouboom.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_4bei.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sod_game_card_bombsod.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sod_game_card_bombsod.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_ttl_lababaozha.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_ttl_dabaopo.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_sdbgj_bgj_sl</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_3dby_siwang21.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>炸弹鱼人声</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>黄金炸弹鱼人声</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_3dby_boomfish.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_sdbgj_bgj_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_sdbgj_bgj_2</t>
-  </si>
-  <si>
-    <t>bgm_sdbgj_bgj_3</t>
-  </si>
-  <si>
-    <t>白骨精-村妇音效</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>白骨精-老妇音效</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>白骨精-老头音效</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_sdbgj_bgj_1.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_sdbgj_bgj_2.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_sdbgj_bgj_3.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>元素落下</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1消</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2消</t>
-  </si>
-  <si>
-    <t>4消</t>
-  </si>
-  <si>
-    <t>5消</t>
-  </si>
-  <si>
-    <t>加减注</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>结算1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>结算2</t>
-  </si>
-  <si>
-    <t>结算3（暂时屏蔽背景音乐）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_by_zhadanyu_rensheng</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_by_zhadanyu1_rensheng</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>炸弹鱼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>黄金炸弹鱼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_sdbgj_beijing.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_sdbgj_bgj_yj</t>
+    <t>孙悟空卡牌攻击白骨精时音效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>免费游戏前白骨精对话</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_sdbgj_swk_gongji</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_sdbgj_swk_bgj_duihua</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_sdbgj_swk_bgj_duihua.mp3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>bgm_sdbgj_bgj_yj.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_csxxl_caishenyaojiang.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_csxxl_tiannvsanhuabeijing.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_csxxl_caishendanchufa.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_sdbgj_free_chufa</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>免费游戏触发音效</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BIG GAME奖池撞击音效</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>白骨精摇奖音效</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>洒落白骨精音效</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_sdbgj_zj</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_sdbgj_yanwu.mp3</t>
-  </si>
-  <si>
-    <t>bgm_sdbgj_swk_huo.mp3</t>
-  </si>
-  <si>
-    <t>bgm_sdbgj_hyjj.mp3</t>
-  </si>
-  <si>
-    <t>bgm_sdbgj_swk_yj.mp3</t>
-  </si>
-  <si>
-    <t>bgm_sdbgj_bgj_sl.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BIG GAME白骨精出现</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BIG GAME孙悟空摇奖</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_sdbgj_bg_zj</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_sdbgj_bg_bgj</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_sdbgj_bg_bgj.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_sdbgj_bg_swk</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_sdbgj_bg_swk.mp3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -7891,7 +7911,7 @@
         <v>1003</v>
       </c>
       <c r="B40" t="s">
-        <v>1837</v>
+        <v>1834</v>
       </c>
       <c r="C40" t="s">
         <v>1002</v>
@@ -8323,7 +8343,7 @@
         <v>1302</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>1873</v>
+        <v>1870</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>1303</v>
@@ -8334,7 +8354,7 @@
         <v>1308</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>1874</v>
+        <v>1871</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>1310</v>
@@ -8345,7 +8365,7 @@
         <v>1311</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>1872</v>
+        <v>1869</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>1312</v>
@@ -8356,7 +8376,7 @@
         <v>1304</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>1831</v>
+        <v>1828</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>1313</v>
@@ -8753,7 +8773,7 @@
         <v>1466</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>1819</v>
+        <v>1817</v>
       </c>
       <c r="C19" s="13" t="s">
         <v>1467</v>
@@ -8971,7 +8991,7 @@
         <v>1471</v>
       </c>
       <c r="B39" s="25" t="s">
-        <v>1817</v>
+        <v>1815</v>
       </c>
       <c r="C39" s="14" t="s">
         <v>1692</v>
@@ -9035,7 +9055,7 @@
         <v>1476</v>
       </c>
       <c r="B45" s="25" t="s">
-        <v>1816</v>
+        <v>1814</v>
       </c>
       <c r="C45" s="14" t="s">
         <v>1697</v>
@@ -9046,7 +9066,7 @@
         <v>1477</v>
       </c>
       <c r="B46" s="25" t="s">
-        <v>1815</v>
+        <v>1813</v>
       </c>
       <c r="C46" s="14" t="s">
         <v>1698</v>
@@ -9296,7 +9316,7 @@
         <v>1747</v>
       </c>
       <c r="C70" s="14" t="s">
-        <v>1867</v>
+        <v>1864</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="16.5">
@@ -9304,10 +9324,10 @@
         <v>1488</v>
       </c>
       <c r="B71" s="25" t="s">
-        <v>1843</v>
+        <v>1840</v>
       </c>
       <c r="C71" s="14" t="s">
-        <v>1868</v>
+        <v>1865</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="16.5">
@@ -9337,7 +9357,7 @@
         <v>1494</v>
       </c>
       <c r="B74" s="13" t="s">
-        <v>1834</v>
+        <v>1831</v>
       </c>
       <c r="C74" s="14" t="s">
         <v>1495</v>
@@ -9348,7 +9368,7 @@
         <v>1496</v>
       </c>
       <c r="B75" s="13" t="s">
-        <v>1835</v>
+        <v>1832</v>
       </c>
       <c r="C75" s="14" t="s">
         <v>1497</v>
@@ -9447,7 +9467,7 @@
         <v>1517</v>
       </c>
       <c r="B84" s="13" t="s">
-        <v>1836</v>
+        <v>1833</v>
       </c>
       <c r="C84" s="14" t="s">
         <v>1518</v>
@@ -9744,7 +9764,7 @@
         <v>1712</v>
       </c>
       <c r="B111" s="18" t="s">
-        <v>1818</v>
+        <v>1816</v>
       </c>
       <c r="C111" s="17" t="s">
         <v>1730</v>
@@ -9884,24 +9904,24 @@
     </row>
     <row r="123" spans="1:4" ht="16.5">
       <c r="A123" s="13" t="s">
-        <v>1865</v>
+        <v>1862</v>
       </c>
       <c r="B123" s="13" t="s">
-        <v>1846</v>
+        <v>1843</v>
       </c>
       <c r="C123" s="14" t="s">
-        <v>1844</v>
+        <v>1841</v>
       </c>
     </row>
     <row r="124" spans="1:4" ht="16.5">
       <c r="A124" s="13" t="s">
-        <v>1866</v>
+        <v>1863</v>
       </c>
       <c r="B124" s="13" t="s">
-        <v>1833</v>
+        <v>1830</v>
       </c>
       <c r="C124" s="14" t="s">
-        <v>1845</v>
+        <v>1842</v>
       </c>
     </row>
   </sheetData>
@@ -10052,7 +10072,7 @@
         <v>1402</v>
       </c>
       <c r="B12" t="s">
-        <v>1841</v>
+        <v>1838</v>
       </c>
       <c r="C12" t="s">
         <v>1403</v>
@@ -10151,7 +10171,7 @@
         <v>1425</v>
       </c>
       <c r="B21" t="s">
-        <v>1840</v>
+        <v>1837</v>
       </c>
       <c r="C21" t="s">
         <v>1426</v>
@@ -10334,10 +10354,10 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C40"/>
+  <dimension ref="A1:C42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -10363,7 +10383,7 @@
         <v>1762</v>
       </c>
       <c r="B2" t="s">
-        <v>1869</v>
+        <v>1866</v>
       </c>
       <c r="C2" t="s">
         <v>746</v>
@@ -10371,10 +10391,10 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="4" t="s">
-        <v>1822</v>
+        <v>1820</v>
       </c>
       <c r="B3" t="s">
-        <v>1823</v>
+        <v>1821</v>
       </c>
       <c r="C3" t="s">
         <v>1763</v>
@@ -10385,10 +10405,10 @@
         <v>1764</v>
       </c>
       <c r="B4" t="s">
-        <v>1821</v>
+        <v>1819</v>
       </c>
       <c r="C4" t="s">
-        <v>1856</v>
+        <v>1853</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -10399,7 +10419,7 @@
         <v>1766</v>
       </c>
       <c r="C5" t="s">
-        <v>1857</v>
+        <v>1854</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -10410,7 +10430,7 @@
         <v>1766</v>
       </c>
       <c r="C6" t="s">
-        <v>1858</v>
+        <v>1855</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -10432,7 +10452,7 @@
         <v>1766</v>
       </c>
       <c r="C8" t="s">
-        <v>1859</v>
+        <v>1856</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -10443,7 +10463,7 @@
         <v>1766</v>
       </c>
       <c r="C9" t="s">
-        <v>1860</v>
+        <v>1857</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -10465,7 +10485,7 @@
         <v>1773</v>
       </c>
       <c r="C11" t="s">
-        <v>1861</v>
+        <v>1858</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -10484,7 +10504,7 @@
         <v>1777</v>
       </c>
       <c r="B13" t="s">
-        <v>1881</v>
+        <v>1877</v>
       </c>
       <c r="C13" t="s">
         <v>1778</v>
@@ -10506,7 +10526,7 @@
         <v>1782</v>
       </c>
       <c r="B15" t="s">
-        <v>1882</v>
+        <v>1878</v>
       </c>
       <c r="C15" t="s">
         <v>1783</v>
@@ -10536,255 +10556,277 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="4" t="s">
+        <v>1889</v>
+      </c>
+      <c r="B18" t="s">
+        <v>1879</v>
+      </c>
+      <c r="C18" t="s">
         <v>1790</v>
-      </c>
-      <c r="B18" t="s">
-        <v>1883</v>
-      </c>
-      <c r="C18" t="s">
-        <v>1791</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="4" t="s">
-        <v>1826</v>
+        <v>1824</v>
       </c>
       <c r="B19" t="s">
-        <v>1827</v>
+        <v>1888</v>
       </c>
       <c r="C19" s="28" t="s">
-        <v>1792</v>
+        <v>1791</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="4" t="s">
+        <v>1823</v>
+      </c>
+      <c r="B20" t="s">
         <v>1825</v>
       </c>
-      <c r="B20" t="s">
-        <v>1828</v>
-      </c>
       <c r="C20" s="29" t="s">
-        <v>1824</v>
+        <v>1822</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="4" t="s">
-        <v>1793</v>
+        <v>1792</v>
       </c>
       <c r="B21" t="s">
         <v>1146</v>
       </c>
       <c r="C21" s="29" t="s">
-        <v>1794</v>
+        <v>1793</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="4" t="s">
-        <v>1888</v>
+        <v>1884</v>
       </c>
       <c r="B22" t="s">
         <v>1146</v>
       </c>
       <c r="C22" s="29" t="s">
-        <v>1877</v>
+        <v>1874</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="4" t="s">
-        <v>1880</v>
+        <v>1890</v>
       </c>
       <c r="B23" t="s">
-        <v>1839</v>
+        <v>1836</v>
       </c>
       <c r="C23" s="29" t="s">
-        <v>1795</v>
+        <v>1794</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="4" t="s">
-        <v>1870</v>
+        <v>1867</v>
       </c>
       <c r="B24" t="s">
-        <v>1871</v>
+        <v>1897</v>
       </c>
       <c r="C24" s="29" t="s">
-        <v>1878</v>
+        <v>1875</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="4" t="s">
-        <v>1842</v>
+        <v>1839</v>
       </c>
       <c r="B25" t="s">
-        <v>1885</v>
+        <v>1881</v>
       </c>
       <c r="C25" s="29" t="s">
-        <v>1879</v>
+        <v>1876</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="4" t="s">
-        <v>1796</v>
+        <v>1795</v>
       </c>
       <c r="B26" t="s">
         <v>1146</v>
       </c>
       <c r="C26" s="29" t="s">
-        <v>1797</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="32" t="s">
+        <v>1797</v>
+      </c>
+      <c r="B27" s="33" t="s">
+        <v>1880</v>
+      </c>
+      <c r="C27" s="33" t="s">
         <v>1798</v>
-      </c>
-      <c r="B27" s="33" t="s">
-        <v>1884</v>
-      </c>
-      <c r="C27" s="33" t="s">
-        <v>1799</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
+        <v>1799</v>
+      </c>
+      <c r="B28" t="s">
+        <v>1891</v>
+      </c>
+      <c r="C28" s="29" t="s">
         <v>1800</v>
-      </c>
-      <c r="B28" t="s">
-        <v>1801</v>
-      </c>
-      <c r="C28" s="29" t="s">
-        <v>1802</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
+        <v>1801</v>
+      </c>
+      <c r="B29" t="s">
+        <v>1802</v>
+      </c>
+      <c r="C29" s="29" t="s">
         <v>1803</v>
-      </c>
-      <c r="B29" t="s">
-        <v>1804</v>
-      </c>
-      <c r="C29" s="29" t="s">
-        <v>1805</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
+        <v>1804</v>
+      </c>
+      <c r="B30" t="s">
+        <v>1805</v>
+      </c>
+      <c r="C30" s="29" t="s">
         <v>1806</v>
-      </c>
-      <c r="B30" t="s">
-        <v>1807</v>
-      </c>
-      <c r="C30" s="29" t="s">
-        <v>1808</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="30" t="s">
+        <v>1844</v>
+      </c>
+      <c r="B31" s="29" t="s">
+        <v>1850</v>
+      </c>
+      <c r="C31" s="29" t="s">
         <v>1847</v>
-      </c>
-      <c r="B31" s="29" t="s">
-        <v>1853</v>
-      </c>
-      <c r="C31" s="29" t="s">
-        <v>1850</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="31" t="s">
+        <v>1845</v>
+      </c>
+      <c r="B32" s="29" t="s">
+        <v>1851</v>
+      </c>
+      <c r="C32" s="29" t="s">
         <v>1848</v>
-      </c>
-      <c r="B32" s="29" t="s">
-        <v>1854</v>
-      </c>
-      <c r="C32" s="29" t="s">
-        <v>1851</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="31" t="s">
+        <v>1846</v>
+      </c>
+      <c r="B33" s="29" t="s">
+        <v>1852</v>
+      </c>
+      <c r="C33" s="29" t="s">
         <v>1849</v>
-      </c>
-      <c r="B33" s="29" t="s">
-        <v>1855</v>
-      </c>
-      <c r="C33" s="29" t="s">
-        <v>1852</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="4" t="s">
-        <v>1809</v>
+        <v>1807</v>
       </c>
       <c r="B34" t="s">
-        <v>1832</v>
+        <v>1829</v>
       </c>
       <c r="C34" t="s">
-        <v>1862</v>
+        <v>1859</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="4" t="s">
-        <v>1810</v>
+        <v>1808</v>
       </c>
       <c r="B35" t="s">
-        <v>1829</v>
+        <v>1826</v>
       </c>
       <c r="C35" t="s">
-        <v>1863</v>
+        <v>1860</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="4" t="s">
-        <v>1811</v>
+        <v>1809</v>
       </c>
       <c r="B36" t="s">
-        <v>1830</v>
+        <v>1827</v>
       </c>
       <c r="C36" t="s">
-        <v>1864</v>
+        <v>1861</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="4" t="s">
+        <v>1810</v>
+      </c>
+      <c r="B37" t="s">
+        <v>1811</v>
+      </c>
+      <c r="C37" t="s">
         <v>1812</v>
       </c>
-      <c r="B37" t="s">
-        <v>1813</v>
-      </c>
-      <c r="C37" t="s">
-        <v>1814</v>
-      </c>
     </row>
     <row r="38" spans="1:3">
-      <c r="A38" s="19" t="s">
-        <v>1875</v>
-      </c>
-      <c r="B38" s="27" t="s">
-        <v>1874</v>
-      </c>
-      <c r="C38" s="27" t="s">
-        <v>1876</v>
+      <c r="A38" s="30" t="s">
+        <v>1872</v>
+      </c>
+      <c r="B38" s="29" t="s">
+        <v>1871</v>
+      </c>
+      <c r="C38" s="29" t="s">
+        <v>1873</v>
       </c>
     </row>
     <row r="39" spans="1:3">
-      <c r="A39" s="4" t="s">
-        <v>1889</v>
-      </c>
-      <c r="B39" t="s">
-        <v>1890</v>
-      </c>
-      <c r="C39" t="s">
+      <c r="A39" s="19" t="s">
+        <v>1885</v>
+      </c>
+      <c r="B39" s="27" t="s">
         <v>1886</v>
       </c>
+      <c r="C39" s="27" t="s">
+        <v>1882</v>
+      </c>
     </row>
     <row r="40" spans="1:3">
-      <c r="A40" s="4" t="s">
+      <c r="A40" s="31" t="s">
+        <v>1887</v>
+      </c>
+      <c r="B40" s="29" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C40" s="29" t="s">
+        <v>1883</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" t="s">
+        <v>1894</v>
+      </c>
+      <c r="B41" t="s">
         <v>1891</v>
       </c>
-      <c r="B40" t="s">
+      <c r="C41" t="s">
         <v>1892</v>
       </c>
-      <c r="C40" t="s">
-        <v>1887</v>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" t="s">
+        <v>1895</v>
+      </c>
+      <c r="B42" t="s">
+        <v>1896</v>
+      </c>
+      <c r="C42" t="s">
+        <v>1893</v>
       </c>
     </row>
   </sheetData>
@@ -12225,7 +12267,7 @@
         <v>629</v>
       </c>
       <c r="B84" t="s">
-        <v>1838</v>
+        <v>1835</v>
       </c>
       <c r="C84" s="1" t="s">
         <v>442</v>
@@ -16314,7 +16356,7 @@
         <v>1143</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>1820</v>
+        <v>1818</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>968</v>

--- a/config_debug/audio_config.xlsx
+++ b/config_debug/audio_config.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2159" uniqueCount="1898">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2162" uniqueCount="1903">
   <si>
     <t>sod_game_lose</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -6680,301 +6680,321 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>免费游戏中消除唐僧音效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_sdbgj_free_ts_xc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_sdbgj_ts_xc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_sdbgj_free_ts_xc.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_sdbgj_jiangli2.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_sdbgj_jiangli3.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_csxxl_jiesuan1.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_sdbgj_jiangli1.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_3dby_goldboomfish.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_by_yincanghuodong.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_by_tiaozhanrenwuchuxian.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_3dby_zuantouboom.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_4bei.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sod_game_card_bombsod.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sod_game_card_bombsod.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_ttl_lababaozha.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_ttl_dabaopo.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_sdbgj_bgj_sl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_3dby_siwang21.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>炸弹鱼人声</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄金炸弹鱼人声</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_3dby_boomfish.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_sdbgj_bgj_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_sdbgj_bgj_2</t>
+  </si>
+  <si>
+    <t>bgm_sdbgj_bgj_3</t>
+  </si>
+  <si>
+    <t>白骨精-村妇音效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>白骨精-老妇音效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>白骨精-老头音效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_sdbgj_bgj_1.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_sdbgj_bgj_2.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_sdbgj_bgj_3.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>元素落下</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1消</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2消</t>
+  </si>
+  <si>
+    <t>4消</t>
+  </si>
+  <si>
+    <t>5消</t>
+  </si>
+  <si>
+    <t>加减注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结算1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结算2</t>
+  </si>
+  <si>
+    <t>结算3（暂时屏蔽背景音乐）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_by_zhadanyu_rensheng</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_by_zhadanyu1_rensheng</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>炸弹鱼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄金炸弹鱼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_sdbgj_beijing.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_sdbgj_bgj_yj</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_sdbgj_bgj_yj.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_csxxl_caishenyaojiang.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_csxxl_tiannvsanhuabeijing.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_csxxl_caishendanchufa.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_sdbgj_free_chufa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>免费游戏触发音效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BIG GAME奖池撞击音效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>白骨精摇奖音效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>洒落白骨精音效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_sdbgj_yanwu.mp3</t>
+  </si>
+  <si>
+    <t>bgm_sdbgj_swk_huo.mp3</t>
+  </si>
+  <si>
+    <t>bgm_sdbgj_hyjj.mp3</t>
+  </si>
+  <si>
+    <t>bgm_sdbgj_swk_yj.mp3</t>
+  </si>
+  <si>
+    <t>bgm_sdbgj_bgj_sl.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BIG GAME白骨精出现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BIG GAME孙悟空摇奖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_sdbgj_bg_zj</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_sdbgj_bg_bgj</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_sdbgj_bg_bgj.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_sdbgj_bg_swk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_sdbgj_ts_xc.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_sdbgj_hyjj</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_sdbgj_zj</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_sdbgj_jgb.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>孙悟空卡牌攻击白骨精时音效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>免费游戏前白骨精对话</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_sdbgj_swk_gongji</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_sdbgj_swk_bgj_duihua</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_sdbgj_swk_bgj_duihua.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_sdbgj_bgj_yj.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_csxxl_caishendanchufa.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_sdbgj_jinru</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_sdbgj_jinru.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_sdbgj_jgb.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>bgm_sdbgj_kaishi.mp3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>免费游戏中消除唐僧音效</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_sdbgj_free_ts_xc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_sdbgj_ts_xc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_sdbgj_free_ts_xc.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_sdbgj_jiangli2.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_sdbgj_jiangli3.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_csxxl_jiesuan1.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_sdbgj_jiangli1.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_3dby_goldboomfish.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_by_yincanghuodong.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_by_tiaozhanrenwuchuxian.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_3dby_zuantouboom.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_4bei.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sod_game_card_bombsod.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sod_game_card_bombsod.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_ttl_lababaozha.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_ttl_dabaopo.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_sdbgj_bgj_sl</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_3dby_siwang21.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>炸弹鱼人声</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>黄金炸弹鱼人声</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_3dby_boomfish.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_sdbgj_bgj_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_sdbgj_bgj_2</t>
-  </si>
-  <si>
-    <t>bgm_sdbgj_bgj_3</t>
-  </si>
-  <si>
-    <t>白骨精-村妇音效</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>白骨精-老妇音效</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>白骨精-老头音效</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_sdbgj_bgj_1.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_sdbgj_bgj_2.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_sdbgj_bgj_3.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>元素落下</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1消</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2消</t>
-  </si>
-  <si>
-    <t>4消</t>
-  </si>
-  <si>
-    <t>5消</t>
-  </si>
-  <si>
-    <t>加减注</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>结算1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>结算2</t>
-  </si>
-  <si>
-    <t>结算3（暂时屏蔽背景音乐）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_by_zhadanyu_rensheng</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_by_zhadanyu1_rensheng</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>炸弹鱼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>黄金炸弹鱼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_sdbgj_beijing.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_sdbgj_bgj_yj</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_sdbgj_bgj_yj.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_csxxl_caishenyaojiang.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_csxxl_tiannvsanhuabeijing.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_csxxl_caishendanchufa.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_sdbgj_free_chufa</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>免费游戏触发音效</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BIG GAME奖池撞击音效</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>白骨精摇奖音效</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>洒落白骨精音效</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_sdbgj_yanwu.mp3</t>
-  </si>
-  <si>
-    <t>bgm_sdbgj_swk_huo.mp3</t>
-  </si>
-  <si>
-    <t>bgm_sdbgj_hyjj.mp3</t>
-  </si>
-  <si>
-    <t>bgm_sdbgj_swk_yj.mp3</t>
-  </si>
-  <si>
-    <t>bgm_sdbgj_bgj_sl.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BIG GAME白骨精出现</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BIG GAME孙悟空摇奖</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_sdbgj_bg_zj</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_sdbgj_bg_bgj</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_sdbgj_bg_bgj.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_sdbgj_bg_swk</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_sdbgj_ts_xc.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_sdbgj_hyjj</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_sdbgj_zj</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_sdbgj_jgb.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>孙悟空卡牌攻击白骨精时音效</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>免费游戏前白骨精对话</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_sdbgj_swk_gongji</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_sdbgj_swk_bgj_duihua</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_sdbgj_swk_bgj_duihua.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_sdbgj_bgj_yj.mp3</t>
+    <t>打开游戏，孙悟空说话</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -7911,7 +7931,7 @@
         <v>1003</v>
       </c>
       <c r="B40" t="s">
-        <v>1834</v>
+        <v>1833</v>
       </c>
       <c r="C40" t="s">
         <v>1002</v>
@@ -8343,7 +8363,7 @@
         <v>1302</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>1870</v>
+        <v>1869</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>1303</v>
@@ -8354,7 +8374,7 @@
         <v>1308</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>1871</v>
+        <v>1870</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>1310</v>
@@ -8365,7 +8385,7 @@
         <v>1311</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>1869</v>
+        <v>1868</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>1312</v>
@@ -8376,7 +8396,7 @@
         <v>1304</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>1828</v>
+        <v>1827</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>1313</v>
@@ -9316,7 +9336,7 @@
         <v>1747</v>
       </c>
       <c r="C70" s="14" t="s">
-        <v>1864</v>
+        <v>1863</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="16.5">
@@ -9324,10 +9344,10 @@
         <v>1488</v>
       </c>
       <c r="B71" s="25" t="s">
-        <v>1840</v>
+        <v>1839</v>
       </c>
       <c r="C71" s="14" t="s">
-        <v>1865</v>
+        <v>1864</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="16.5">
@@ -9357,7 +9377,7 @@
         <v>1494</v>
       </c>
       <c r="B74" s="13" t="s">
-        <v>1831</v>
+        <v>1830</v>
       </c>
       <c r="C74" s="14" t="s">
         <v>1495</v>
@@ -9368,7 +9388,7 @@
         <v>1496</v>
       </c>
       <c r="B75" s="13" t="s">
-        <v>1832</v>
+        <v>1831</v>
       </c>
       <c r="C75" s="14" t="s">
         <v>1497</v>
@@ -9467,7 +9487,7 @@
         <v>1517</v>
       </c>
       <c r="B84" s="13" t="s">
-        <v>1833</v>
+        <v>1832</v>
       </c>
       <c r="C84" s="14" t="s">
         <v>1518</v>
@@ -9904,24 +9924,24 @@
     </row>
     <row r="123" spans="1:4" ht="16.5">
       <c r="A123" s="13" t="s">
-        <v>1862</v>
+        <v>1861</v>
       </c>
       <c r="B123" s="13" t="s">
-        <v>1843</v>
+        <v>1842</v>
       </c>
       <c r="C123" s="14" t="s">
-        <v>1841</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="124" spans="1:4" ht="16.5">
       <c r="A124" s="13" t="s">
-        <v>1863</v>
+        <v>1862</v>
       </c>
       <c r="B124" s="13" t="s">
-        <v>1830</v>
+        <v>1829</v>
       </c>
       <c r="C124" s="14" t="s">
-        <v>1842</v>
+        <v>1841</v>
       </c>
     </row>
   </sheetData>
@@ -10072,7 +10092,7 @@
         <v>1402</v>
       </c>
       <c r="B12" t="s">
-        <v>1838</v>
+        <v>1837</v>
       </c>
       <c r="C12" t="s">
         <v>1403</v>
@@ -10171,7 +10191,7 @@
         <v>1425</v>
       </c>
       <c r="B21" t="s">
-        <v>1837</v>
+        <v>1836</v>
       </c>
       <c r="C21" t="s">
         <v>1426</v>
@@ -10354,10 +10374,10 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C42"/>
+  <dimension ref="A1:C43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B41" sqref="B41"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -10383,7 +10403,7 @@
         <v>1762</v>
       </c>
       <c r="B2" t="s">
-        <v>1866</v>
+        <v>1865</v>
       </c>
       <c r="C2" t="s">
         <v>746</v>
@@ -10394,7 +10414,7 @@
         <v>1820</v>
       </c>
       <c r="B3" t="s">
-        <v>1821</v>
+        <v>1901</v>
       </c>
       <c r="C3" t="s">
         <v>1763</v>
@@ -10408,7 +10428,7 @@
         <v>1819</v>
       </c>
       <c r="C4" t="s">
-        <v>1853</v>
+        <v>1852</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -10419,7 +10439,7 @@
         <v>1766</v>
       </c>
       <c r="C5" t="s">
-        <v>1854</v>
+        <v>1853</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -10430,7 +10450,7 @@
         <v>1766</v>
       </c>
       <c r="C6" t="s">
-        <v>1855</v>
+        <v>1854</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -10452,7 +10472,7 @@
         <v>1766</v>
       </c>
       <c r="C8" t="s">
-        <v>1856</v>
+        <v>1855</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -10463,7 +10483,7 @@
         <v>1766</v>
       </c>
       <c r="C9" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -10485,7 +10505,7 @@
         <v>1773</v>
       </c>
       <c r="C11" t="s">
-        <v>1858</v>
+        <v>1857</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -10504,7 +10524,7 @@
         <v>1777</v>
       </c>
       <c r="B13" t="s">
-        <v>1877</v>
+        <v>1876</v>
       </c>
       <c r="C13" t="s">
         <v>1778</v>
@@ -10526,7 +10546,7 @@
         <v>1782</v>
       </c>
       <c r="B15" t="s">
-        <v>1878</v>
+        <v>1877</v>
       </c>
       <c r="C15" t="s">
         <v>1783</v>
@@ -10556,10 +10576,10 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="4" t="s">
-        <v>1889</v>
+        <v>1888</v>
       </c>
       <c r="B18" t="s">
-        <v>1879</v>
+        <v>1878</v>
       </c>
       <c r="C18" t="s">
         <v>1790</v>
@@ -10567,10 +10587,10 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="4" t="s">
-        <v>1824</v>
+        <v>1823</v>
       </c>
       <c r="B19" t="s">
-        <v>1888</v>
+        <v>1887</v>
       </c>
       <c r="C19" s="28" t="s">
         <v>1791</v>
@@ -10578,13 +10598,13 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="4" t="s">
-        <v>1823</v>
+        <v>1822</v>
       </c>
       <c r="B20" t="s">
-        <v>1825</v>
+        <v>1824</v>
       </c>
       <c r="C20" s="29" t="s">
-        <v>1822</v>
+        <v>1821</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -10600,21 +10620,21 @@
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="4" t="s">
-        <v>1884</v>
+        <v>1883</v>
       </c>
       <c r="B22" t="s">
         <v>1146</v>
       </c>
       <c r="C22" s="29" t="s">
-        <v>1874</v>
+        <v>1873</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="4" t="s">
-        <v>1890</v>
+        <v>1889</v>
       </c>
       <c r="B23" t="s">
-        <v>1836</v>
+        <v>1835</v>
       </c>
       <c r="C23" s="29" t="s">
         <v>1794</v>
@@ -10622,24 +10642,24 @@
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="4" t="s">
-        <v>1867</v>
+        <v>1866</v>
       </c>
       <c r="B24" t="s">
-        <v>1897</v>
+        <v>1896</v>
       </c>
       <c r="C24" s="29" t="s">
-        <v>1875</v>
+        <v>1874</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="4" t="s">
-        <v>1839</v>
+        <v>1838</v>
       </c>
       <c r="B25" t="s">
-        <v>1881</v>
+        <v>1880</v>
       </c>
       <c r="C25" s="29" t="s">
-        <v>1876</v>
+        <v>1875</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -10658,7 +10678,7 @@
         <v>1797</v>
       </c>
       <c r="B27" s="33" t="s">
-        <v>1880</v>
+        <v>1879</v>
       </c>
       <c r="C27" s="33" t="s">
         <v>1798</v>
@@ -10669,7 +10689,7 @@
         <v>1799</v>
       </c>
       <c r="B28" t="s">
-        <v>1891</v>
+        <v>1890</v>
       </c>
       <c r="C28" s="29" t="s">
         <v>1800</v>
@@ -10699,35 +10719,35 @@
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="30" t="s">
-        <v>1844</v>
+        <v>1843</v>
       </c>
       <c r="B31" s="29" t="s">
-        <v>1850</v>
+        <v>1849</v>
       </c>
       <c r="C31" s="29" t="s">
-        <v>1847</v>
+        <v>1846</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="31" t="s">
-        <v>1845</v>
+        <v>1844</v>
       </c>
       <c r="B32" s="29" t="s">
-        <v>1851</v>
+        <v>1850</v>
       </c>
       <c r="C32" s="29" t="s">
-        <v>1848</v>
+        <v>1847</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="31" t="s">
-        <v>1846</v>
+        <v>1845</v>
       </c>
       <c r="B33" s="29" t="s">
-        <v>1852</v>
+        <v>1851</v>
       </c>
       <c r="C33" s="29" t="s">
-        <v>1849</v>
+        <v>1848</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -10735,10 +10755,10 @@
         <v>1807</v>
       </c>
       <c r="B34" t="s">
-        <v>1829</v>
+        <v>1828</v>
       </c>
       <c r="C34" t="s">
-        <v>1859</v>
+        <v>1858</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -10746,10 +10766,10 @@
         <v>1808</v>
       </c>
       <c r="B35" t="s">
-        <v>1826</v>
+        <v>1825</v>
       </c>
       <c r="C35" t="s">
-        <v>1860</v>
+        <v>1859</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -10757,10 +10777,10 @@
         <v>1809</v>
       </c>
       <c r="B36" t="s">
-        <v>1827</v>
+        <v>1826</v>
       </c>
       <c r="C36" t="s">
-        <v>1861</v>
+        <v>1860</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -10776,57 +10796,68 @@
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="30" t="s">
+        <v>1871</v>
+      </c>
+      <c r="B38" s="29" t="s">
+        <v>1897</v>
+      </c>
+      <c r="C38" s="29" t="s">
         <v>1872</v>
-      </c>
-      <c r="B38" s="29" t="s">
-        <v>1871</v>
-      </c>
-      <c r="C38" s="29" t="s">
-        <v>1873</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="19" t="s">
+        <v>1884</v>
+      </c>
+      <c r="B39" s="27" t="s">
         <v>1885</v>
       </c>
-      <c r="B39" s="27" t="s">
-        <v>1886</v>
-      </c>
       <c r="C39" s="27" t="s">
-        <v>1882</v>
+        <v>1881</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="31" t="s">
-        <v>1887</v>
+        <v>1886</v>
       </c>
       <c r="B40" s="29" t="s">
-        <v>1868</v>
+        <v>1867</v>
       </c>
       <c r="C40" s="29" t="s">
-        <v>1883</v>
+        <v>1882</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" t="s">
-        <v>1894</v>
+        <v>1893</v>
       </c>
       <c r="B41" t="s">
+        <v>1900</v>
+      </c>
+      <c r="C41" t="s">
         <v>1891</v>
-      </c>
-      <c r="C41" t="s">
-        <v>1892</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" t="s">
+        <v>1894</v>
+      </c>
+      <c r="B42" t="s">
         <v>1895</v>
       </c>
-      <c r="B42" t="s">
-        <v>1896</v>
-      </c>
       <c r="C42" t="s">
-        <v>1893</v>
+        <v>1892</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" t="s">
+        <v>1898</v>
+      </c>
+      <c r="B43" t="s">
+        <v>1899</v>
+      </c>
+      <c r="C43" t="s">
+        <v>1902</v>
       </c>
     </row>
   </sheetData>
@@ -12267,7 +12298,7 @@
         <v>629</v>
       </c>
       <c r="B84" t="s">
-        <v>1835</v>
+        <v>1834</v>
       </c>
       <c r="C84" s="1" t="s">
         <v>442</v>

--- a/config_debug/audio_config.xlsx
+++ b/config_debug/audio_config.xlsx
@@ -7029,10 +7029,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>bgm_pgdz_kaishi.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>开始充能</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -7053,10 +7049,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>bgm_pgdz_zhongzhi.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>其他玩家充能声音</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -7089,10 +7081,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>bgm_lwzb_tingzhi.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>停止充能</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -7161,83 +7149,95 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>受击声音</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_lwzb_jiesuan_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结算界面-赢钱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_lwzb_jiesuan_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结算界面-数钱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_lwzb_cs_bg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>财神大奖开奖界面音效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_lwzb_cs_zhuandong</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>财神大奖开奖转动音效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_lwzb_cs_tingzhi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_lwzb_cs_tingzhi.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>财神大奖开奖停止音效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_lwzb_cs_huojiang</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_lwzb_cs_huojiang.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>财神大奖获奖音效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_lwzb_jieshu.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_lwzb_zhongzhi.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_lwzb_kaishi.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_lwzb_caishenyaojiang.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>bgm_lwzb_shouji.mp3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>受击声音</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_lwzb_jiesuan_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_shxxl_jiangli2.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>结算界面-赢钱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_lwzb_jiesuan_2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_shxxl_jiangli3.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>结算界面-数钱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_lwzb_cs_bg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_csxxl_caishenyaojiang.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>财神大奖开奖界面音效</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_lwzb_cs_zhuandong</t>
+    <t>bgm_lwzb_jiangli2.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_lwzb_jiangli3.mp3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>bgm_lwzb_cs_zhuandong.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>财神大奖开奖转动音效</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_lwzb_cs_tingzhi</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_lwzb_cs_tingzhi.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>财神大奖开奖停止音效</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_lwzb_cs_huojiang</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_lwzb_cs_huojiang.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>财神大奖获奖音效</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -10741,7 +10741,7 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -10875,8 +10875,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C43"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="D42" sqref="D42"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B46" sqref="B46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -11371,7 +11371,7 @@
   <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -11410,197 +11410,197 @@
         <v>1908</v>
       </c>
       <c r="B3" s="38" t="s">
+        <v>1956</v>
+      </c>
+      <c r="C3" s="38" t="s">
         <v>1909</v>
-      </c>
-      <c r="C3" s="38" t="s">
-        <v>1910</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
+        <v>1910</v>
+      </c>
+      <c r="B4" t="s">
         <v>1911</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>1912</v>
-      </c>
-      <c r="C4" t="s">
-        <v>1913</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="38" t="s">
+        <v>1913</v>
+      </c>
+      <c r="B5" s="38" t="s">
+        <v>1955</v>
+      </c>
+      <c r="C5" s="38" t="s">
         <v>1914</v>
-      </c>
-      <c r="B5" s="38" t="s">
-        <v>1915</v>
-      </c>
-      <c r="C5" s="38" t="s">
-        <v>1916</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
+        <v>1915</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1916</v>
+      </c>
+      <c r="C6" t="s">
         <v>1917</v>
-      </c>
-      <c r="B6" t="s">
-        <v>1918</v>
-      </c>
-      <c r="C6" t="s">
-        <v>1919</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
+        <v>1918</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1919</v>
+      </c>
+      <c r="C7" t="s">
         <v>1920</v>
-      </c>
-      <c r="B7" t="s">
-        <v>1921</v>
-      </c>
-      <c r="C7" t="s">
-        <v>1922</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>1923</v>
+        <v>1921</v>
       </c>
       <c r="B8" t="s">
-        <v>1924</v>
+        <v>1954</v>
       </c>
       <c r="C8" t="s">
-        <v>1925</v>
+        <v>1922</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>1926</v>
+        <v>1923</v>
       </c>
       <c r="B9" s="39" t="s">
-        <v>1927</v>
+        <v>1924</v>
       </c>
       <c r="C9" s="27" t="s">
-        <v>1928</v>
+        <v>1925</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>1929</v>
+        <v>1926</v>
       </c>
       <c r="B10" t="s">
-        <v>1930</v>
+        <v>1927</v>
       </c>
       <c r="C10" t="s">
-        <v>1931</v>
+        <v>1928</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>1932</v>
+        <v>1929</v>
       </c>
       <c r="B11" t="s">
-        <v>1933</v>
+        <v>1930</v>
       </c>
       <c r="C11" t="s">
-        <v>1934</v>
+        <v>1931</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="40" t="s">
-        <v>1935</v>
+        <v>1932</v>
       </c>
       <c r="B12" s="40" t="s">
-        <v>1936</v>
+        <v>1933</v>
       </c>
       <c r="C12" s="40" t="s">
-        <v>1937</v>
+        <v>1934</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="40" t="s">
-        <v>1938</v>
+        <v>1935</v>
       </c>
       <c r="B13" s="40" t="s">
-        <v>1939</v>
+        <v>1936</v>
       </c>
       <c r="C13" s="40" t="s">
-        <v>1940</v>
+        <v>1937</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="40" t="s">
-        <v>1941</v>
+        <v>1938</v>
       </c>
       <c r="B14" s="40" t="s">
-        <v>1942</v>
+        <v>1958</v>
       </c>
       <c r="C14" s="40" t="s">
-        <v>1943</v>
+        <v>1939</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="38" t="s">
-        <v>1944</v>
+        <v>1940</v>
       </c>
       <c r="B15" s="38" t="s">
-        <v>1945</v>
+        <v>1959</v>
       </c>
       <c r="C15" s="38" t="s">
-        <v>1946</v>
+        <v>1941</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="38" t="s">
-        <v>1947</v>
+        <v>1942</v>
       </c>
       <c r="B16" s="38" t="s">
-        <v>1948</v>
+        <v>1960</v>
       </c>
       <c r="C16" s="38" t="s">
-        <v>1949</v>
+        <v>1943</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>1950</v>
+        <v>1944</v>
       </c>
       <c r="B17" t="s">
-        <v>1951</v>
+        <v>1957</v>
       </c>
       <c r="C17" t="s">
-        <v>1952</v>
+        <v>1945</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>1953</v>
+        <v>1946</v>
       </c>
       <c r="B18" t="s">
-        <v>1954</v>
+        <v>1961</v>
       </c>
       <c r="C18" t="s">
-        <v>1955</v>
+        <v>1947</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>1956</v>
+        <v>1948</v>
       </c>
       <c r="B19" t="s">
-        <v>1957</v>
+        <v>1949</v>
       </c>
       <c r="C19" t="s">
-        <v>1958</v>
+        <v>1950</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>1959</v>
+        <v>1951</v>
       </c>
       <c r="B20" t="s">
-        <v>1960</v>
+        <v>1952</v>
       </c>
       <c r="C20" t="s">
-        <v>1961</v>
+        <v>1953</v>
       </c>
     </row>
   </sheetData>
